--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E837D-7CBF-4459-87E0-588090183F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF70B0D6-56D6-4283-A888-A903B0BA5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="1935" windowWidth="23310" windowHeight="12705" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2565" yWindow="480" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2281,9 +2281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2321,7 +2321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2427,7 +2427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2569,7 +2569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2579,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF70B0D6-56D6-4283-A888-A903B0BA5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE00D99-7F43-41AB-B2D6-4838AAF30577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="480" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2940" yWindow="1185" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="210">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -2180,6 +2180,14 @@
     <rPh sb="192" eb="194">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DongriPochet_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんぐりポシェット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2224,7 +2232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2234,6 +2242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2252,7 +2266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2261,6 +2275,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2579,7 +2596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -4412,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4477,7 +4494,7 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4979,45 +4996,87 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="4">
+        <v>9999</v>
+      </c>
+      <c r="M14" s="4">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>79</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>73</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>9999</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>9999</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE00D99-7F43-41AB-B2D6-4838AAF30577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2DE85C-47DA-40CC-9E3A-5DFEAA2B67B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1185" windowWidth="24420" windowHeight="14295" activeTab="1" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2535" yWindow="1065" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2596,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4431,7 +4431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD5E9F-9099-4495-A12D-C6B76FFF933E}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2DE85C-47DA-40CC-9E3A-5DFEAA2B67B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0099E679-F148-42EB-9849-9CC3208929A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1065" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2596,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0099E679-F148-42EB-9849-9CC3208929A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC081CA5-50A2-486B-BD00-7E54F94CBF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1980" yWindow="825" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="216">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -840,15 +840,6 @@
     <rPh sb="8" eb="9">
       <t>カタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【アイスクリームのレシピ】
-①&lt;color=#BA9535FF&gt;ミルク・砂糖・バニラエッセンス&lt;/color&gt;を数滴まぜ、液体を作ります。
-②液体を冷やします。冷やす時は、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れると良いでしょう。
-③しばらく経つと、液体が固まって、アイスの出来上がり！
-寒い時ほど、なぜか食べたくなる、珠玉のお菓子です♪
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2126,6 +2117,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DongriPochet_Acce</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんぐりポシェット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【アイスクリームのレシピ】
+①&lt;color=#BA9535FF&gt;ミルク・砂糖・バニラエッセンス&lt;/color&gt;を数滴まぜ、液体を作ります。
+②液体を冷やします。冷やす時は、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;か&lt;color=#FF5CA1FF&gt;「フリージング」の魔法&lt;/color&gt;をかけると良いでしょう。
+③しばらく経つと、液体が固まって、アイスの出来上がり！
+寒い時ほど、なぜか食べたくなる、珠玉のお菓子です♪
+</t>
+    <rPh sb="142" eb="144">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソーダのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soda_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ソーダのレシピ】
+①&lt;color=#BA9535FF&gt;クエン酸&lt;/color&gt;と&lt;color=#BA9535FF&gt;ベーキングパウダー&lt;/color&gt;、それに&lt;color=#BA9535FF&gt;水&lt;/color&gt;を混ぜ合わせる。
+②このままだとしょっぱいので、
+出来上がった炭酸水に、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜる。
+シュワシュワソーダの完成！
+※砂糖と一緒に、お好みでフルーツをまぜると、
+フレーバーなソーダにも仕上がりますよ。</t>
+    <rPh sb="32" eb="33">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="132" eb="135">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="138" eb="141">
+      <t>タンサンスイ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>コノ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">【ブラックチョコレートのレシピ】
 ①カカオ豆　→　ロースト　豆焼きスキルを使う
 焼いた豆の殻むき　→　カカオニブができる。
@@ -2137,6 +2205,7 @@
 31°は超えてはいけない
 ④液体チョコレート　→　ふりーじんぐor氷室
 ブラックチョコレート完成！
+ほろ苦くて甘い♪　カカオがよく効いた絶品のお菓子でございます。
 </t>
     <rPh sb="22" eb="23">
       <t>マメ</t>
@@ -2183,11 +2252,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DongriPochet_Acce</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どんぐりポシェット</t>
+    <t>コーラのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cola_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【コーラのレシピ】
+炭酸水に、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;と&lt;color=#BA9535FF&gt;マーメイドハーブ&lt;/color&gt;を混ぜるんじゃ。
+世にも奇妙な、中毒性のあるソーダ水の完成じゃて・・。ヒョヒョ・・。</t>
+    <rPh sb="11" eb="14">
+      <t>タンサンスイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キミョウ</t>
+    </rPh>
+    <rPh sb="94" eb="97">
+      <t>チュウドクセイ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>スイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>カンセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2266,7 +2365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2279,6 +2378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2594,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2642,7 +2744,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -2659,7 +2761,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A42" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A44" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2858,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -2963,7 +3065,7 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -2984,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L9">
         <v>1050</v>
@@ -3002,10 +3104,10 @@
         <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -3026,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L10">
         <v>1070</v>
@@ -3041,13 +3143,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
         <v>175</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -3068,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -3083,13 +3185,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -3110,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L12">
         <v>1090</v>
@@ -3125,13 +3227,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" t="s">
-        <v>193</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -3152,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L13">
         <v>1100</v>
@@ -3167,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -3194,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14">
         <v>1010</v>
@@ -3251,7 +3353,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -3278,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L16">
         <v>1040</v>
@@ -3293,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>96</v>
@@ -3320,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L17">
         <v>1060</v>
@@ -3362,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -3425,7 +3527,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -3461,13 +3563,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
         <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" t="s">
-        <v>166</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -3488,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -3635,7 +3737,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -3656,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -3797,13 +3899,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -3824,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L29">
         <v>130</v>
@@ -3839,13 +3941,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -3866,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30">
         <v>140</v>
@@ -3881,7 +3983,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3908,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -3923,13 +4025,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -3950,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L32">
         <v>210</v>
@@ -3965,13 +4067,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -3992,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L33">
         <v>220</v>
@@ -4007,13 +4109,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -4034,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L34">
         <v>230</v>
@@ -4049,13 +4151,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E35">
         <v>500</v>
@@ -4076,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L35">
         <v>240</v>
@@ -4091,13 +4193,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -4118,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L36">
         <v>250</v>
@@ -4160,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L37">
         <v>260</v>
@@ -4175,13 +4277,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
         <v>168</v>
-      </c>
-      <c r="D38" t="s">
-        <v>169</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -4202,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -4217,13 +4319,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39">
         <v>500</v>
@@ -4244,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L39">
         <v>280</v>
@@ -4259,13 +4361,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -4286,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L40">
         <v>290</v>
@@ -4301,13 +4403,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -4328,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L41">
         <v>300</v>
@@ -4337,86 +4439,170 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="306.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" t="s">
-        <v>206</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E42">
+      <c r="D42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="4">
         <v>500</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>150</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L42">
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L42" s="4">
         <v>310</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="4">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="4">
+        <v>500</v>
+      </c>
+      <c r="F43" s="4">
+        <v>150</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" s="4">
+        <v>320</v>
+      </c>
+      <c r="M43" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="4">
+        <v>500</v>
+      </c>
+      <c r="F44" s="4">
+        <v>150</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L44" s="4">
+        <v>330</v>
+      </c>
+      <c r="M44" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45">
         <v>10000</v>
       </c>
-      <c r="B43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
         <v>178</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E45">
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <v>150</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E43">
-        <v>500</v>
-      </c>
-      <c r="F43">
-        <v>150</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L43">
+      <c r="L45">
         <v>9000</v>
       </c>
-      <c r="M43">
+      <c r="M45">
         <v>9000</v>
       </c>
     </row>
@@ -4477,7 +4663,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -4498,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -4525,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -4540,13 +4726,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4582,13 +4768,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4624,13 +4810,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4666,13 +4852,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4708,7 +4894,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>80</v>
@@ -4750,7 +4936,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -4792,13 +4978,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4834,7 +5020,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
@@ -4876,13 +5062,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
         <v>149</v>
-      </c>
-      <c r="D11" t="s">
-        <v>150</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4918,13 +5104,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4960,13 +5146,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5002,13 +5188,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC081CA5-50A2-486B-BD00-7E54F94CBF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3560BD-8C6A-49B5-B7DD-10F68660B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="825" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2550" yWindow="975" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="279">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -2287,6 +2287,1682 @@
     <rPh sb="105" eb="107">
       <t>カンセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cheese_cake_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーズケーキのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fantasian_cake_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンタジアのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォーゲットミーノットのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forgetmenot_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフォガードのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【アフォガードのレシピ】
+冷たさと熱さが共存する大人なお菓子。
+アフォガードの作り方をお教えしましょう。
+とっても簡単です。
+①バニラアイスクリームと、コーヒーを準備します。
+②アイスにコーヒーを注いで出来上がり。
+アイスの代わりにジェラートを使ったり、
+注ぐコーヒーをお酒や紅茶に変えても、
+香りが楽しめて良いですよ♪
+</t>
+    <rPh sb="59" eb="61">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="104" eb="107">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ソソ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>affo_gato_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョコばななのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>choco_banana_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【チョコばななのレシピ】
+フェスティバルなどで、手軽に食べられて、
+子供に人気なチョコばななの作り方☆
+①バナナ　×　チョコレート　×　フリージングまたは氷室
+で冷やしたら完成です。
+バナナの代わりに、いちごでも、かわいらしいチョコいちごが作れますよ！</t>
+    <rPh sb="25" eb="27">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒョウシツ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りんごあめのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【りんごあめのレシピ】
+カーニバルに向いたお菓子レシピ第二弾。
+りんごあめです。
+①りんごを用意します。
+②砂糖水を鍋で火にかけ、水あめを作りましょう。
+③りんごに水あめをかけ、「キャラメリーゼ」の魔法をかけて完成です。
+パリパリで、見た目がつやつやのキラキラ☆
+子供がとても喜ぶあま～いお菓子です。</t>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃがバターのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【じゃがバターのレシピ】
+とってもシンプルで、腹持ちのよいじゃがバターの作り方を教えます。
+①じゃがいもを鍋でゆでてホクホクにします。
+②ゆであがったじゃがいもに、タップリのバターと塩を少しまぶして完成♪
+ほっくほっくの大地の恵の味・・
+それを楽しんでもらいたいですネ。</t>
+    <rPh sb="24" eb="26">
+      <t>ハラモ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>applecandy_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potatebutter_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポテトの宝石箱のレシピ</t>
+    <rPh sb="4" eb="7">
+      <t>ホウセキバコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポテトの宝石箱のレシピ】
+これは、まさにポテト好きには夢のような..
+お菓子のご紹介です。
+作り方は簡単♪
+①じゃが、さつまいもを「フライヤー」であげてしまいます。
+芋は、別々に揚げましょう。
+②それぞれのフライドおいもを、ミックスさせます。
+③バターをかけて、お塩をふって完成♪
+まさに・・！　
+大地の恵の味・・！
+芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
+    <rPh sb="25" eb="26">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>イモ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="165" eb="168">
+      <t>イモドウシ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>シュギョク</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>potatemix_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェラートのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリームブリュレのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クリームブリュレのレシピ】
+クリームにパリパリのカラメルを楽しめる、
+定番のスイーツです。
+まずは、カスタードクリームを作れるようになりましょう。
+①カスタードクリームを準備します。
+②クリームに、砂糖を敷き詰めます。
+③「キャラメリゼ」の魔法で、火にかけて仕上げましょう。
+砂糖がパリパリになり、完成♪
+</t>
+    <rPh sb="31" eb="32">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gelato_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cream_brulee_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マリトッツォのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【マリトッツォのレシピ】
+ふわふわブリオッシュパンに、クリームをいれてはさんだ、独特な見た目のお菓子です。
+ふんわりして、3時のおやつにピッタリ♪
+作り方は簡単です。
+①ブリオッシュのパンにクリームを挟む。
+②仕上げに、パウダーシュガーをふりましょう。
+粉雪のような見た目になれば完成！
+パウダーシュガーはなくても完成しますが、
+かけたほうが見た目はよくなります。
+</t>
+    <rPh sb="41" eb="43">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>コナユキ</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリオッシュのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ブリオッシュのレシピ】
+マリトッツォを作るための、柔らかいバターふんだん使用のパンです。
+作るのは簡単ですが、材料が多くて大変。
+①強力粉×砂糖×塩で、粉生地を作る。
+②その生地に、牛乳・卵黄を加えて混ぜます。
+③さらに、バターをたっぷり加えて、こねていきます。
+焼いたら完成です♪
+通常のパンよりもふんわりして、おいしいでございますよ～♪</t>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>キョウリキコ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>brioche_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maritozzo_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【基本のジェラートのレシピ】
+難易度：高
+アイスと材料は同じだが、
+空気の含みが少なく、濃厚な味わい。
+①アイスクリーム水溶液を指定して、魔法「オーバーフリーズ」を使う。
+②空気の含有量を、20~40%の間にしてから、凍らせる。
+しっとり濃厚なジェラートが完成します。
+</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="93" eb="96">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さくさく苺ミルフイユのレシピ</t>
+    <rPh sb="4" eb="5">
+      <t>イチゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【さくさく苺ミルフイユのレシピ】
+マリトッツォを作るための、柔らかいバターふんだん使用のパンです。
+作るのは簡単ですが、材料が多くて大変。
+①強力粉×砂糖×塩で、粉生地を作る。
+②その生地に、牛乳・卵黄を加えて混ぜます。
+③さらに、バターをたっぷり加えて、こねていきます。
+焼いたら完成です♪
+通常のパンよりもふんわりして、おいしいでございますよ～♪</t>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>キョウリキコ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strawberry_milfiyu_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カヌレのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【カヌレのレシピ】
+独特な形状の生地おかし「カヌレ」の作り方です。</t>
+    <rPh sb="11" eb="13">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>canele_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aquamarine_chocolate_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【遥かなる蒼のレシピ】
+王宮の特別に許されたものしか知らないチョコレートのレシピです。
+むずかしい作り方ではないですが、材料が特殊。
+サファイアブルーを模した青色のチョコレートになります。
+【手順】
+チョコレートを作る際に、
+カカオマスができたタイミングで、
+カカオマスに、すみれとマーメイドハーブを入れ、よく混ぜます。
+特別な香りの、アクアマリンの液体チョコレートができます。
+あとは、通常通り冷やせば、
+アクアマリンチョコレートの完成です！</t>
+    <rPh sb="1" eb="2">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="201" eb="204">
+      <t>ツウジョウドオ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遥かなる蒼の秘密</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラングドシャクッキーのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>langue de chat_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ラングドシャクッキーのレシピ】
+軽やかなクッキー　ラングドシャの作り方をご紹介いたします。
+①卵白＋砂糖＋バターを混ぜた生地を作ります。
+②①の生地に小麦粉を混ぜて、焼きあがれば出来上がり♪
+卵白を使うことで、軽やかな舌ざわりになっています。
+お土産にもピッタリですよ～♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スフレパンケーキのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pan_cake_souffle_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【スフレパンケーキのレシピ】
+ふんわりふわふわ、とろけるようなパンケーキ・スフレの作り方をご紹介します。
+A. カスタードクリームとB. メレンゲを作り、混ぜ合わせることで出来た生地を焼けば完成です。
+A.
+①卵黄に砂糖を混ぜます。＜アパレイユ・イエロー
+＞
+②そこに牛乳と小麦粉を混ぜ合わせる。
+カスタードクリームができる。
+B. 
+③卵白に砂糖を入れながら、ウィンドミキサーで混ぜ、メレンゲを作ります。
+AとBを合わせて、焼けば完成！
+ふんわりとろける、スフレなパンケーキの完成です。
+仕上げに、パウダーシュガーをかけたり、クリームを添えてもおいしいでしょう♪
+</t>
+    <rPh sb="42" eb="43">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="141" eb="144">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふわころのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ふわころのレシピ】
+一口サイズのもちもち食感ロールケーキの作り方をご紹介します。
+A. もちもち生地とB. メレンゲを作り、混ぜて出来た生地を焼けば完成です。
+A.
+①バター・牛乳を入れた液体に、強力粉を入れ混ぜる。
+②さらに、たまごを入れて混ぜ合わせる
+B. 
+③卵白に砂糖を入れながら、ウィンドミキサーで混ぜ、メレンゲを作ります。
+④AとBを合わせて、小さく丸くして焼けば完成！
+ふわもちで、ころころしたクセになるお菓子です。
+</t>
+    <rPh sb="12" eb="14">
+      <t>ヒトクチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>huwakoro_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>applepie_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タルト・オ・ポムのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【タルト・オ・ポムのレシピ】
+ご家庭でおなじみの、アップルパイの作り方を伝授いたします。
+以下の２つの材料を事前に作っておきましょう。
+A. パイ生地
+B. りんごのコンポート
+【A. パイ生地】
+①薄力粉と強力粉、さらにバターを入れて混ぜ合わせる。
+②そこに、塩と水をさらに入れて、よく練ってベースの生地は完成。
+【B. りんごのコンポート】
+①りんごと砂糖水を、鍋にいれて煮詰めます。水分がなくなり、冷めたら完成。
+Aの生地の中にBを入れて、じっくり焼き上げればアップルパイの完成です♪
+</t>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>キョウリキコ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="248" eb="250">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クッキーのお家　フォーゲットミーノットのレシピ】
+恋人への特別なお菓子「フォーゲットミーノット」のご紹介です。
+①２つのケーキ土台を作りましょう♪
+・一段目
+&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・二段目
+&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+土台が出来上がったら、２つをくっつけます。
+②液体チョコレート→ウィンドクラウンで、王冠の形にし、冷やしてチョコレートにする。
+③お城の柱の部分を作る。
+ロールクッキーに三角形のコンフェッティをのせる。2個作る。
+④　①＋②＋③で、材料をくっつければ完成☆
+【さらに仕上げ】
+ただし、見た目が少しシンプルなので、
+トッピングに、
+・お花を散らす
+・人形の兵隊をのせる
+・光る砂糖を散りばめる
+など工夫すると、
+すっごくかわいくなりますよ～♪
+ぜひお試しくださいね。
+パステルカラーのゆめみたいなケーキを、
+お姫様気分で召し上がってね～。
+</t>
+    <rPh sb="7" eb="8">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コイビト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>イチダンメ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="185" eb="188">
+      <t>ニダンメ</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="294" eb="297">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="334" eb="336">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="337" eb="338">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="341" eb="342">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="359" eb="360">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="361" eb="362">
+      <t>ハシラ</t>
+    </rPh>
+    <rPh sb="363" eb="365">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="366" eb="367">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="378" eb="381">
+      <t>サンカクケイ</t>
+    </rPh>
+    <rPh sb="395" eb="396">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="396" eb="397">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="410" eb="412">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="419" eb="421">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="428" eb="430">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="439" eb="440">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="441" eb="442">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="464" eb="465">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="466" eb="467">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="471" eb="473">
+      <t>ニンギョウ</t>
+    </rPh>
+    <rPh sb="474" eb="476">
+      <t>ヘイタイ</t>
+    </rPh>
+    <rPh sb="482" eb="483">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="484" eb="486">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="487" eb="488">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="495" eb="497">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="522" eb="523">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お城ケーキ　ファンタジアのレシピ】
+とってもかわいいお城のケーキ♪
+でも、実は2段重ねのケーキをベースに、そこそこ簡単に作れますよ。
+①２つのケーキ土台を作りましょう♪
+・一段目
+&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・二段目
+&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+土台が出来上がったら、２つをくっつけます。
+②&lt;color=#BA9535FF&gt;液体チョコレート&lt;/color&gt;を魔法「ウィンドクラウン」で、王冠の形にし、冷やしてチョコレートにする。
+③お城の柱の部分を作る。
+&lt;color=#BA9535FF&gt;ロールクッキー&lt;/color&gt;に三角形の&lt;color=#BA9535FF&gt;コンフィズリー&lt;/color&gt;をのせる。2個作る。
+④　①＋②＋③で、材料をくっつければ完成☆
+【さらに仕上げ】
+ただし、見た目が少しシンプルなので、
+トッピングに、
+&lt;color=#BA9535FF&gt;・お花を散らす
+・人形の兵隊をのせる
+・光る砂糖を散りばめる&lt;/color&gt;
+など工夫すると、
+すっごくかわいくなりますよ～♪
+ぜひお試しくださいね。
+パステルカラーのゆめみたいなケーキを、
+お姫様気分で召し上がってね～。
+</t>
+    <rPh sb="2" eb="3">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ダンカサ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="304" eb="307">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="359" eb="361">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="373" eb="375">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="398" eb="399">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="400" eb="401">
+      <t>ハシラ</t>
+    </rPh>
+    <rPh sb="402" eb="404">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="405" eb="406">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="442" eb="445">
+      <t>サンカクケイ</t>
+    </rPh>
+    <rPh sb="484" eb="485">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="485" eb="486">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="499" eb="501">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="508" eb="510">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="517" eb="519">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="526" eb="527">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="528" eb="529">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="530" eb="531">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="570" eb="571">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="572" eb="573">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="577" eb="579">
+      <t>ニンギョウ</t>
+    </rPh>
+    <rPh sb="580" eb="582">
+      <t>ヘイタイ</t>
+    </rPh>
+    <rPh sb="588" eb="589">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="590" eb="592">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="593" eb="594">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="609" eb="611">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="636" eb="637">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【チーズケーキのレシピ】
+難易度・・　中～高　ぐらい
+少し手順が複雑ですが、がんばって作ってみてくださいね！
+チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
+①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
+そのまま、冷やしましょう。
+②クリームの生地・・・
+1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
+2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
+3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、ウィンドミキサーでふんわり混ぜます。
+①に②を足して、焼き上げれば完成！！
+ふんわり濃厚なチーズケーキを召し上がれ♪</t>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="247" eb="249">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="261" eb="262">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="276" eb="278">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="301" eb="302">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="344" eb="345">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="355" eb="357">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="375" eb="378">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="387" eb="388">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="403" eb="404">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="414" eb="415">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="420" eb="421">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="424" eb="426">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="434" eb="436">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="444" eb="445">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="446" eb="447">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビスケットのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biscuit_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ビスケットのレシピ】
+ねこクッキーよりも油分が少なく、サクサクのハードビスケットの作り方です。
+主に、タルト生地作りに活用してくださいね。
+①砂糖・バターに牛乳を少し加えて混ぜる。
+②　①の液体に、小麦粉を混ぜて焼けば完成。
+チーズケーキの土台作りに、活用してみてくださいね♪</t>
+    <rPh sb="22" eb="24">
+      <t>ユブン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色は、まだcompoDBに入れてない
+オレンジは、compoDBは入れた。Utageの感想は入れていない。</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**色の説明**</t>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sys_explanation_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2331,7 +4007,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2350,6 +4026,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2365,7 +4053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2380,6 +4068,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2696,10 +4396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,7 +4461,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A44" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A65" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4439,170 +6139,1052 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
+    <row r="42" spans="1:13" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="C42" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" s="8">
         <v>500</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="8">
         <v>150</v>
       </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>1</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="L42" s="4">
-        <v>310</v>
-      </c>
-      <c r="M42" s="4">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="L42" s="8">
+        <v>9999</v>
+      </c>
+      <c r="M42" s="8">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="C43" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="6">
         <v>500</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="6">
         <v>150</v>
       </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="L43" s="4">
-        <v>320</v>
-      </c>
-      <c r="M43" s="4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L43" s="6">
+        <v>310</v>
+      </c>
+      <c r="M43" s="6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="6">
+        <v>500</v>
+      </c>
+      <c r="F44" s="6">
+        <v>150</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L44" s="6">
+        <v>320</v>
+      </c>
+      <c r="M44" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="6">
         <v>500</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F45" s="6">
         <v>150</v>
       </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L45" s="6">
         <v>330</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M45" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45">
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="4">
+        <v>500</v>
+      </c>
+      <c r="F46" s="4">
+        <v>150</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="L46" s="4">
+        <v>340</v>
+      </c>
+      <c r="M46" s="4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="4">
+        <v>500</v>
+      </c>
+      <c r="F47" s="4">
+        <v>150</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L47" s="4">
+        <v>350</v>
+      </c>
+      <c r="M47" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="4">
+        <v>500</v>
+      </c>
+      <c r="F48" s="4">
+        <v>150</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L48" s="4">
+        <v>360</v>
+      </c>
+      <c r="M48" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="4">
+        <v>500</v>
+      </c>
+      <c r="F49" s="4">
+        <v>150</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L49" s="4">
+        <v>370</v>
+      </c>
+      <c r="M49" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="4">
+        <v>500</v>
+      </c>
+      <c r="F50" s="4">
+        <v>150</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L50" s="4">
+        <v>380</v>
+      </c>
+      <c r="M50" s="4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="4">
+        <v>500</v>
+      </c>
+      <c r="F51" s="4">
+        <v>150</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L51" s="4">
+        <v>390</v>
+      </c>
+      <c r="M51" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="4">
+        <v>500</v>
+      </c>
+      <c r="F52" s="4">
+        <v>150</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L52" s="4">
+        <v>400</v>
+      </c>
+      <c r="M52" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="4">
+        <v>500</v>
+      </c>
+      <c r="F53" s="4">
+        <v>150</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L53" s="4">
+        <v>410</v>
+      </c>
+      <c r="M53" s="4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="4">
+        <v>500</v>
+      </c>
+      <c r="F54" s="4">
+        <v>150</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L54" s="4">
+        <v>420</v>
+      </c>
+      <c r="M54" s="4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="4">
+        <v>500</v>
+      </c>
+      <c r="F55" s="4">
+        <v>150</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L55" s="4">
+        <v>430</v>
+      </c>
+      <c r="M55" s="4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="4">
+        <v>500</v>
+      </c>
+      <c r="F56" s="4">
+        <v>150</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L56" s="4">
+        <v>440</v>
+      </c>
+      <c r="M56" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="4">
+        <v>500</v>
+      </c>
+      <c r="F57" s="4">
+        <v>150</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L57" s="4">
+        <v>450</v>
+      </c>
+      <c r="M57" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="4">
+        <v>500</v>
+      </c>
+      <c r="F58" s="4">
+        <v>150</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L58" s="4">
+        <v>460</v>
+      </c>
+      <c r="M58" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="4">
+        <v>500</v>
+      </c>
+      <c r="F59" s="4">
+        <v>150</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L59" s="4">
+        <v>470</v>
+      </c>
+      <c r="M59" s="4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" s="4">
+        <v>500</v>
+      </c>
+      <c r="F60" s="4">
+        <v>150</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L60" s="4">
+        <v>480</v>
+      </c>
+      <c r="M60" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="4">
+        <v>500</v>
+      </c>
+      <c r="F61" s="4">
+        <v>150</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61" s="4">
+        <v>490</v>
+      </c>
+      <c r="M61" s="4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E62" s="4">
+        <v>500</v>
+      </c>
+      <c r="F62" s="4">
+        <v>150</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L62" s="4">
+        <v>500</v>
+      </c>
+      <c r="M62" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" s="4">
+        <v>500</v>
+      </c>
+      <c r="F63" s="4">
+        <v>150</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L63" s="4">
+        <v>510</v>
+      </c>
+      <c r="M63" s="4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="4">
+        <v>500</v>
+      </c>
+      <c r="F64" s="4">
+        <v>150</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L64" s="4">
+        <v>520</v>
+      </c>
+      <c r="M64" s="4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="6">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E65" s="6">
+        <v>500</v>
+      </c>
+      <c r="F65" s="6">
+        <v>150</v>
+      </c>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L65" s="6">
+        <v>530</v>
+      </c>
+      <c r="M65" s="6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>10000</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B66" t="s">
         <v>172</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C66" t="s">
         <v>177</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D66" t="s">
         <v>178</v>
       </c>
-      <c r="E45">
+      <c r="E66">
         <v>500</v>
       </c>
-      <c r="F45">
+      <c r="F66">
         <v>150</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L45">
+      <c r="L66">
         <v>9000</v>
       </c>
-      <c r="M45">
+      <c r="M66">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3560BD-8C6A-49B5-B7DD-10F68660B284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923158BE-DA89-485F-8FC4-1FA9AF131DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="975" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2775" yWindow="1095" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="282">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -1468,117 +1468,6 @@
     </rPh>
     <rPh sb="399" eb="400">
       <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【宝石キャンディのレシピ】
-①&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;
-&lt;color=#BA9535FF&gt;水 &lt;/color&gt;
-2つを混ぜ合わせ、砂糖水を作ります。
-②砂糖水に、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;
-を加え、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;で火で溶かして、冷ますと出来上がり！
-</t>
-    <rPh sb="1" eb="3">
-      <t>ホウセキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="83" eb="86">
-      <t>サトウミズ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="95" eb="98">
-      <t>サトウミズ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="177" eb="180">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ジェリーボーイ　透明でぷるぷる♪きれいなゼリーの作り方
-①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;にを加えて混ぜる。砂糖水ができる。
-②出来た液体に、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;を混ぜて、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れて冷やすと、ぷるぷるに♪
-水を、別の液体に変えても、きれいなのが出来るかも。
-</t>
-    <rPh sb="8" eb="10">
-      <t>トウメイ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>サトウミズ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="152" eb="153">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>デキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2425,84 +2314,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【りんごあめのレシピ】
-カーニバルに向いたお菓子レシピ第二弾。
-りんごあめです。
-①りんごを用意します。
-②砂糖水を鍋で火にかけ、水あめを作りましょう。
-③りんごに水あめをかけ、「キャラメリーゼ」の魔法をかけて完成です。
-パリパリで、見た目がつやつやのキラキラ☆
-子供がとても喜ぶあま～いお菓子です。</t>
-    <rPh sb="19" eb="20">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>ヨロコ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>じゃがバターのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【じゃがバターのレシピ】
-とってもシンプルで、腹持ちのよいじゃがバターの作り方を教えます。
-①じゃがいもを鍋でゆでてホクホクにします。
-②ゆであがったじゃがいもに、タップリのバターと塩を少しまぶして完成♪
-ほっくほっくの大地の恵の味・・
-それを楽しんでもらいたいですネ。</t>
-    <rPh sb="24" eb="26">
-      <t>ハラモ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ダイチ</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>メグミ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>タノ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2517,80 +2329,6 @@
     <t>ポテトの宝石箱のレシピ</t>
     <rPh sb="4" eb="7">
       <t>ホウセキバコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ポテトの宝石箱のレシピ】
-これは、まさにポテト好きには夢のような..
-お菓子のご紹介です。
-作り方は簡単♪
-①じゃが、さつまいもを「フライヤー」であげてしまいます。
-芋は、別々に揚げましょう。
-②それぞれのフライドおいもを、ミックスさせます。
-③バターをかけて、お塩をふって完成♪
-まさに・・！　
-大地の恵の味・・！
-芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
-    <rPh sb="25" eb="26">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ユメ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>イモ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>ダイチ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>メグミ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="165" eb="168">
-      <t>イモドウシ</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>シュギョク</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>カシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2823,74 +2561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【基本のジェラートのレシピ】
-難易度：高
-アイスと材料は同じだが、
-空気の含みが少なく、濃厚な味わい。
-①アイスクリーム水溶液を指定して、魔法「オーバーフリーズ」を使う。
-②空気の含有量を、20~40%の間にしてから、凍らせる。
-しっとり濃厚なジェラートが完成します。
-</t>
-    <rPh sb="1" eb="3">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>スイヨウエキ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="93" eb="96">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>コオ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>さくさく苺ミルフイユのレシピ</t>
     <rPh sb="4" eb="5">
       <t>イチゴ</t>
@@ -3014,89 +2684,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【遥かなる蒼のレシピ】
-王宮の特別に許されたものしか知らないチョコレートのレシピです。
-むずかしい作り方ではないですが、材料が特殊。
-サファイアブルーを模した青色のチョコレートになります。
-【手順】
-チョコレートを作る際に、
-カカオマスができたタイミングで、
-カカオマスに、すみれとマーメイドハーブを入れ、よく混ぜます。
-特別な香りの、アクアマリンの液体チョコレートができます。
-あとは、通常通り冷やせば、
-アクアマリンチョコレートの完成です！</t>
-    <rPh sb="1" eb="2">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ユル</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>アオイロ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="201" eb="204">
-      <t>ツウジョウドオ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="224" eb="226">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遥かなる蒼の秘密</t>
     <rPh sb="0" eb="1">
       <t>ハル</t>
@@ -3115,15 +2702,6 @@
   </si>
   <si>
     <t>langue de chat_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ラングドシャクッキーのレシピ】
-軽やかなクッキー　ラングドシャの作り方をご紹介いたします。
-①卵白＋砂糖＋バターを混ぜた生地を作ります。
-②①の生地に小麦粉を混ぜて、焼きあがれば出来上がり♪
-卵白を使うことで、軽やかな舌ざわりになっています。
-お土産にもピッタリですよ～♪</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3587,19 +3165,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ビスケットのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>biscuit_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色は、まだcompoDBに入れてない
+オレンジは、compoDBは入れた。Utageの感想は入れていない。</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>**色の説明**</t>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sys_explanation_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンフィズリーのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confiserie_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【宝石キャンディのレシピ】
+①&lt;color=#BA9535FF&gt;砂糖 &lt;/color&gt;
+&lt;color=#BA9535FF&gt;水 &lt;/color&gt;
+2つを混ぜ合わせ、砂糖水を作ります。
+②砂糖水に、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;
+を加え、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;で火で溶かします。
+③できた液体を、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;などで冷やして完成！
+</t>
+    <rPh sb="1" eb="3">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="83" eb="86">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="180" eb="182">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ヒョウシツ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ジェリーボーイ　透明でぷるぷる♪きれいなゼリーの作り方
+①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;にを加えて混ぜる。砂糖水ができる。
+②さらに、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;を混ぜる。
+③&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;に入れて冷やすと、ぷるぷるに♪
+水を、別の液体に変えても、きれいなのが出来るかも。
+</t>
+    <rPh sb="8" eb="10">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>サトウミズ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【遥かなる蒼のレシピ】
+王宮の特別に許されたものしか知らないチョコレートのレシピです。
+むずかしい作り方ではないですが、材料が特殊。
+ターコイズブルーに近い色のチョコレートになります。
+【手順】
+チョコレートを作る際に、
+カカオニブができたタイミングで、
+カカオニブに、すみれとマーメイドハーブを入れ、よく混ぜます。
+特別な香りの、アクアマリンの液体チョコレートができます。
+あとは、通常通り冷やせば、
+アクアマリンチョコレートの完成です！</t>
+    <rPh sb="1" eb="2">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="199" eb="202">
+      <t>ツウジョウドオ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">【お城ケーキ　ファンタジアのレシピ】
 とってもかわいいお城のケーキ♪
 でも、実は2段重ねのケーキをベースに、そこそこ簡単に作れますよ。
 ①２つのケーキ土台を作りましょう♪
 ・一段目
-&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
 ・二段目
-&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-土台が出来上がったら、２つをくっつけます。
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ラズベリー&lt;/color&gt;
+クリームはホイップでなく、作りたてクリームをそのまま塗ります。
+土台が出来上がったら、２つをのせます。
 ②&lt;color=#BA9535FF&gt;液体チョコレート&lt;/color&gt;を魔法「ウィンドクラウン」で、王冠の形にし、冷やしてチョコレートにする。
 ③お城の柱の部分を作る。
 &lt;color=#BA9535FF&gt;ロールクッキー&lt;/color&gt;に三角形の&lt;color=#BA9535FF&gt;コンフィズリー&lt;/color&gt;をのせる。2個作る。
-④　①＋②＋③で、材料をくっつければ完成☆
+④　①＋②＋③で、材料を組み合わせて完成☆
 【さらに仕上げ】
 ただし、見た目が少しシンプルなので、
 トッピングに、
@@ -3609,8 +3431,8 @@
 など工夫すると、
 すっごくかわいくなりますよ～♪
 ぜひお試しくださいね。
-パステルカラーのゆめみたいなケーキを、
-お姫様気分で召し上がってね～。
+パステルカラーで夢気分♪
+お姫様気分で召し上がってね♪
 </t>
     <rPh sb="2" eb="3">
       <t>シロ</t>
@@ -3636,92 +3458,179 @@
     <rPh sb="80" eb="81">
       <t>ツク</t>
     </rPh>
-    <rPh sb="301" eb="303">
+    <rPh sb="336" eb="337">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="355" eb="357">
       <t>ドダイ</t>
     </rPh>
-    <rPh sb="304" eb="307">
+    <rPh sb="358" eb="361">
       <t>デキア</t>
     </rPh>
-    <rPh sb="342" eb="344">
+    <rPh sb="394" eb="396">
       <t>エキタイ</t>
     </rPh>
-    <rPh sb="359" eb="361">
+    <rPh sb="411" eb="413">
       <t>マホウ</t>
     </rPh>
-    <rPh sb="373" eb="375">
+    <rPh sb="425" eb="427">
       <t>オウカン</t>
     </rPh>
-    <rPh sb="376" eb="377">
+    <rPh sb="428" eb="429">
       <t>カタチ</t>
     </rPh>
-    <rPh sb="380" eb="381">
+    <rPh sb="432" eb="433">
       <t>ヒ</t>
     </rPh>
-    <rPh sb="398" eb="399">
+    <rPh sb="450" eb="451">
       <t>シロ</t>
     </rPh>
-    <rPh sb="400" eb="401">
+    <rPh sb="452" eb="453">
       <t>ハシラ</t>
     </rPh>
-    <rPh sb="402" eb="404">
+    <rPh sb="454" eb="456">
       <t>ブブン</t>
     </rPh>
-    <rPh sb="405" eb="406">
+    <rPh sb="457" eb="458">
       <t>ツク</t>
     </rPh>
-    <rPh sb="442" eb="445">
+    <rPh sb="494" eb="497">
       <t>サンカクケイ</t>
     </rPh>
-    <rPh sb="484" eb="485">
+    <rPh sb="536" eb="537">
       <t>コ</t>
     </rPh>
-    <rPh sb="485" eb="486">
+    <rPh sb="537" eb="538">
       <t>ツク</t>
     </rPh>
-    <rPh sb="499" eb="501">
+    <rPh sb="551" eb="553">
       <t>ザイリョウ</t>
     </rPh>
-    <rPh sb="508" eb="510">
+    <rPh sb="554" eb="555">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="556" eb="557">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="560" eb="562">
       <t>カンセイ</t>
     </rPh>
-    <rPh sb="517" eb="519">
+    <rPh sb="569" eb="571">
       <t>シア</t>
     </rPh>
-    <rPh sb="526" eb="527">
+    <rPh sb="578" eb="579">
       <t>ミ</t>
     </rPh>
-    <rPh sb="528" eb="529">
+    <rPh sb="580" eb="581">
       <t>メ</t>
     </rPh>
-    <rPh sb="530" eb="531">
+    <rPh sb="582" eb="583">
       <t>スコ</t>
     </rPh>
-    <rPh sb="570" eb="571">
+    <rPh sb="622" eb="623">
       <t>ハナ</t>
     </rPh>
-    <rPh sb="572" eb="573">
+    <rPh sb="624" eb="625">
       <t>チ</t>
     </rPh>
-    <rPh sb="577" eb="579">
+    <rPh sb="629" eb="631">
       <t>ニンギョウ</t>
     </rPh>
-    <rPh sb="580" eb="582">
+    <rPh sb="632" eb="634">
       <t>ヘイタイ</t>
     </rPh>
-    <rPh sb="588" eb="589">
+    <rPh sb="640" eb="641">
       <t>ヒカ</t>
     </rPh>
-    <rPh sb="590" eb="592">
+    <rPh sb="642" eb="644">
       <t>サトウ</t>
     </rPh>
-    <rPh sb="593" eb="594">
+    <rPh sb="645" eb="646">
       <t>チ</t>
     </rPh>
-    <rPh sb="609" eb="611">
+    <rPh sb="661" eb="663">
       <t>クフウ</t>
     </rPh>
-    <rPh sb="636" eb="637">
+    <rPh sb="688" eb="689">
       <t>タメ</t>
+    </rPh>
+    <rPh sb="706" eb="709">
+      <t>ユメキブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ビスケットのレシピ】
+ねこクッキーよりも油分が少なく、サクサクのハードビスケットの作り方です。
+主に、タルト生地作りに活用してくださいね。
+①&lt;color=#BA9535FF&gt;砂糖・バター&lt;/color&gt;に&lt;color=#BA9535FF&gt;牛乳&lt;/color&gt;を少し加えて混ぜる。
+②　①の液体に、&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜて焼けば完成。
+チーズケーキの土台作りに、活用してみてくださいね♪</t>
+    <rPh sb="22" eb="24">
+      <t>ユブン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カツヨウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>カツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3731,7 +3640,6 @@
 少し手順が複雑ですが、がんばって作ってみてくださいね！
 チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
 ①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
-そのまま、冷やしましょう。
 ②クリームの生地・・・
 1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
 2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
@@ -3789,180 +3697,387 @@
     <rPh sb="186" eb="187">
       <t>ツ</t>
     </rPh>
-    <rPh sb="197" eb="198">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
+    <rPh sb="199" eb="201">
       <t>キジ</t>
     </rPh>
-    <rPh sb="247" eb="249">
+    <rPh sb="233" eb="235">
       <t>サトウ</t>
     </rPh>
-    <rPh sb="250" eb="252">
+    <rPh sb="236" eb="238">
       <t>ランオウ</t>
     </rPh>
-    <rPh sb="261" eb="262">
+    <rPh sb="247" eb="248">
       <t>マ</t>
     </rPh>
+    <rPh sb="249" eb="250">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="331" eb="332">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="363" eb="366">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="391" eb="392">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="402" eb="403">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="406" eb="407">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="408" eb="409">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="412" eb="414">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="434" eb="435">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【コンフィズリーのレシピ】
+ちっちゃい、ゼリーのような食感の飴の作り方
+☆事前に、メレンゲを準備しておきましょう。
+①&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;に、&lt;color=#BA9535FF&gt;水・ゼラチンパウダー&lt;/color&gt;を溶かす。
+②&lt;color=#BA9535FF&gt;メレンゲ&lt;/color&gt;を用意し、①の液体を入れ、&lt;color=#BA9535FF&gt;好きなフルーツの果汁&lt;/color&gt;を絞り、混ぜたら完成！
+冷めたら、小さく切って召し上がってください。
+ちっちゃく切れば、ゼリーのような飴のような、不思議な食感に。</t>
+    <rPh sb="28" eb="30">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>カジュウ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ア</t>
+    </rPh>
     <rPh sb="263" eb="264">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ラングドシャクッキーのレシピ】
+軽やかなクッキー　ラングドシャの作り方をご紹介いたします。
+①&lt;color=#BA9535FF&gt;卵白＋砂糖＋バター&lt;/color&gt;を混ぜた生地を作ります。
+②①の生地に&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜて、焼きあがれば出来上がり♪
+卵白を使うことで、軽やかな舌ざわりになっています。
+お土産にもピッタリですよ～♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【じゃがバターのレシピ】
+とってもシンプルで、腹持ちのよいじゃがバターの作り方を教えます。
+①&lt;color=#BA9535FF&gt;じゃがいも&lt;/color&gt;を&lt;color=#BA9535FF&gt;水&lt;/color&gt;にいれ、&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;でゆでてホクホクにします。
+②ゆであがったじゃがいもに、タップリの&lt;color=#BA9535FF&gt;バターと塩ひとつまみ&lt;/color&gt;をまぶして完成♪
+ほっくほっくの大地の恵の味・・
+それを楽しんでもらいたいですネ。</t>
+    <rPh sb="24" eb="26">
+      <t>ハラモ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【りんごあめのレシピ】
+カーニバルに向いたお菓子レシピ第二弾。
+りんごあめです。
+事前に、りんごを用意します。
+①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;を&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;で火にかけ、水あめを作りましょう。
+②&lt;color=#BA9535FF&gt;りんご&lt;/color&gt;に&lt;color=#BA9535FF&gt;水あめ&lt;/color&gt;をかけます。
+③「キャラメリーゼ」の魔法をかけて、パリパリさせて完成です。
+パリパリで、見た目がつやつやのキラキラ☆
+子供がとても喜ぶあま～いお菓子です。</t>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポテトの宝石箱のレシピ】
+これは、まさにポテト好きには夢のような..
+お菓子のご紹介です。
+作り方は簡単♪
+①じゃが、さつまいもに&lt;color=#BA9535FF&gt;塩&lt;/color&gt;をかけて、&lt;color=#FF5CA1FF&gt;「フライヤー」&lt;/color&gt;であげてしまいます。
+芋は、別々に揚げましょう。
+②それぞれの&lt;color=#BA9535FF&gt;フライドおいも&lt;/color&gt;を、ミックスさせます。
+③&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をかけて、&lt;color=#BA9535FF&gt;お塩&lt;/color&gt;をふって完成♪
+まさに・・！　
+大地の恵の味・・！
+芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
+    <rPh sb="25" eb="26">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>イモ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
       <t>ア</t>
     </rPh>
-    <rPh sb="276" eb="278">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="301" eb="302">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="344" eb="345">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="355" eb="357">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="375" eb="378">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="387" eb="388">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="403" eb="404">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="414" eb="415">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="418" eb="419">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="420" eb="421">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="424" eb="426">
+    <rPh sb="260" eb="261">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
       <t>カンセイ</t>
     </rPh>
-    <rPh sb="434" eb="436">
+    <rPh sb="286" eb="288">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="289" eb="290">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="296" eb="299">
+      <t>イモドウシ</t>
+    </rPh>
+    <rPh sb="305" eb="306">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="309" eb="310">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="317" eb="319">
+      <t>シュギョク</t>
+    </rPh>
+    <rPh sb="321" eb="323">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【基本のジェラートのレシピ】
+難易度：高
+アイスと材料は同じだが、
+空気の含みが少なく、濃厚な味わい。
+①アイスクリーム水溶液に、魔法「オーバーフリーズ」を使う。
+空気の含有量を調節できる。
+②空気の含有量を、20~40%の間にしてから、凍らせる。
+しっとり濃厚なジェラートが完成します。
+</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
       <t>ノウコウ</t>
     </rPh>
-    <rPh sb="444" eb="445">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="446" eb="447">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビスケットのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>biscuit_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ビスケットのレシピ】
-ねこクッキーよりも油分が少なく、サクサクのハードビスケットの作り方です。
-主に、タルト生地作りに活用してくださいね。
-①砂糖・バターに牛乳を少し加えて混ぜる。
-②　①の液体に、小麦粉を混ぜて焼けば完成。
-チーズケーキの土台作りに、活用してみてくださいね♪</t>
-    <rPh sb="22" eb="24">
-      <t>ユブン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カツヨウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>エキタイ</t>
+    <rPh sb="48" eb="49">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="87" eb="90">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>チョウセツ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>クウキ</t>
     </rPh>
     <rPh sb="103" eb="106">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>コオ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
       <t>カンセイ</t>
     </rPh>
-    <rPh sb="125" eb="127">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>カツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄色は、まだcompoDBに入れてない
-オレンジは、compoDBは入れた。Utageの感想は入れていない。</t>
-    <rPh sb="0" eb="2">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>**色の説明**</t>
-    <rPh sb="2" eb="3">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sys_explanation_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4396,10 +4511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4461,7 +4576,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A65" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A66" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4660,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -4828,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L10">
         <v>1070</v>
@@ -4870,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L11">
         <v>1080</v>
@@ -4888,10 +5003,10 @@
         <v>176</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -4912,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L12">
         <v>1090</v>
@@ -4930,10 +5045,10 @@
         <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -4954,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L13">
         <v>1100</v>
@@ -5164,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -5290,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -5458,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>184</v>
+        <v>271</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -5626,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L29">
         <v>130</v>
@@ -6046,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L39">
         <v>280</v>
@@ -6061,13 +6176,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -6088,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L40">
         <v>290</v>
@@ -6103,13 +6218,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -6130,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L41">
         <v>300</v>
@@ -6145,13 +6260,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E42" s="8">
         <v>500</v>
@@ -6169,10 +6284,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="L42" s="8">
         <v>9999</v>
@@ -6187,13 +6302,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="E43" s="6">
         <v>500</v>
@@ -6214,7 +6329,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L43" s="6">
         <v>310</v>
@@ -6229,13 +6344,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E44" s="6">
         <v>500</v>
@@ -6256,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L44" s="6">
         <v>320</v>
@@ -6271,13 +6386,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E45" s="6">
         <v>500</v>
@@ -6298,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L45" s="6">
         <v>330</v>
@@ -6307,87 +6422,87 @@
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
+    <row r="46" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="B46" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="6">
         <v>500</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="6">
         <v>150</v>
       </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="L46" s="4">
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L46" s="6">
         <v>340</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="6">
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
+    <row r="47" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="B47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="6">
         <v>500</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="6">
         <v>150</v>
       </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L47" s="6">
         <v>350</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="6">
         <v>350</v>
       </c>
     </row>
@@ -6397,13 +6512,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E48" s="4">
         <v>500</v>
@@ -6424,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L48" s="4">
         <v>360</v>
@@ -6439,13 +6554,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E49" s="4">
         <v>500</v>
@@ -6466,7 +6581,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L49" s="4">
         <v>370</v>
@@ -6481,13 +6596,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E50" s="4">
         <v>500</v>
@@ -6508,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L50" s="4">
         <v>380</v>
@@ -6517,129 +6632,129 @@
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
+    <row r="51" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="6">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="B51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E51" s="4">
+      <c r="D51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="6">
         <v>500</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="6">
         <v>150</v>
       </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="L51" s="4">
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L51" s="6">
         <v>390</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="6">
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4">
+    <row r="52" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="B52" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="6">
         <v>500</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="6">
         <v>150</v>
       </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>1</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="L52" s="4">
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L52" s="6">
         <v>400</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="6">
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4">
+    <row r="53" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="6">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E53" s="4">
+      <c r="B53" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E53" s="6">
         <v>500</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="6">
         <v>150</v>
       </c>
-      <c r="G53" s="4">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="L53" s="4">
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L53" s="6">
         <v>410</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="6">
         <v>410</v>
       </c>
     </row>
@@ -6649,13 +6764,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E54" s="4">
         <v>500</v>
@@ -6676,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="L54" s="4">
         <v>420</v>
@@ -6691,13 +6806,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E55" s="4">
         <v>500</v>
@@ -6718,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L55" s="4">
         <v>430</v>
@@ -6733,13 +6848,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E56" s="4">
         <v>500</v>
@@ -6760,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L56" s="4">
         <v>440</v>
@@ -6775,13 +6890,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E57" s="4">
         <v>500</v>
@@ -6802,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L57" s="4">
         <v>450</v>
@@ -6817,13 +6932,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E58" s="4">
         <v>500</v>
@@ -6844,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L58" s="4">
         <v>460</v>
@@ -6859,13 +6974,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E59" s="4">
         <v>500</v>
@@ -6886,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L59" s="4">
         <v>470</v>
@@ -6895,87 +7010,87 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="4">
+    <row r="60" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="B60" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" s="6">
         <v>500</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="6">
         <v>150</v>
       </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4">
-        <v>1</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="L60" s="4">
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>1</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L60" s="6">
         <v>480</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="6">
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="4">
+    <row r="61" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="B61" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="6">
         <v>500</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="6">
         <v>150</v>
       </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4">
-        <v>0</v>
-      </c>
-      <c r="J61" s="4">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="L61" s="4">
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6">
+        <v>1</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L61" s="6">
         <v>490</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="6">
         <v>490</v>
       </c>
     </row>
@@ -6985,13 +7100,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E62" s="4">
         <v>500</v>
@@ -7012,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L62" s="4">
         <v>500</v>
@@ -7027,13 +7142,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E63" s="4">
         <v>500</v>
@@ -7054,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L63" s="4">
         <v>510</v>
@@ -7069,13 +7184,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E64" s="4">
         <v>500</v>
@@ -7096,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L64" s="4">
         <v>520</v>
@@ -7111,13 +7226,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E65" s="6">
         <v>500</v>
@@ -7138,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L65" s="6">
         <v>530</v>
@@ -7147,44 +7262,86 @@
         <v>530</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66">
+    <row r="66" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="6">
+        <v>500</v>
+      </c>
+      <c r="F66" s="6">
+        <v>150</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>1</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L66" s="6">
+        <v>540</v>
+      </c>
+      <c r="M66" s="6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>10000</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>177</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>178</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>500</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>150</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L66">
+      <c r="L67">
         <v>9000</v>
       </c>
-      <c r="M66">
+      <c r="M67">
         <v>9000</v>
       </c>
     </row>
@@ -7773,10 +7930,10 @@
         <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923158BE-DA89-485F-8FC4-1FA9AF131DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45D191-F9E3-46B7-9F77-F483CE2A2184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="1095" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
@@ -2268,48 +2268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【チョコばななのレシピ】
-フェスティバルなどで、手軽に食べられて、
-子供に人気なチョコばななの作り方☆
-①バナナ　×　チョコレート　×　フリージングまたは氷室
-で冷やしたら完成です。
-バナナの代わりに、いちごでも、かわいらしいチョコいちごが作れますよ！</t>
-    <rPh sb="25" eb="27">
-      <t>テガル</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ヒョウシツ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>りんごあめのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3926,83 +3884,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ポテトの宝石箱のレシピ】
-これは、まさにポテト好きには夢のような..
-お菓子のご紹介です。
-作り方は簡単♪
-①じゃが、さつまいもに&lt;color=#BA9535FF&gt;塩&lt;/color&gt;をかけて、&lt;color=#FF5CA1FF&gt;「フライヤー」&lt;/color&gt;であげてしまいます。
-芋は、別々に揚げましょう。
-②それぞれの&lt;color=#BA9535FF&gt;フライドおいも&lt;/color&gt;を、ミックスさせます。
-③&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をかけて、&lt;color=#BA9535FF&gt;お塩&lt;/color&gt;をふって完成♪
-まさに・・！　
-大地の恵の味・・！
-芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
-    <rPh sb="25" eb="26">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ユメ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>イモ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="273" eb="275">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="286" eb="288">
-      <t>ダイチ</t>
-    </rPh>
-    <rPh sb="289" eb="290">
-      <t>メグミ</t>
-    </rPh>
-    <rPh sb="291" eb="292">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="296" eb="299">
-      <t>イモドウシ</t>
-    </rPh>
-    <rPh sb="305" eb="306">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="309" eb="310">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="317" eb="319">
-      <t>シュギョク</t>
-    </rPh>
-    <rPh sb="321" eb="323">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【基本のジェラートのレシピ】
 難易度：高
 アイスと材料は同じだが、
@@ -4077,6 +3958,125 @@
     </rPh>
     <rPh sb="142" eb="144">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポテトの宝石箱のレシピ】
+これは、まさにポテト好きには夢のような..
+お菓子のご紹介です。
+作り方は簡単♪
+①じゃが、さつまいもに&lt;color=#BA9535FF&gt;塩&lt;/color&gt;をかけて、&lt;color=#FF5CA1FF&gt;「フライヤー」&lt;/color&gt;であげてしまいます。
+芋は、別々に揚げましょう。
+②それぞれの&lt;color=#BA9535FF&gt;フライドおいも&lt;/color&gt;に、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をかけて、完成♪
+まさに・・！　
+大地の恵の味・・！
+芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
+    <rPh sb="25" eb="26">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>イモ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="253" eb="256">
+      <t>イモドウシ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="266" eb="267">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>シュギョク</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【チョコばななのレシピ】
+フェスティバルなどで、手軽に食べられて、
+子供に人気なチョコばななの作り方☆
+①&lt;color=#BA9535FF&gt;バナナ&lt;/color&gt;　×　&lt;color=#BA9535FF&gt;液体のチョコレート&lt;/color&gt;をかけます。
+②&lt;color=#FF5CA1FF&gt;魔法フリージング&lt;/color&gt;または&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;
+で冷やしたら完成です。
+バナナの代わりに、いちごでも、かわいらしいチョコいちごが作れますよ！</t>
+    <rPh sb="25" eb="27">
+      <t>テガル</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ヒョウシツ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4513,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5405,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -6263,10 +6263,10 @@
         <v>200</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E42" s="8">
         <v>500</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L42" s="8">
         <v>9999</v>
@@ -6455,7 +6455,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L46" s="6">
         <v>340</v>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L47" s="6">
         <v>350</v>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L48" s="4">
         <v>360</v>
@@ -6590,45 +6590,45 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
+    <row r="50" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="6">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="6">
         <v>500</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="6">
         <v>150</v>
       </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L50" s="4">
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L50" s="6">
         <v>380</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="6">
         <v>380</v>
       </c>
     </row>
@@ -6641,10 +6641,10 @@
         <v>200</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E51" s="6">
         <v>500</v>
@@ -6665,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L51" s="6">
         <v>390</v>
@@ -6683,10 +6683,10 @@
         <v>200</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E52" s="6">
         <v>500</v>
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L52" s="6">
         <v>400</v>
@@ -6725,10 +6725,10 @@
         <v>200</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E53" s="6">
         <v>500</v>
@@ -6767,10 +6767,10 @@
         <v>200</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E54" s="4">
         <v>500</v>
@@ -6791,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L54" s="4">
         <v>420</v>
@@ -6809,10 +6809,10 @@
         <v>200</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E55" s="4">
         <v>500</v>
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L55" s="4">
         <v>430</v>
@@ -6851,10 +6851,10 @@
         <v>200</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E56" s="4">
         <v>500</v>
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L56" s="4">
         <v>440</v>
@@ -6893,10 +6893,10 @@
         <v>200</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E57" s="4">
         <v>500</v>
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L57" s="4">
         <v>450</v>
@@ -6935,10 +6935,10 @@
         <v>200</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E58" s="4">
         <v>500</v>
@@ -6959,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L58" s="4">
         <v>460</v>
@@ -6977,10 +6977,10 @@
         <v>200</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E59" s="4">
         <v>500</v>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L59" s="4">
         <v>470</v>
@@ -7019,10 +7019,10 @@
         <v>200</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="E60" s="6">
         <v>500</v>
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L60" s="6">
         <v>480</v>
@@ -7061,10 +7061,10 @@
         <v>200</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E61" s="6">
         <v>500</v>
@@ -7085,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L61" s="6">
         <v>490</v>
@@ -7103,10 +7103,10 @@
         <v>200</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E62" s="4">
         <v>500</v>
@@ -7127,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L62" s="4">
         <v>500</v>
@@ -7145,10 +7145,10 @@
         <v>200</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E63" s="4">
         <v>500</v>
@@ -7169,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L63" s="4">
         <v>510</v>
@@ -7187,10 +7187,10 @@
         <v>200</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="E64" s="4">
         <v>500</v>
@@ -7211,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L64" s="4">
         <v>520</v>
@@ -7229,10 +7229,10 @@
         <v>200</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E65" s="6">
         <v>500</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L65" s="6">
         <v>530</v>
@@ -7271,10 +7271,10 @@
         <v>200</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E66" s="6">
         <v>500</v>
@@ -7295,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L66" s="6">
         <v>540</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45D191-F9E3-46B7-9F77-F483CE2A2184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D2A79-5E04-4AFF-B32D-F67961FC8679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="1095" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
@@ -2207,55 +2207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【アフォガードのレシピ】
-冷たさと熱さが共存する大人なお菓子。
-アフォガードの作り方をお教えしましょう。
-とっても簡単です。
-①バニラアイスクリームと、コーヒーを準備します。
-②アイスにコーヒーを注いで出来上がり。
-アイスの代わりにジェラートを使ったり、
-注ぐコーヒーをお酒や紅茶に変えても、
-香りが楽しめて良いですよ♪
-</t>
-    <rPh sb="59" eb="61">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="104" eb="107">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ソソ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>サケ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>コウチャ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="154" eb="155">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>affo_gato_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2303,54 +2254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【クリームブリュレのレシピ】
-クリームにパリパリのカラメルを楽しめる、
-定番のスイーツです。
-まずは、カスタードクリームを作れるようになりましょう。
-①カスタードクリームを準備します。
-②クリームに、砂糖を敷き詰めます。
-③「キャラメリゼ」の魔法で、火にかけて仕上げましょう。
-砂糖がパリパリになり、完成♪
-</t>
-    <rPh sb="31" eb="32">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>テイバン</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="130" eb="131">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>gelato_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2363,151 +2266,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【マリトッツォのレシピ】
-ふわふわブリオッシュパンに、クリームをいれてはさんだ、独特な見た目のお菓子です。
-ふんわりして、3時のおやつにピッタリ♪
-作り方は簡単です。
-①ブリオッシュのパンにクリームを挟む。
-②仕上げに、パウダーシュガーをふりましょう。
-粉雪のような見た目になれば完成！
-パウダーシュガーはなくても完成しますが、
-かけたほうが見た目はよくなります。
-</t>
-    <rPh sb="41" eb="43">
-      <t>ドクトク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>コナユキ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブリオッシュのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ブリオッシュのレシピ】
-マリトッツォを作るための、柔らかいバターふんだん使用のパンです。
-作るのは簡単ですが、材料が多くて大変。
-①強力粉×砂糖×塩で、粉生地を作る。
-②その生地に、牛乳・卵黄を加えて混ぜます。
-③さらに、バターをたっぷり加えて、こねていきます。
-焼いたら完成です♪
-通常のパンよりもふんわりして、おいしいでございますよ～♪</t>
-    <rPh sb="21" eb="22">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>タイヘン</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>キョウリキコ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>コナ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ツウジョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2522,86 +2281,6 @@
     <t>さくさく苺ミルフイユのレシピ</t>
     <rPh sb="4" eb="5">
       <t>イチゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【さくさく苺ミルフイユのレシピ】
-マリトッツォを作るための、柔らかいバターふんだん使用のパンです。
-作るのは簡単ですが、材料が多くて大変。
-①強力粉×砂糖×塩で、粉生地を作る。
-②その生地に、牛乳・卵黄を加えて混ぜます。
-③さらに、バターをたっぷり加えて、こねていきます。
-焼いたら完成です♪
-通常のパンよりもふんわりして、おいしいでございますよ～♪</t>
-    <rPh sb="25" eb="26">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>タイヘン</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>キョウリキコ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>コナ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ギュウニュウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ツウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2874,111 +2553,6 @@
   </si>
   <si>
     <t>タルト・オ・ポムのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【タルト・オ・ポムのレシピ】
-ご家庭でおなじみの、アップルパイの作り方を伝授いたします。
-以下の２つの材料を事前に作っておきましょう。
-A. パイ生地
-B. りんごのコンポート
-【A. パイ生地】
-①薄力粉と強力粉、さらにバターを入れて混ぜ合わせる。
-②そこに、塩と水をさらに入れて、よく練ってベースの生地は完成。
-【B. りんごのコンポート】
-①りんごと砂糖水を、鍋にいれて煮詰めます。水分がなくなり、冷めたら完成。
-Aの生地の中にBを入れて、じっくり焼き上げればアップルパイの完成です♪
-</t>
-    <rPh sb="47" eb="49">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="105" eb="108">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="109" eb="112">
-      <t>キョウリキコ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>スイブン</t>
-    </rPh>
-    <rPh sb="209" eb="210">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="223" eb="224">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="227" eb="228">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="248" eb="250">
-      <t>カンセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3884,84 +3458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【基本のジェラートのレシピ】
-難易度：高
-アイスと材料は同じだが、
-空気の含みが少なく、濃厚な味わい。
-①アイスクリーム水溶液に、魔法「オーバーフリーズ」を使う。
-空気の含有量を調節できる。
-②空気の含有量を、20~40%の間にしてから、凍らせる。
-しっとり濃厚なジェラートが完成します。
-</t>
-    <rPh sb="1" eb="3">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="62" eb="65">
-      <t>スイヨウエキ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="87" eb="90">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>チョウセツ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="103" eb="106">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>コオ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ポテトの宝石箱のレシピ】
 これは、まさにポテト好きには夢のような..
 お菓子のご紹介です。
@@ -4077,6 +3573,485 @@
     </rPh>
     <rPh sb="235" eb="236">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【アフォガードのレシピ】
+冷たさと熱さが共存する大人なお菓子。
+アフォガードの作り方をお教えしましょう。
+とっても簡単です。
+①&lt;color=#BA9535FF&gt;バニラアイスクリーム&lt;/color&gt;と、&lt;color=#BA9535FF&gt;コーヒー&lt;/color&gt;を準備します。
+②アイスにコーヒーを注いで出来上がり。
+アイスの代わりにジェラートを使ったり、
+注ぐコーヒーを紅茶に変えても、
+香りが楽しめて良いですよ♪
+</t>
+    <rPh sb="59" eb="61">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="154" eb="157">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>ソソ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【基本のジェラートのレシピ】
+アイスと材料は同じだが、
+空気の含みが少なく、濃厚な味わい。
+①アイスクリーム水溶液に、魔法「ジェラートフリーズ」を使う。
+空気の含有量を少なくして凍らせられる。
+②しっとり濃厚なジェラートが完成します。
+</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クリームブリュレのレシピ】
+クリームにパリパリのカラメルを楽しめる、
+定番のスイーツです。
+まずは、カスタードクリームを作れるようになりましょう。
+①&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;を準備します。
+②クリームに、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を敷き詰めます。
+③&lt;color=#FF5CA1FF&gt;「キャラメリゼ」の魔法&lt;/color&gt;で、火にかけて仕上げましょう。
+砂糖がパリパリになり、完成♪
+クリームととろける濃厚な味わいに、キャラメルのパリパリが後をひく、絶品スイーツです！
+</t>
+    <rPh sb="31" eb="32">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="210" eb="212">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>ゼッピン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ブリオッシュのレシピ】
+マリトッツォを作るための、柔らかいバターふんだん使用のパンです。
+作るのは簡単ですが、材料が多くて大変。
+①&lt;color=#BA9535FF&gt;強力粉×砂糖×塩&lt;/color&gt;で、粉生地を作る。
+②その生地に、&lt;color=#BA9535FF&gt;牛乳・卵黄&lt;/color&gt;を加えて混ぜます。
+③さらに、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をたっぷり加えて、こねていき..
+焼いたら完成！
+通常のパンよりもふんわりして、おいしいでございますよ～♪</t>
+    <rPh sb="21" eb="22">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>キョウリキコ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【マリトッツォのレシピ】
+ふわふわブリオッシュパンに、クリームをいれてはさんだ、独特な見た目のお菓子です。
+ふんわりして、3時のおやつにピッタリ♪
+作り方は簡単です。
+①&lt;color=#BA9535FF&gt;ブリオッシュのパン&lt;/color&gt;に、&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;をてんこもり挟む。
+②仕上げに、パウダーシュガーをふりましょう。
+粉雪のような見た目になれば完成！
+パウダーシュガーはなくても完成しますが、
+かけたほうが見た目はよくなります。
+</t>
+    <rPh sb="41" eb="43">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>コナユキ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="250" eb="251">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【さくさく苺ミルフイユのレシピ】
+パイ生地をたくさん重ねてできるミルフイユ..。
+パリパリでとってもおいしいですよ♪
+以下、パイ生地×カスタードクリーム×いちごをのせ、その生地を３つ先に作ります。
+☆カスタードクリームは、事前に準備してくださいね。
+【作り方】
+◆パイ生地
+①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;、さらに&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を入れて混ぜ合わせます。
+②そこに、&lt;color=#BA9535FF&gt;塩&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をさらに入れて、よく練ってベースの生地は完成です。
+③事前に準備した、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をのせ、その上にいちごをのせましょう。
+ミルフイユ生地の完成です。
+◆ミルフイユを焼く
+④&lt;color=#BA9535FF&gt;③の生地&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;別々に３つ&lt;/color&gt;作ります。
+それらを重ねて、焼いたら完成です♪
+仕上げに、さらにクリームやいちごをのせると、立派ないちごミルフイユになります。
+パイ生地の食感がさくさくでパリパリ。
+ぜひお試しください♪</t>
+    <rPh sb="20" eb="22">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="332" eb="334">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="394" eb="395">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="400" eb="402">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="403" eb="405">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="417" eb="418">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="440" eb="442">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="469" eb="471">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="482" eb="483">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="493" eb="494">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="497" eb="498">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="501" eb="503">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="508" eb="510">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="530" eb="532">
+      <t>リッパ</t>
+    </rPh>
+    <rPh sb="571" eb="572">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【タルト・オ・ポムのレシピ】
+ご家庭でおなじみの、アップルパイの作り方を伝授いたします。
+以下の２つの材料を事前に作っておきましょう。
+A. パイ生地
+B. りんごのコンポート
+【A. パイ生地】
+①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;、さらに&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を入れて混ぜ合わせる。
+②そこに、&lt;color=#BA9535FF&gt;塩&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をさらに入れて、よく練ってベースの生地は完成。
+【B. りんごのコンポート】
+①りんごと砂糖水を、鍋にいれて煮詰めます。水分がなくなり、冷めたら完成。
+Aの生地の中にBを入れて、じっくり焼き上げればアップルパイの完成です♪
+</t>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="312" eb="313">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="315" eb="316">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="320" eb="322">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="334" eb="335">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="338" eb="340">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="345" eb="347">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="348" eb="349">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="352" eb="353">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="360" eb="361">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="362" eb="363">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="373" eb="375">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4122,7 +4097,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4153,6 +4128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4168,7 +4149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4195,6 +4176,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4513,8 +4500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5405,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -5573,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -6263,10 +6250,10 @@
         <v>200</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E42" s="8">
         <v>500</v>
@@ -6287,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L42" s="8">
         <v>9999</v>
@@ -6455,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L46" s="6">
         <v>340</v>
@@ -6497,7 +6484,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L47" s="6">
         <v>350</v>
@@ -6539,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L48" s="4">
         <v>360</v>
@@ -6548,45 +6535,45 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4">
+    <row r="49" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="6">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="6">
         <v>500</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="6">
         <v>150</v>
       </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="L49" s="4">
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L49" s="6">
         <v>370</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="6">
         <v>370</v>
       </c>
     </row>
@@ -6599,10 +6586,10 @@
         <v>200</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E50" s="6">
         <v>500</v>
@@ -6623,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L50" s="6">
         <v>380</v>
@@ -6641,10 +6628,10 @@
         <v>200</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E51" s="6">
         <v>500</v>
@@ -6665,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L51" s="6">
         <v>390</v>
@@ -6683,10 +6670,10 @@
         <v>200</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E52" s="6">
         <v>500</v>
@@ -6707,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L52" s="6">
         <v>400</v>
@@ -6725,10 +6712,10 @@
         <v>200</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E53" s="6">
         <v>500</v>
@@ -6749,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L53" s="6">
         <v>410</v>
@@ -6758,255 +6745,255 @@
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4">
+    <row r="54" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="6">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="C54" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="6">
         <v>500</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="6">
         <v>150</v>
       </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="L54" s="4">
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L54" s="6">
         <v>420</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="6">
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="4">
+    <row r="55" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="C55" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="6">
         <v>500</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="6">
         <v>150</v>
       </c>
-      <c r="G55" s="4">
-        <v>0</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="L55" s="4">
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L55" s="6">
         <v>430</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="6">
         <v>430</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="4">
+    <row r="56" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="6">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="C56" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="6">
         <v>500</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="6">
         <v>150</v>
       </c>
-      <c r="G56" s="4">
-        <v>0</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L56" s="4">
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L56" s="6">
         <v>440</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="6">
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4">
+    <row r="57" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="C57" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E57" s="6">
         <v>500</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="6">
         <v>150</v>
       </c>
-      <c r="G57" s="4">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
-        <v>1</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="L57" s="4">
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L57" s="6">
         <v>450</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="6">
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4">
+    <row r="58" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="6">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="C58" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="6">
         <v>500</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="6">
         <v>150</v>
       </c>
-      <c r="G58" s="4">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4">
-        <v>0</v>
-      </c>
-      <c r="J58" s="4">
-        <v>1</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L58" s="4">
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L58" s="6">
         <v>460</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="6">
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4">
+    <row r="59" spans="1:13" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="C59" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="10">
         <v>500</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="10">
         <v>150</v>
       </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
-        <v>1</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
+        <v>1</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="L59" s="10">
         <v>470</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59" s="10">
         <v>470</v>
       </c>
     </row>
@@ -7019,10 +7006,10 @@
         <v>200</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E60" s="6">
         <v>500</v>
@@ -7043,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L60" s="6">
         <v>480</v>
@@ -7061,10 +7048,10 @@
         <v>200</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E61" s="6">
         <v>500</v>
@@ -7085,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L61" s="6">
         <v>490</v>
@@ -7103,10 +7090,10 @@
         <v>200</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E62" s="4">
         <v>500</v>
@@ -7127,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L62" s="4">
         <v>500</v>
@@ -7145,10 +7132,10 @@
         <v>200</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E63" s="4">
         <v>500</v>
@@ -7169,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L63" s="4">
         <v>510</v>
@@ -7187,10 +7174,10 @@
         <v>200</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E64" s="4">
         <v>500</v>
@@ -7211,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="L64" s="4">
         <v>520</v>
@@ -7229,10 +7216,10 @@
         <v>200</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E65" s="6">
         <v>500</v>
@@ -7253,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L65" s="6">
         <v>530</v>
@@ -7271,10 +7258,10 @@
         <v>200</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E66" s="6">
         <v>500</v>
@@ -7295,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L66" s="6">
         <v>540</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D2A79-5E04-4AFF-B32D-F67961FC8679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BDE9A3-CEB8-4CA1-BEAD-EFF771FABCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1095" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3270" yWindow="990" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2350,200 +2350,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【スフレパンケーキのレシピ】
-ふんわりふわふわ、とろけるようなパンケーキ・スフレの作り方をご紹介します。
-A. カスタードクリームとB. メレンゲを作り、混ぜ合わせることで出来た生地を焼けば完成です。
-A.
-①卵黄に砂糖を混ぜます。＜アパレイユ・イエロー
-＞
-②そこに牛乳と小麦粉を混ぜ合わせる。
-カスタードクリームができる。
-B. 
-③卵白に砂糖を入れながら、ウィンドミキサーで混ぜ、メレンゲを作ります。
-AとBを合わせて、焼けば完成！
-ふんわりとろける、スフレなパンケーキの完成です。
-仕上げに、パウダーシュガーをかけたり、クリームを添えてもおいしいでしょう♪
-</t>
-    <rPh sb="42" eb="43">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="141" eb="144">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="195" eb="196">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="214" eb="215">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="276" eb="277">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ふわころのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【ふわころのレシピ】
-一口サイズのもちもち食感ロールケーキの作り方をご紹介します。
-A. もちもち生地とB. メレンゲを作り、混ぜて出来た生地を焼けば完成です。
-A.
-①バター・牛乳を入れた液体に、強力粉を入れ混ぜる。
-②さらに、たまごを入れて混ぜ合わせる
-B. 
-③卵白に砂糖を入れながら、ウィンドミキサーで混ぜ、メレンゲを作ります。
-④AとBを合わせて、小さく丸くして焼けば完成！
-ふわもちで、ころころしたクセになるお菓子です。
-</t>
-    <rPh sb="12" eb="14">
-      <t>ヒトクチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>マル</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>huwakoro_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2553,147 +2363,6 @@
   </si>
   <si>
     <t>タルト・オ・ポムのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【クッキーのお家　フォーゲットミーノットのレシピ】
-恋人への特別なお菓子「フォーゲットミーノット」のご紹介です。
-①２つのケーキ土台を作りましょう♪
-・一段目
-&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-・二段目
-&lt;color=#BA9535FF&gt;スポンジケーキ&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-土台が出来上がったら、２つをくっつけます。
-②液体チョコレート→ウィンドクラウンで、王冠の形にし、冷やしてチョコレートにする。
-③お城の柱の部分を作る。
-ロールクッキーに三角形のコンフェッティをのせる。2個作る。
-④　①＋②＋③で、材料をくっつければ完成☆
-【さらに仕上げ】
-ただし、見た目が少しシンプルなので、
-トッピングに、
-・お花を散らす
-・人形の兵隊をのせる
-・光る砂糖を散りばめる
-など工夫すると、
-すっごくかわいくなりますよ～♪
-ぜひお試しくださいね。
-パステルカラーのゆめみたいなケーキを、
-お姫様気分で召し上がってね～。
-</t>
-    <rPh sb="7" eb="8">
-      <t>ウチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コイビト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>イチダンメ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="185" eb="188">
-      <t>ニダンメ</t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="294" eb="297">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="315" eb="317">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="334" eb="336">
-      <t>オウカン</t>
-    </rPh>
-    <rPh sb="337" eb="338">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="341" eb="342">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="359" eb="360">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="361" eb="362">
-      <t>ハシラ</t>
-    </rPh>
-    <rPh sb="363" eb="365">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="366" eb="367">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="378" eb="381">
-      <t>サンカクケイ</t>
-    </rPh>
-    <rPh sb="395" eb="396">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="396" eb="397">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="410" eb="412">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="419" eb="421">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="428" eb="430">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="437" eb="438">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="439" eb="440">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="441" eb="442">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="464" eb="465">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="466" eb="467">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="471" eb="473">
-      <t>ニンギョウ</t>
-    </rPh>
-    <rPh sb="474" eb="476">
-      <t>ヘイタイ</t>
-    </rPh>
-    <rPh sb="482" eb="483">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="484" eb="486">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="487" eb="488">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="495" eb="497">
-      <t>クフウ</t>
-    </rPh>
-    <rPh sb="522" eb="523">
-      <t>タメ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3872,13 +3541,7 @@
       <t>カンセイ</t>
     </rPh>
     <rPh sb="234" eb="236">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="248" eb="249">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="250" eb="251">
-      <t>メ</t>
+      <t>カンセイミメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3984,6 +3647,481 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">【スフレパンケーキのレシピ】
+ふんわりふわふわ、とろけるようなパンケーキ・スフレの作り方をご紹介します。
+A. カスタードクリームとB. メレンゲを作り、混ぜ合わせることで出来た生地を焼けば完成です。
+A.
+①&lt;color=#BA9535FF&gt;卵黄&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜます。＜アパレイユ・イエロー
+＞
+②そこに&lt;color=#BA9535FF&gt;牛乳&lt;/color&gt;と&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜ合わせる。
+カスタードクリームができる。
+B. 
+③&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れながら、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;で混ぜ、メレンゲを作ります。
+AとBを合わせて、焼けば完成！
+ふんわりとろける、スフレなパンケーキの完成です。
+仕上げに、パウダーシュガーをかけたり、クリームを添えてもおいしいでしょう♪
+</t>
+    <rPh sb="42" eb="43">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="233" eb="236">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="370" eb="371">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="378" eb="379">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="389" eb="390">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="394" eb="395">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="397" eb="399">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="420" eb="422">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="427" eb="429">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="451" eb="452">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【クッキーのお家　フォーゲットミーノットのレシピ】
+恋人への特別なお菓子「フォーゲットミーノット」のご紹介です。
+材料が多く大変ですが、ぜひ挑戦してみてくださいね！
+ざっくりと、
+A.壁
+B.ドアと窓
+C.屋根部分
+の3種類を作って、飾り付けていきましょう。
+A. 壁部分
+①&lt;color=#BA9535FF&gt;ビスケット×８&lt;/color&gt;と&lt;color=#BA9535FF&gt;ココアクッキー×４&lt;/color&gt;
+&lt;color=#BA9535FF&gt;ロールクッキー×２&lt;/color&gt;を準備する。
+※数は好きな数で良いですが、少ないと出来栄えが悪くなります。
+②&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;と&lt;color=#BA9535FF&gt;ココアクッキー&lt;/color&gt;をれんがに見立て、組み合わせていきます。
+③できた壁部分の内側に、&lt;color=#BA9535FF&gt;ロールクッキー&lt;/color&gt;を詰めましょう。屋根の支えになります。
+壁部分はこれで完成。
+B.ドアと窓
+①窓部分は、&lt;color=#BA9535FF&gt;液体チョコレート&lt;/color&gt;に&lt;color=#FF5CA1FF&gt;「魔法ウィンドハート」&lt;/color&gt;をかけて、ハート型のチョコにします。
+2個作っておきましょう。
+※ちゃんと冷やして固めておきましょう。
+②ドアは、&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;に、&lt;color=#BA9535FF&gt;チョコペン&lt;/color&gt;で模様を描きます。
+ドアと窓はこれで完了です。
+C. 屋根部分
+屋根は、チョコレートで作ります。
+①液体チョコレートに、&lt;color=#FF5CA1FF&gt;魔法「ウィンド板チョコ」&lt;/color&gt;で板チョコレートを2個作ります。
+②板チョコに、&lt;color=#BA9535FF&gt;ロールクッキー&lt;/color&gt;を一個くっつけて、煙突にします。
+屋根の完成です。
+【組み立て】
+①&lt;color=#BA9535FF&gt;A壁部分&lt;/color&gt;に、&lt;color=#BA9535FF&gt;C屋根部分&lt;/color&gt;を先にくっつけます。
+②できた土台に、&lt;color=#BA9535FF&gt;Bのドアと窓&lt;/color&gt;をくっつけて、
+お菓子のおうち完成です！
+さらに仕上げに、
+・宝石キャンディを散りばめる
+・くまさんやうさぎさんを配置する
+・クリスタルシュガーやパウダーシュガーなどをふりかける
+など
+よりかわいく見せてあげてくださいね♪</t>
+    <rPh sb="7" eb="8">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コイビト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="105" eb="109">
+      <t>ヤネブブン</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="268" eb="271">
+      <t>デキバ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="351" eb="353">
+      <t>ミタ</t>
+    </rPh>
+    <rPh sb="355" eb="356">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="372" eb="373">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="373" eb="375">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="376" eb="378">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="420" eb="422">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="423" eb="424">
+      <t>ササ</t>
+    </rPh>
+    <rPh sb="433" eb="434">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="434" eb="436">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="440" eb="442">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="450" eb="451">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="453" eb="456">
+      <t>マドブブン</t>
+    </rPh>
+    <rPh sb="475" eb="477">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="510" eb="512">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="536" eb="537">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="548" eb="549">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="549" eb="550">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="565" eb="566">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="569" eb="570">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="648" eb="650">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="651" eb="652">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="660" eb="661">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="665" eb="667">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="675" eb="677">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="677" eb="679">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="680" eb="682">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="691" eb="692">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="698" eb="700">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="725" eb="727">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="732" eb="733">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="746" eb="747">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="755" eb="756">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="756" eb="757">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="763" eb="764">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="802" eb="804">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="810" eb="812">
+      <t>エントツ</t>
+    </rPh>
+    <rPh sb="818" eb="820">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="821" eb="823">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="829" eb="830">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="831" eb="832">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="854" eb="855">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="855" eb="857">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="885" eb="887">
+      <t>ヤネ</t>
+    </rPh>
+    <rPh sb="887" eb="889">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="898" eb="899">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="912" eb="914">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="938" eb="939">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="956" eb="958">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="962" eb="964">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="972" eb="974">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="979" eb="981">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="987" eb="988">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="1005" eb="1007">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="1048" eb="1049">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ふわころのレシピ】
+一口サイズのもちもち食感ロールケーキの作り方をご紹介します。
+A. もちもち生地とB. メレンゲを作り、混ぜて出来た生地を焼けば完成です。
+A.
+①&lt;color=#BA9535FF&gt;バター・牛乳&lt;/color&gt;を入れた液体に、&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;を入れ混ぜる。
+②さらに、&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を入れて混ぜ合わせる
+B. 
+③&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れながら、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;で混ぜ、メレンゲを作ります。
+④AとBを合わせて、小さく丸くして焼けば完成！
+ふわもちで、ころころしたクセになるお菓子です。
+</t>
+    <rPh sb="12" eb="14">
+      <t>ヒトクチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="310" eb="311">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="338" eb="339">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="342" eb="343">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="345" eb="347">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="368" eb="370">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">【タルト・オ・ポムのレシピ】
 ご家庭でおなじみの、アップルパイの作り方を伝授いたします。
 以下の２つの材料を事前に作っておきましょう。
@@ -3993,7 +4131,9 @@
 ①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;、さらに&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を入れて混ぜ合わせる。
 ②そこに、&lt;color=#BA9535FF&gt;塩&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をさらに入れて、よく練ってベースの生地は完成。
 【B. りんごのコンポート】
-①りんごと砂糖水を、鍋にいれて煮詰めます。水分がなくなり、冷めたら完成。
+①&lt;color=#BA9535FF&gt;りんご&lt;/color&gt;と&lt;color=#BA9535FF&gt;砂糖水&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;小さい鍋&lt;/color&gt;にいれて煮詰めます。
+水分がなくなり、冷めたら完成。
+【焼く】
 Aの生地の中にBを入れて、じっくり焼き上げればアップルパイの完成です♪
 </t>
     <rPh sb="47" eb="49">
@@ -4014,43 +4154,49 @@
     <rPh sb="99" eb="101">
       <t>キジ</t>
     </rPh>
-    <rPh sb="310" eb="312">
+    <rPh sb="352" eb="354">
       <t>サトウ</t>
     </rPh>
-    <rPh sb="312" eb="313">
+    <rPh sb="354" eb="355">
       <t>ミズ</t>
     </rPh>
-    <rPh sb="315" eb="316">
+    <rPh sb="382" eb="383">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="385" eb="386">
       <t>ナベ</t>
     </rPh>
-    <rPh sb="320" eb="322">
+    <rPh sb="398" eb="400">
       <t>ニツ</t>
     </rPh>
-    <rPh sb="326" eb="328">
+    <rPh sb="405" eb="407">
       <t>スイブン</t>
     </rPh>
-    <rPh sb="334" eb="335">
+    <rPh sb="413" eb="414">
       <t>サ</t>
     </rPh>
-    <rPh sb="338" eb="340">
+    <rPh sb="417" eb="419">
       <t>カンセイ</t>
     </rPh>
-    <rPh sb="345" eb="347">
+    <rPh sb="423" eb="424">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="429" eb="431">
       <t>キジ</t>
     </rPh>
-    <rPh sb="348" eb="349">
+    <rPh sb="432" eb="433">
       <t>ナカ</t>
     </rPh>
-    <rPh sb="352" eb="353">
+    <rPh sb="436" eb="437">
       <t>イ</t>
     </rPh>
-    <rPh sb="360" eb="361">
+    <rPh sb="444" eb="445">
       <t>ヤ</t>
     </rPh>
-    <rPh sb="362" eb="363">
+    <rPh sb="446" eb="447">
       <t>ア</t>
     </rPh>
-    <rPh sb="373" eb="375">
+    <rPh sb="457" eb="459">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -4149,7 +4295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4162,9 +4308,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -4500,8 +4643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5392,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -5560,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -6241,1053 +6384,1053 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="8">
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="8">
+      <c r="C42" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="7">
         <v>500</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>150</v>
       </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="L42" s="8">
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L42" s="7">
         <v>9999</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="7">
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="6">
+    <row r="43" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>500</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <v>150</v>
       </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>1</v>
-      </c>
-      <c r="K43" s="7" t="s">
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="5">
         <v>310</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="5">
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="6">
+    <row r="44" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>500</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>150</v>
       </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>1</v>
-      </c>
-      <c r="K44" s="7" t="s">
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="5">
         <v>320</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="5">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="6">
+    <row r="45" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>500</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>150</v>
       </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1</v>
-      </c>
-      <c r="K45" s="7" t="s">
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="5">
         <v>330</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="5">
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6">
+    <row r="46" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>500</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>150</v>
       </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>1</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L46" s="6">
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="L46" s="5">
         <v>340</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="6">
+    <row r="47" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>500</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>150</v>
       </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L47" s="6">
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L47" s="5">
         <v>350</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="5">
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
+    <row r="48" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>500</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>150</v>
       </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L48" s="5">
         <v>360</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="5">
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="6">
+    <row r="49" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>500</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>150</v>
       </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L49" s="6">
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L49" s="5">
         <v>370</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="6">
+    <row r="50" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>500</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>150</v>
       </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>1</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L50" s="6">
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L50" s="5">
         <v>380</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="6">
+    <row r="51" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>500</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <v>150</v>
       </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>1</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L51" s="6">
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L51" s="5">
         <v>390</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="5">
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="6">
+    <row r="52" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>500</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>150</v>
       </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>1</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L52" s="6">
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L52" s="5">
         <v>400</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="6">
+    <row r="53" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>500</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>150</v>
       </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
-        <v>1</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L53" s="6">
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L53" s="5">
         <v>410</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="5">
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="6">
+    <row r="54" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>500</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>150</v>
       </c>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
-        <v>1</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L54" s="6">
+      <c r="G54" s="5">
+        <v>0</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L54" s="5">
         <v>420</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="5">
         <v>420</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="6">
+    <row r="55" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>500</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <v>150</v>
       </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>1</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L55" s="6">
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="L55" s="5">
         <v>430</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="5">
         <v>430</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="6">
+    <row r="56" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>500</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>150</v>
       </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6">
-        <v>1</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L56" s="6">
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="L56" s="5">
         <v>440</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="5">
         <v>440</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="6">
+    <row r="57" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>500</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="5">
         <v>150</v>
       </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6">
-        <v>1</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L57" s="6">
+      <c r="G57" s="5">
+        <v>0</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="L57" s="5">
         <v>450</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="5">
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="6">
+    <row r="58" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>500</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="5">
         <v>150</v>
       </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0</v>
-      </c>
-      <c r="J58" s="6">
-        <v>1</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L58" s="6">
+      <c r="G58" s="5">
+        <v>0</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="L58" s="5">
         <v>460</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="5">
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="10" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="10">
+    <row r="59" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="9">
         <v>500</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>150</v>
       </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0</v>
-      </c>
-      <c r="I59" s="10">
-        <v>0</v>
-      </c>
-      <c r="J59" s="10">
-        <v>1</v>
-      </c>
-      <c r="K59" s="11" t="s">
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
+        <v>1</v>
+      </c>
+      <c r="K59" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="L59" s="10">
+      <c r="L59" s="9">
         <v>470</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M59" s="9">
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="6">
+    <row r="60" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>500</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>150</v>
       </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>1</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L60" s="6">
+      <c r="G60" s="5">
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L60" s="5">
         <v>480</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="5">
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="6">
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>500</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>150</v>
       </c>
-      <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
-        <v>1</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L61" s="6">
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="L61" s="5">
         <v>490</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="5">
         <v>490</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="4">
+    <row r="62" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="5">
         <v>500</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="5">
         <v>150</v>
       </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="L62" s="4">
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="L62" s="5">
         <v>500</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="4">
+    <row r="63" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="4">
+      <c r="D63" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" s="5">
         <v>500</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="5">
         <v>150</v>
       </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="L63" s="4">
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L63" s="5">
         <v>510</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="5">
         <v>510</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="4">
+    <row r="64" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="C64" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="5">
         <v>500</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="5">
         <v>150</v>
       </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4">
-        <v>0</v>
-      </c>
-      <c r="J64" s="4">
-        <v>1</v>
-      </c>
-      <c r="K64" s="5" t="s">
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L64" s="5">
         <v>520</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="5">
         <v>520</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="6">
+    <row r="65" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="C65" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" s="5">
         <v>500</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="5">
         <v>150</v>
       </c>
-      <c r="G65" s="6">
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>1</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L65" s="6">
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="L65" s="5">
         <v>530</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="5">
         <v>530</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="6">
+    <row r="66" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E66" s="6">
+      <c r="C66" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="5">
         <v>500</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="5">
         <v>150</v>
       </c>
-      <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c r="I66" s="6">
-        <v>0</v>
-      </c>
-      <c r="J66" s="6">
-        <v>1</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L66" s="6">
+      <c r="G66" s="5">
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="L66" s="5">
         <v>540</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="5">
         <v>540</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BDE9A3-CEB8-4CA1-BEAD-EFF771FABCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38512003-C721-49AF-A85E-72E05322F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="990" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3360" yWindow="1245" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="288">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -2083,64 +2083,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【ブラックチョコレートのレシピ】
-①カカオ豆　→　ロースト　豆焼きスキルを使う
-焼いた豆の殻むき　→　カカオニブができる。
-②カカオニブと砂糖をまぜる。
-＋　豆の粉砕機
-豆をつぶしながらまぜる。
-③溶けたカカオ＜カカオマス＞　→　テンパリング
-50°　→　26°　→　31°
-31°は超えてはいけない
-④液体チョコレート　→　ふりーじんぐor氷室
-ブラックチョコレート完成！
-ほろ苦くて甘い♪　カカオがよく効いた絶品のお菓子でございます。
-</t>
-    <rPh sb="22" eb="23">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>マメヤ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="84" eb="87">
-      <t>フンサイキ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
-      <t>ヒムロ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーラのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2609,161 +2551,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【お城ケーキ　ファンタジアのレシピ】
-とってもかわいいお城のケーキ♪
-でも、実は2段重ねのケーキをベースに、そこそこ簡単に作れますよ。
-①２つのケーキ土台を作りましょう♪
-・一段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-・二段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ラズベリー&lt;/color&gt;
-クリームはホイップでなく、作りたてクリームをそのまま塗ります。
-土台が出来上がったら、２つをのせます。
-②&lt;color=#BA9535FF&gt;液体チョコレート&lt;/color&gt;を魔法「ウィンドクラウン」で、王冠の形にし、冷やしてチョコレートにする。
-③お城の柱の部分を作る。
-&lt;color=#BA9535FF&gt;ロールクッキー&lt;/color&gt;に三角形の&lt;color=#BA9535FF&gt;コンフィズリー&lt;/color&gt;をのせる。2個作る。
-④　①＋②＋③で、材料を組み合わせて完成☆
-【さらに仕上げ】
-ただし、見た目が少しシンプルなので、
-トッピングに、
-&lt;color=#BA9535FF&gt;・お花を散らす
-・人形の兵隊をのせる
-・光る砂糖を散りばめる&lt;/color&gt;
-など工夫すると、
-すっごくかわいくなりますよ～♪
-ぜひお試しくださいね。
-パステルカラーで夢気分♪
-お姫様気分で召し上がってね♪
-</t>
-    <rPh sb="2" eb="3">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ダンカサ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="336" eb="337">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="349" eb="350">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="355" eb="357">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="358" eb="361">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="394" eb="396">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="411" eb="413">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="425" eb="427">
-      <t>オウカン</t>
-    </rPh>
-    <rPh sb="428" eb="429">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="450" eb="451">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="452" eb="453">
-      <t>ハシラ</t>
-    </rPh>
-    <rPh sb="454" eb="456">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="457" eb="458">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="494" eb="497">
-      <t>サンカクケイ</t>
-    </rPh>
-    <rPh sb="536" eb="537">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="537" eb="538">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="551" eb="553">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="554" eb="555">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="556" eb="557">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="560" eb="562">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="569" eb="571">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="578" eb="579">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="580" eb="581">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="582" eb="583">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="622" eb="623">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="624" eb="625">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="629" eb="631">
-      <t>ニンギョウ</t>
-    </rPh>
-    <rPh sb="632" eb="634">
-      <t>ヘイタイ</t>
-    </rPh>
-    <rPh sb="640" eb="641">
-      <t>ヒカ</t>
-    </rPh>
-    <rPh sb="642" eb="644">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="645" eb="646">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="661" eb="663">
-      <t>クフウ</t>
-    </rPh>
-    <rPh sb="688" eb="689">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="706" eb="709">
-      <t>ユメキブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ビスケットのレシピ】
 ねこクッキーよりも油分が少なく、サクサクのハードビスケットの作り方です。
 主に、タルト生地作りに活用してくださいね。
@@ -2832,128 +2619,6 @@
     </rPh>
     <rPh sb="206" eb="208">
       <t>カツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【チーズケーキのレシピ】
-難易度・・　中～高　ぐらい
-少し手順が複雑ですが、がんばって作ってみてくださいね！
-チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
-①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
-②クリームの生地・・・
-1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
-2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
-3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、ウィンドミキサーでふんわり混ぜます。
-①に②を足して、焼き上げれば完成！！
-ふんわり濃厚なチーズケーキを召し上がれ♪</t>
-    <rPh sb="14" eb="17">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="249" eb="250">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="288" eb="289">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="331" eb="332">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="343" eb="345">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="363" eb="366">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="375" eb="376">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="391" eb="392">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="402" eb="403">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="406" eb="407">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="408" eb="409">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="412" eb="414">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="422" eb="424">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="434" eb="435">
-      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4198,6 +3863,479 @@
     </rPh>
     <rPh sb="457" eb="459">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【チーズケーキのレシピ】
+難易度・・　中～高　ぐらい
+少し手順が複雑ですが、がんばって作ってみてくださいね！
+チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
+①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
+②クリームの生地・・・
+1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
+2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
+3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
+①に②を足して、焼き上げれば完成！！
+ふんわり濃厚なチーズケーキを召し上がれ♪</t>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="331" eb="332">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="363" eb="366">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="427" eb="428">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="431" eb="432">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="433" eb="434">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="437" eb="439">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="457" eb="458">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="459" eb="460">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【お城ケーキ　ファンタジアのレシピ】
+難易度：高
+とってもかわいいお城のケーキ♪
+でも、実は2段重ねのケーキをベースに、作れますよ。
+作るのが大変なお菓子ですが、ぜひ挑戦してみてくださいね。
+以下の事前準備が必要です。作れない場合は、先に作れるようにしましょう。
+事前準備：
+・生クリームといちご・ラズベリー
+・液体チョコレート
+・スポンジケーキ＜スライス＞
+・ロールクッキーとコンフィズリー
+・魔法「ウィンドクラウン」の習得
+【作り方】
+①２つのケーキ土台を作りましょう♪
+・一段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・二段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ピンク色のクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;ラズベリー&lt;/color&gt;
+クリームはホイップでなく、作りたてクリームをそのまま塗ります。
+土台が出来上がったら、&lt;color=#FF5CA1FF&gt;２つをのせます&lt;/color&gt;。
+②&lt;color=#BA9535FF&gt;液体チョコレート&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;魔法「ウィンドクラウン」&lt;/color&gt;で王冠の形のチョコレートにする。冷やすのを忘れない。
+③お城の柱の部分を作る。
+&lt;color=#BA9535FF&gt;ロールクッキー&lt;/color&gt;に三角形の&lt;color=#BA9535FF&gt;コンフィズリー&lt;/color&gt;をのせる。2個作る。
+④　①＋②＋③で、材料を組み合わせて完成☆
+【さらに仕上げ】
+このままだと見た目が少しシンプルなので、
+トッピングに、
+&lt;color=#BA9535FF&gt;・お花を散らす
+・人形の兵隊をのせる
+・光る砂糖を散りばめる&lt;/color&gt;
+など工夫すると、
+すっごくかわいくなりますよ～♪
+ぜひお試しくださいね。
+パステルカラーで夢気分♪
+お姫様気分で召し上がってね♪
+</t>
+    <rPh sb="2" eb="3">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダンカサ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="100" eb="104">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="135" eb="139">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="490" eb="491">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="503" eb="504">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="509" eb="511">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="512" eb="515">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="573" eb="575">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="608" eb="610">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="629" eb="631">
+      <t>オウカン</t>
+    </rPh>
+    <rPh sb="632" eb="633">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="644" eb="645">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="649" eb="650">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="658" eb="659">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="660" eb="661">
+      <t>ハシラ</t>
+    </rPh>
+    <rPh sb="662" eb="664">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="665" eb="666">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="702" eb="705">
+      <t>サンカクケイ</t>
+    </rPh>
+    <rPh sb="744" eb="745">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="745" eb="746">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="759" eb="761">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="762" eb="763">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="764" eb="765">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="768" eb="770">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="777" eb="779">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="788" eb="789">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="790" eb="791">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="792" eb="793">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="832" eb="833">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="834" eb="835">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="839" eb="841">
+      <t>ニンギョウ</t>
+    </rPh>
+    <rPh sb="842" eb="844">
+      <t>ヘイタイ</t>
+    </rPh>
+    <rPh sb="850" eb="851">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="852" eb="854">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="855" eb="856">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="871" eb="873">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="898" eb="899">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="916" eb="919">
+      <t>ユメキブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ブラックチョコレートのレシピ】
+①&lt;color=#BA9535FF&gt;カカオ豆&lt;/color&gt;　→　ローストする。　魔法&lt;color=#FF5CA1FF&gt;「豆焼き」&lt;/color&gt;を使う
+焼いた豆の殻むき　→　カカオニブができる。
+②&lt;color=#BA9535FF&gt;カカオニブ&lt;/color&gt;と&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;をまぜる。
+&lt;color=#FF5CA1FF&gt;すりばち&lt;/color&gt;で、豆をつぶしながらまぜる。
+③溶けたカカオ＜カカオマス＞　→　&lt;color=#FF5CA1FF&gt;魔法「テンパリング」&lt;/color&gt;
+50°　→　26°　→　31°
+31°は超えてはいけない
+④液体チョコレート　→　&lt;color=#FF5CA1FF&gt;魔法ふりーじんぐ&lt;/color&gt; or &lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;
+ブラックチョコレート完成！
+ほろ苦くて甘い♪　カカオがよく効いた絶品のお菓子でございます。
+</t>
+    <rPh sb="39" eb="40">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>マメヤ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="216" eb="217">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="268" eb="269">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="321" eb="322">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>ヒムロ</t>
+    </rPh>
+    <rPh sb="419" eb="421">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロールクッキーのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roll_cookie_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ロールクッキーのレシピ】
+くるくる巻いたサクサク食感のロールクッキーの作り方
+①&lt;color=#BA9535FF&gt;ラングドシャクッキー&lt;/color&gt;を作ります。
+②ラングドシャクッキーに、&lt;color=#FF5CA1FF&gt;魔法「ウィンドロール」&lt;/color&gt;をかけて、くるくる巻けば完成♪
+卵白を使うことで、軽やかな舌ざわりになっています。
+お土産にもピッタリですよ～♪</t>
+    <rPh sb="19" eb="20">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水あめのレシピ</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starch_syrup_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【水あめのレシピ】
+①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;にいれて、とろとろと煮詰めたら出来上がり。</t>
+    <rPh sb="1" eb="2">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>デキア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4641,10 +4779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4706,7 +4844,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A66" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A68" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -5535,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -5703,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -6393,10 +6531,10 @@
         <v>200</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" s="7">
         <v>500</v>
@@ -6417,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -6459,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="L43" s="5">
         <v>310</v>
@@ -6519,10 +6657,10 @@
         <v>200</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E45" s="5">
         <v>500</v>
@@ -6543,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L45" s="5">
         <v>330</v>
@@ -6561,10 +6699,10 @@
         <v>200</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="E46" s="5">
         <v>500</v>
@@ -6585,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L46" s="5">
         <v>340</v>
@@ -6603,10 +6741,10 @@
         <v>200</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="E47" s="5">
         <v>500</v>
@@ -6627,7 +6765,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L47" s="5">
         <v>350</v>
@@ -6645,10 +6783,10 @@
         <v>200</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E48" s="5">
         <v>500</v>
@@ -6669,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L48" s="5">
         <v>360</v>
@@ -6687,10 +6825,10 @@
         <v>200</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E49" s="5">
         <v>500</v>
@@ -6711,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L49" s="5">
         <v>370</v>
@@ -6729,10 +6867,10 @@
         <v>200</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E50" s="5">
         <v>500</v>
@@ -6753,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L50" s="5">
         <v>380</v>
@@ -6771,10 +6909,10 @@
         <v>200</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E51" s="5">
         <v>500</v>
@@ -6795,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L51" s="5">
         <v>390</v>
@@ -6813,10 +6951,10 @@
         <v>200</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E52" s="5">
         <v>500</v>
@@ -6837,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -6855,10 +6993,10 @@
         <v>200</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E53" s="5">
         <v>500</v>
@@ -6879,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L53" s="5">
         <v>410</v>
@@ -6897,10 +7035,10 @@
         <v>200</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E54" s="5">
         <v>500</v>
@@ -6921,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L54" s="5">
         <v>420</v>
@@ -6939,10 +7077,10 @@
         <v>200</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E55" s="5">
         <v>500</v>
@@ -6963,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L55" s="5">
         <v>430</v>
@@ -6981,10 +7119,10 @@
         <v>200</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56" s="5">
         <v>500</v>
@@ -7005,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L56" s="5">
         <v>440</v>
@@ -7023,10 +7161,10 @@
         <v>200</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" s="5">
         <v>500</v>
@@ -7047,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L57" s="5">
         <v>450</v>
@@ -7065,10 +7203,10 @@
         <v>200</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E58" s="5">
         <v>500</v>
@@ -7089,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L58" s="5">
         <v>460</v>
@@ -7107,10 +7245,10 @@
         <v>200</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E59" s="9">
         <v>500</v>
@@ -7131,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L59" s="9">
         <v>470</v>
@@ -7149,10 +7287,10 @@
         <v>200</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="E60" s="5">
         <v>500</v>
@@ -7173,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L60" s="5">
         <v>480</v>
@@ -7191,10 +7329,10 @@
         <v>200</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E61" s="5">
         <v>500</v>
@@ -7215,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L61" s="5">
         <v>490</v>
@@ -7233,10 +7371,10 @@
         <v>200</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="E62" s="5">
         <v>500</v>
@@ -7257,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L62" s="5">
         <v>500</v>
@@ -7275,10 +7413,10 @@
         <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E63" s="5">
         <v>500</v>
@@ -7299,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L63" s="5">
         <v>510</v>
@@ -7317,10 +7455,10 @@
         <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E64" s="5">
         <v>500</v>
@@ -7341,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L64" s="5">
         <v>520</v>
@@ -7359,10 +7497,10 @@
         <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E65" s="5">
         <v>500</v>
@@ -7383,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L65" s="5">
         <v>530</v>
@@ -7401,10 +7539,10 @@
         <v>200</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E66" s="5">
         <v>500</v>
@@ -7425,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L66" s="5">
         <v>540</v>
@@ -7434,44 +7572,128 @@
         <v>540</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67">
+    <row r="67" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="5">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" s="5">
+        <v>500</v>
+      </c>
+      <c r="F67" s="5">
+        <v>150</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L67" s="5">
+        <v>550</v>
+      </c>
+      <c r="M67" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="5">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" s="5">
+        <v>500</v>
+      </c>
+      <c r="F68" s="5">
+        <v>150</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="L68" s="5">
+        <v>560</v>
+      </c>
+      <c r="M68" s="5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69">
         <v>10000</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>172</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>177</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>178</v>
       </c>
-      <c r="E67">
+      <c r="E69">
         <v>500</v>
       </c>
-      <c r="F67">
+      <c r="F69">
         <v>150</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L67">
+      <c r="L69">
         <v>9000</v>
       </c>
-      <c r="M67">
+      <c r="M69">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38512003-C721-49AF-A85E-72E05322F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58519D20-E1F3-4452-A1F9-F3B16140E15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1245" windowWidth="24420" windowHeight="14295" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="300">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -4336,6 +4336,365 @@
     </rPh>
     <rPh sb="84" eb="87">
       <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートケーキのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンブランのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strawberry_sponge_cake_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>montblanc_cake_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【モンブランのレシピ】
+難易度・・　中～高　ぐらい
+少し手順が複雑ですが、がんばって作ってみてくださいね！
+チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
+①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
+②クリームの生地・・・
+1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
+2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
+3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
+①に②を足して、焼き上げれば完成！！
+ふんわり濃厚なチーズケーキを召し上がれ♪</t>
+    <rPh sb="13" eb="16">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="232" eb="234">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="248" eb="249">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="287" eb="288">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="362" eb="365">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="374" eb="375">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="415" eb="416">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="426" eb="427">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="430" eb="431">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="436" eb="438">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="446" eb="448">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="456" eb="457">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="458" eb="459">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パチパチソーダのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パチパチソーダのレシピ】
+①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;にいれて、とろとろと煮詰めたら出来上がり。</t>
+    <rPh sb="33" eb="35">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="88" eb="91">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>patipati_soda_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねるね～るのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neruneru_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ねるね～るのレシピ】
+①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;にいれて、とろとろと煮詰めたら出来上がり。</t>
+    <rPh sb="31" eb="33">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ショートケーキのレシピ】
+定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
+ぜひ自慢のショートケーキを作ってみてくださいね。
+難易度・・　中～高　ぐらい
+事前準備：
+・生クリームといちご
+・スポンジケーキ＜スライス＞
+事前に、スポンジケーキは作れるようにしておきましょう♪
+【作り方】
+①２つのケーキ土台を作りましょう♪
+・一段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・二段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+※まとめて作るのではなく、1段ずつ別々に作りましょう。
+クリームはホイップでなく、作りたてクリームをそのまま塗ります。
+土台が出来上がったら、&lt;color=#FF5CA1FF&gt;２つをのせる＋スポンジケーキ＜スライス＞&lt;/color&gt;をのせます。
+②できたショートケーキのベースに、作りたてクリームをぬり、いちごをのせて完成です♪
+さらに、仕上げで、
+・いちごをたっぷりのせる
+・板チョコレートをのせる
+・飾りのミントをのせる
+など
+工夫とアレンジで、より魅力的なショートケーキを作ってみてくださいね～♪</t>
+    <rPh sb="15" eb="17">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アマズ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジマン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="360" eb="361">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="422" eb="423">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="425" eb="427">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="428" eb="429">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="550" eb="551">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="569" eb="571">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="580" eb="582">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="600" eb="601">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="613" eb="614">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="628" eb="630">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="639" eb="642">
+      <t>ミリョクテキ</t>
+    </rPh>
+    <rPh sb="651" eb="652">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="678" eb="679">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="681" eb="682">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="713" eb="714">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="717" eb="718">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="719" eb="720">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="721" eb="722">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="734" eb="736">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="768" eb="770">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="771" eb="773">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="782" eb="783">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="784" eb="785">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="798" eb="800">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="823" eb="824">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="866" eb="867">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="878" eb="880">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="898" eb="901">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="910" eb="911">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="951" eb="952">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="962" eb="963">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="966" eb="967">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="968" eb="969">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="972" eb="974">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="982" eb="984">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="992" eb="993">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="994" eb="995">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4433,7 +4792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4463,6 +4822,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4779,10 +5141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4844,7 +5206,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A68" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A72" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -6732,87 +7094,87 @@
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5">
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="C47" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E47" s="4">
         <v>500</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>150</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
-        <v>1</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L47" s="4">
         <v>350</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5">
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="C48" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="4">
         <v>500</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>150</v>
       </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>1</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="L48" s="5">
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="L48" s="4">
         <v>360</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="4">
         <v>360</v>
       </c>
     </row>
@@ -6825,10 +7187,10 @@
         <v>200</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E49" s="5">
         <v>500</v>
@@ -6849,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="L49" s="5">
         <v>370</v>
@@ -6867,10 +7229,10 @@
         <v>200</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E50" s="5">
         <v>500</v>
@@ -6891,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L50" s="5">
         <v>380</v>
@@ -6909,10 +7271,10 @@
         <v>200</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E51" s="5">
         <v>500</v>
@@ -6933,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L51" s="5">
         <v>390</v>
@@ -6951,10 +7313,10 @@
         <v>200</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E52" s="5">
         <v>500</v>
@@ -6975,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -6993,10 +7355,10 @@
         <v>200</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E53" s="5">
         <v>500</v>
@@ -7017,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L53" s="5">
         <v>410</v>
@@ -7035,10 +7397,10 @@
         <v>200</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E54" s="5">
         <v>500</v>
@@ -7059,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L54" s="5">
         <v>420</v>
@@ -7077,10 +7439,10 @@
         <v>200</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E55" s="5">
         <v>500</v>
@@ -7101,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L55" s="5">
         <v>430</v>
@@ -7119,10 +7481,10 @@
         <v>200</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E56" s="5">
         <v>500</v>
@@ -7143,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L56" s="5">
         <v>440</v>
@@ -7161,10 +7523,10 @@
         <v>200</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E57" s="5">
         <v>500</v>
@@ -7185,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L57" s="5">
         <v>450</v>
@@ -7203,10 +7565,10 @@
         <v>200</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E58" s="5">
         <v>500</v>
@@ -7227,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L58" s="5">
         <v>460</v>
@@ -7236,45 +7598,45 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="9">
+    <row r="59" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" s="9">
+      <c r="C59" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="5">
         <v>500</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="5">
         <v>150</v>
       </c>
-      <c r="G59" s="9">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-      <c r="J59" s="9">
-        <v>1</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L59" s="9">
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L59" s="5">
         <v>470</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M59" s="5">
         <v>470</v>
       </c>
     </row>
@@ -7287,10 +7649,10 @@
         <v>200</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E60" s="5">
         <v>500</v>
@@ -7311,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="L60" s="5">
         <v>480</v>
@@ -7320,45 +7682,45 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="5">
+    <row r="61" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E61" s="5">
+      <c r="C61" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" s="9">
         <v>500</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="9">
         <v>150</v>
       </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
+        <v>1</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L61" s="9">
         <v>490</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="9">
         <v>490</v>
       </c>
     </row>
@@ -7371,10 +7733,10 @@
         <v>200</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="E62" s="5">
         <v>500</v>
@@ -7395,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="L62" s="5">
         <v>500</v>
@@ -7413,10 +7775,10 @@
         <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E63" s="5">
         <v>500</v>
@@ -7437,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="L63" s="5">
         <v>510</v>
@@ -7455,10 +7817,10 @@
         <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="E64" s="5">
         <v>500</v>
@@ -7479,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="L64" s="5">
         <v>520</v>
@@ -7497,10 +7859,10 @@
         <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E65" s="5">
         <v>500</v>
@@ -7521,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L65" s="5">
         <v>530</v>
@@ -7539,10 +7901,10 @@
         <v>200</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E66" s="5">
         <v>500</v>
@@ -7563,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L66" s="5">
         <v>540</v>
@@ -7581,10 +7943,10 @@
         <v>200</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E67" s="5">
         <v>500</v>
@@ -7605,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="L67" s="5">
         <v>550</v>
@@ -7623,10 +7985,10 @@
         <v>200</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E68" s="5">
         <v>500</v>
@@ -7647,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="L68" s="5">
         <v>560</v>
@@ -7656,44 +8018,212 @@
         <v>560</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69">
+    <row r="69" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" s="5">
+        <v>500</v>
+      </c>
+      <c r="F69" s="5">
+        <v>150</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L69" s="5">
+        <v>570</v>
+      </c>
+      <c r="M69" s="5">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E70" s="5">
+        <v>500</v>
+      </c>
+      <c r="F70" s="5">
+        <v>150</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="L70" s="5">
+        <v>580</v>
+      </c>
+      <c r="M70" s="5">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E71" s="4">
+        <v>500</v>
+      </c>
+      <c r="F71" s="4">
+        <v>150</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L71" s="4">
+        <v>590</v>
+      </c>
+      <c r="M71" s="4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E72" s="4">
+        <v>500</v>
+      </c>
+      <c r="F72" s="4">
+        <v>150</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="L72" s="4">
+        <v>600</v>
+      </c>
+      <c r="M72" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>10000</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>172</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C73" t="s">
         <v>177</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D73" t="s">
         <v>178</v>
       </c>
-      <c r="E69">
+      <c r="E73">
         <v>500</v>
       </c>
-      <c r="F69">
+      <c r="F73">
         <v>150</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L69">
+      <c r="L73">
         <v>9000</v>
       </c>
-      <c r="M69">
+      <c r="M73">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58519D20-E1F3-4452-A1F9-F3B16140E15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348473A3-E641-42FA-A3D0-3C09AC09270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3120" yWindow="1875" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2792,76 +2792,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ポテトの宝石箱のレシピ】
-これは、まさにポテト好きには夢のような..
-お菓子のご紹介です。
-作り方は簡単♪
-①じゃが、さつまいもに&lt;color=#BA9535FF&gt;塩&lt;/color&gt;をかけて、&lt;color=#FF5CA1FF&gt;「フライヤー」&lt;/color&gt;であげてしまいます。
-芋は、別々に揚げましょう。
-②それぞれの&lt;color=#BA9535FF&gt;フライドおいも&lt;/color&gt;に、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をかけて、完成♪
-まさに・・！　
-大地の恵の味・・！
-芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
-    <rPh sb="25" eb="26">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ユメ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>イモ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ダイチ</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>メグミ</t>
-    </rPh>
-    <rPh sb="248" eb="249">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="253" eb="256">
-      <t>イモドウシ</t>
-    </rPh>
-    <rPh sb="262" eb="263">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="266" eb="267">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="274" eb="276">
-      <t>シュギョク</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【チョコばななのレシピ】
 フェスティバルなどで、手軽に食べられて、
 子供に人気なチョコばななの作り方☆
@@ -3207,107 +3137,6 @@
     </rPh>
     <rPh sb="234" eb="236">
       <t>カンセイミメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【さくさく苺ミルフイユのレシピ】
-パイ生地をたくさん重ねてできるミルフイユ..。
-パリパリでとってもおいしいですよ♪
-以下、パイ生地×カスタードクリーム×いちごをのせ、その生地を３つ先に作ります。
-☆カスタードクリームは、事前に準備してくださいね。
-【作り方】
-◆パイ生地
-①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;、さらに&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を入れて混ぜ合わせます。
-②そこに、&lt;color=#BA9535FF&gt;塩&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をさらに入れて、よく練ってベースの生地は完成です。
-③事前に準備した、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をのせ、その上にいちごをのせましょう。
-ミルフイユ生地の完成です。
-◆ミルフイユを焼く
-④&lt;color=#BA9535FF&gt;③の生地&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;別々に３つ&lt;/color&gt;作ります。
-それらを重ねて、焼いたら完成です♪
-仕上げに、さらにクリームやいちごをのせると、立派ないちごミルフイユになります。
-パイ生地の食感がさくさくでパリパリ。
-ぜひお試しください♪</t>
-    <rPh sb="20" eb="22">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="332" eb="334">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="335" eb="337">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="380" eb="381">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="394" eb="395">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="400" eb="402">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="403" eb="405">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="417" eb="418">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="440" eb="442">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="469" eb="471">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="482" eb="483">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="493" eb="494">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="497" eb="498">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="501" eb="503">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="508" eb="510">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="530" eb="532">
-      <t>リッパ</t>
-    </rPh>
-    <rPh sb="571" eb="572">
-      <t>タメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4619,82 +4448,167 @@
       <t>ミリョクテキ</t>
     </rPh>
     <rPh sb="651" eb="652">
+      <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【さくさく苺ミルフイユのレシピ】
+パイ生地をたくさん重ねてできるミルフイユ..。
+パリパリでとってもおいしいですよ♪
+以下、パイ生地×カスタードクリーム×いちごをのせ、その生地を３つ先に作ります。
+☆カスタードクリームは、事前に準備してくださいね。
+【作り方】
+◆パイ生地
+①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;、さらに&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を入れて混ぜ合わせます。
+②そこに、&lt;color=#BA9535FF&gt;塩&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をさらに入れて、よく練ってベースの生地は完成です。
+③ベース生地に、事前に準備した、&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;をのせ、その上にいちごをのせましょう。
+各材料は、重ねるほどおいしくなります。
+ミルフイユの完成です♪
+仕上げに、さらにクリームやいちごをのせると、立派ないちごミルフイユになります。
+パイ生地の食感がさくさくでパリパリ。
+ぜひお試しください♪</t>
+    <rPh sb="20" eb="22">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
       <t>ツク</t>
     </rPh>
-    <rPh sb="678" eb="679">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="681" eb="682">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="713" eb="714">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="717" eb="718">
+    <rPh sb="113" eb="115">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="131" eb="132">
       <t>カタ</t>
     </rPh>
-    <rPh sb="719" eb="720">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="721" eb="722">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="734" eb="736">
+    <rPh sb="335" eb="337">
       <t>キジ</t>
     </rPh>
-    <rPh sb="768" eb="770">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="771" eb="773">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="782" eb="783">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="784" eb="785">
+    <rPh sb="339" eb="341">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="387" eb="388">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="401" eb="402">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="402" eb="404">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="406" eb="407">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="421" eb="422">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="428" eb="430">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="435" eb="437">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="457" eb="459">
+      <t>リッパ</t>
+    </rPh>
+    <rPh sb="498" eb="499">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポテトの宝石箱のレシピ】
+これは、まさにポテト好きには夢のような..
+お菓子のご紹介です。
+作り方は簡単♪
+①じゃが、さつまいもに&lt;color=#BA9535FF&gt;塩&lt;/color&gt;をかけて、&lt;color=#FF5CA1FF&gt;「フライヤー」&lt;/color&gt;であげてしまいます。
+芋は、別々に揚げましょう。
+②それぞれの&lt;color=#BA9535FF&gt;フライドおいも&lt;/color&gt;をミックスし、その上に&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をかけて、完成♪
+まさに・・！　
+大地の恵の味・・！
+芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
+    <rPh sb="25" eb="26">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>イモ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
       <t>ア</t>
     </rPh>
-    <rPh sb="798" eb="800">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="823" eb="824">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="866" eb="867">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="878" eb="880">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="898" eb="901">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="910" eb="911">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="951" eb="952">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="962" eb="963">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="966" eb="967">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="968" eb="969">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="972" eb="974">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="982" eb="984">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="992" eb="993">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="994" eb="995">
-      <t>ア</t>
+    <rPh sb="204" eb="205">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="262" eb="265">
+      <t>イモドウシ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="275" eb="276">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>シュギョク</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>カシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5144,7 +5058,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6959,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L43" s="5">
         <v>310</v>
@@ -7085,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L46" s="5">
         <v>340</v>
@@ -7103,10 +7017,10 @@
         <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E47" s="4">
         <v>500</v>
@@ -7127,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L47" s="4">
         <v>350</v>
@@ -7145,10 +7059,10 @@
         <v>200</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E48" s="4">
         <v>500</v>
@@ -7169,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L48" s="4">
         <v>360</v>
@@ -7211,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L49" s="5">
         <v>370</v>
@@ -7253,7 +7167,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L50" s="5">
         <v>380</v>
@@ -7295,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L51" s="5">
         <v>390</v>
@@ -7337,7 +7251,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -7463,7 +7377,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="L55" s="5">
         <v>430</v>
@@ -7505,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L56" s="5">
         <v>440</v>
@@ -7547,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L57" s="5">
         <v>450</v>
@@ -7589,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L58" s="5">
         <v>460</v>
@@ -7631,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L59" s="5">
         <v>470</v>
@@ -7673,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L60" s="5">
         <v>480</v>
@@ -7817,10 +7731,10 @@
         <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E64" s="5">
         <v>500</v>
@@ -7841,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L64" s="5">
         <v>520</v>
@@ -7883,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L65" s="5">
         <v>530</v>
@@ -7925,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L66" s="5">
         <v>540</v>
@@ -7967,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L67" s="5">
         <v>550</v>
@@ -8069,10 +7983,10 @@
         <v>200</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E70" s="5">
         <v>500</v>
@@ -8093,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L70" s="5">
         <v>580</v>
@@ -8111,10 +8025,10 @@
         <v>200</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E71" s="4">
         <v>500</v>
@@ -8135,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L71" s="4">
         <v>590</v>
@@ -8153,10 +8067,10 @@
         <v>200</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E72" s="4">
         <v>500</v>
@@ -8177,7 +8091,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L72" s="4">
         <v>600</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348473A3-E641-42FA-A3D0-3C09AC09270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCA19F-D3F4-45E0-9B14-BA21965F389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1875" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1875" yWindow="840" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="313">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -4609,6 +4609,212 @@
     </rPh>
     <rPh sb="287" eb="289">
       <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブッシュドノエルのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bushdenoel_cake_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ブッシュドノエルのレシピ】
+難易度・・　中～高　ぐらい
+少し手順が複雑ですが、がんばって作ってみてくださいね！
+チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
+①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
+②クリームの生地・・・
+1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
+2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
+3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
+①に②を足して、焼き上げれば完成！！
+ふんわり濃厚なチーズケーキを召し上がれ♪</t>
+    <rPh sb="16" eb="19">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="290" eb="291">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="345" eb="347">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="365" eb="368">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="377" eb="378">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="429" eb="430">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="433" eb="434">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="435" eb="436">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="439" eb="441">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="449" eb="451">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="459" eb="460">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="461" eb="462">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初心者向けお菓子魔法の本</t>
+    <rPh sb="0" eb="3">
+      <t>ショシンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セカンドベイクの本</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_firstmagic_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_secondbake_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初心者向けお菓子魔法の本</t>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_controltempature_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温度管理の本</t>
+    <rPh sb="0" eb="4">
+      <t>オンドカンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法の本</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_windtwister_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドツイスターの本</t>
+    <rPh sb="10" eb="11">
+      <t>ホン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4706,7 +4912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4739,6 +4945,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5055,10 +5267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5120,7 +5332,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A72" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A77" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -7092,45 +7304,45 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5">
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="C49" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="4">
         <v>500</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>150</v>
       </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <v>1</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="L49" s="5">
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="L49" s="4">
         <v>370</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="4">
         <v>370</v>
       </c>
     </row>
@@ -7143,10 +7355,10 @@
         <v>200</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E50" s="5">
         <v>500</v>
@@ -7167,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L50" s="5">
         <v>380</v>
@@ -7185,10 +7397,10 @@
         <v>200</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E51" s="5">
         <v>500</v>
@@ -7209,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L51" s="5">
         <v>390</v>
@@ -7227,10 +7439,10 @@
         <v>200</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E52" s="5">
         <v>500</v>
@@ -7251,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -7269,10 +7481,10 @@
         <v>200</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E53" s="5">
         <v>500</v>
@@ -7293,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L53" s="5">
         <v>410</v>
@@ -7311,10 +7523,10 @@
         <v>200</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E54" s="5">
         <v>500</v>
@@ -7335,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L54" s="5">
         <v>420</v>
@@ -7353,10 +7565,10 @@
         <v>200</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E55" s="5">
         <v>500</v>
@@ -7377,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="L55" s="5">
         <v>430</v>
@@ -7395,10 +7607,10 @@
         <v>200</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E56" s="5">
         <v>500</v>
@@ -7419,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="L56" s="5">
         <v>440</v>
@@ -7437,10 +7649,10 @@
         <v>200</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="5">
         <v>500</v>
@@ -7461,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L57" s="5">
         <v>450</v>
@@ -7479,10 +7691,10 @@
         <v>200</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E58" s="5">
         <v>500</v>
@@ -7503,7 +7715,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L58" s="5">
         <v>460</v>
@@ -7521,10 +7733,10 @@
         <v>200</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59" s="5">
         <v>500</v>
@@ -7545,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L59" s="5">
         <v>470</v>
@@ -7563,10 +7775,10 @@
         <v>200</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E60" s="5">
         <v>500</v>
@@ -7587,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="L60" s="5">
         <v>480</v>
@@ -7596,87 +7808,87 @@
         <v>480</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="9">
+    <row r="61" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E61" s="9">
+      <c r="C61" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="5">
         <v>500</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="5">
         <v>150</v>
       </c>
-      <c r="G61" s="9">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-      <c r="J61" s="9">
-        <v>1</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L61" s="9">
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="L61" s="5">
         <v>490</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="5">
         <v>490</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="5">
+    <row r="62" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E62" s="5">
+      <c r="C62" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E62" s="9">
         <v>500</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="9">
         <v>150</v>
       </c>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L62" s="5">
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
+        <v>0</v>
+      </c>
+      <c r="J62" s="9">
+        <v>1</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L62" s="9">
         <v>500</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="9">
         <v>500</v>
       </c>
     </row>
@@ -7689,10 +7901,10 @@
         <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E63" s="5">
         <v>500</v>
@@ -7713,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L63" s="5">
         <v>510</v>
@@ -7731,10 +7943,10 @@
         <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="E64" s="5">
         <v>500</v>
@@ -7755,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="L64" s="5">
         <v>520</v>
@@ -7773,10 +7985,10 @@
         <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="E65" s="5">
         <v>500</v>
@@ -7797,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="L65" s="5">
         <v>530</v>
@@ -7815,10 +8027,10 @@
         <v>200</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E66" s="5">
         <v>500</v>
@@ -7839,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L66" s="5">
         <v>540</v>
@@ -7857,10 +8069,10 @@
         <v>200</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E67" s="5">
         <v>500</v>
@@ -7881,7 +8093,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L67" s="5">
         <v>550</v>
@@ -7899,10 +8111,10 @@
         <v>200</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E68" s="5">
         <v>500</v>
@@ -7923,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L68" s="5">
         <v>560</v>
@@ -7941,10 +8153,10 @@
         <v>200</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E69" s="5">
         <v>500</v>
@@ -7965,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L69" s="5">
         <v>570</v>
@@ -7983,10 +8195,10 @@
         <v>200</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="E70" s="5">
         <v>500</v>
@@ -8007,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="L70" s="5">
         <v>580</v>
@@ -8016,45 +8228,45 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="4">
+    <row r="71" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="5">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" s="4">
+      <c r="C71" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="5">
         <v>500</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <v>150</v>
       </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4">
-        <v>0</v>
-      </c>
-      <c r="J71" s="4">
-        <v>1</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="L71" s="4">
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>1</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="L71" s="5">
         <v>590</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="5">
         <v>590</v>
       </c>
     </row>
@@ -8067,10 +8279,10 @@
         <v>200</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E72" s="4">
         <v>500</v>
@@ -8091,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L72" s="4">
         <v>600</v>
@@ -8100,44 +8312,254 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73">
+    <row r="73" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E73" s="4">
+        <v>500</v>
+      </c>
+      <c r="F73" s="4">
+        <v>150</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="L73" s="4">
+        <v>610</v>
+      </c>
+      <c r="M73" s="4">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="12">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" s="12">
+        <v>500</v>
+      </c>
+      <c r="F74" s="12">
+        <v>150</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="L74" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M74" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="12">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" s="12">
+        <v>500</v>
+      </c>
+      <c r="F75" s="12">
+        <v>150</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="L75" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M75" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="12">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E76" s="12">
+        <v>500</v>
+      </c>
+      <c r="F76" s="12">
+        <v>150</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="L76" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M76" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" s="12">
+        <v>500</v>
+      </c>
+      <c r="F77" s="12">
+        <v>150</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="L77" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M77" s="12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78">
         <v>10000</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B78" t="s">
         <v>172</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C78" t="s">
         <v>177</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D78" t="s">
         <v>178</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <v>500</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <v>150</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L73">
+      <c r="L78">
         <v>9000</v>
       </c>
-      <c r="M73">
+      <c r="M78">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCA19F-D3F4-45E0-9B14-BA21965F389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE781C8F-2B3B-49FE-95E9-EBE180849345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="840" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2670" yWindow="1155" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="317">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -4816,6 +4816,34 @@
     <rPh sb="10" eb="11">
       <t>ホン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリージングの本</t>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_freezespell_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美の研究の本</t>
+    <rPh sb="0" eb="1">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_beautifulpower_book</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4912,7 +4940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4945,12 +4973,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5267,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5332,7 +5354,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A77" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A79" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -8354,186 +8376,187 @@
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="12">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" t="s">
         <v>200</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" t="s">
         <v>305</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" t="s">
         <v>307</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74">
         <v>500</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74">
         <v>150</v>
       </c>
-      <c r="G74" s="12">
-        <v>0</v>
-      </c>
-      <c r="H74" s="12">
-        <v>0</v>
-      </c>
-      <c r="I74" s="12">
-        <v>0</v>
-      </c>
-      <c r="J74" s="12">
-        <v>0</v>
-      </c>
-      <c r="K74" s="13" t="s">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74">
         <v>5000</v>
       </c>
-      <c r="M74" s="12">
+      <c r="M74">
         <v>5000</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="12">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" t="s">
         <v>306</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" t="s">
         <v>304</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75">
         <v>500</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75">
         <v>150</v>
       </c>
-      <c r="G75" s="12">
-        <v>0</v>
-      </c>
-      <c r="H75" s="12">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12">
-        <v>0</v>
-      </c>
-      <c r="J75" s="12">
-        <v>0</v>
-      </c>
-      <c r="K75" s="13" t="s">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75">
         <v>5000</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75">
         <v>5000</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="12">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" t="s">
         <v>308</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" t="s">
         <v>309</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76">
         <v>500</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76">
         <v>150</v>
       </c>
-      <c r="G76" s="12">
-        <v>0</v>
-      </c>
-      <c r="H76" s="12">
-        <v>0</v>
-      </c>
-      <c r="I76" s="12">
-        <v>0</v>
-      </c>
-      <c r="J76" s="12">
-        <v>0</v>
-      </c>
-      <c r="K76" s="13" t="s">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76">
         <v>5000</v>
       </c>
-      <c r="M76" s="12">
+      <c r="M76">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="12">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" t="s">
         <v>200</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" t="s">
         <v>311</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77">
         <v>500</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77">
         <v>150</v>
       </c>
-      <c r="G77" s="12">
-        <v>0</v>
-      </c>
-      <c r="H77" s="12">
-        <v>0</v>
-      </c>
-      <c r="I77" s="12">
-        <v>0</v>
-      </c>
-      <c r="J77" s="12">
-        <v>0</v>
-      </c>
-      <c r="K77" s="13" t="s">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77">
         <v>5000</v>
       </c>
-      <c r="M77" s="12">
+      <c r="M77">
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>313</v>
       </c>
       <c r="E78">
         <v>500</v>
@@ -8551,15 +8574,98 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L78">
+        <v>5000</v>
+      </c>
+      <c r="M78">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" t="s">
+        <v>316</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79">
+        <v>500</v>
+      </c>
+      <c r="F79">
+        <v>150</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L79">
+        <v>5000</v>
+      </c>
+      <c r="M79">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>10000</v>
+      </c>
+      <c r="B80" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" t="s">
+        <v>177</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80">
+        <v>500</v>
+      </c>
+      <c r="F80">
+        <v>150</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L78">
+      <c r="L80">
         <v>9000</v>
       </c>
-      <c r="M78">
+      <c r="M80">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE781C8F-2B3B-49FE-95E9-EBE180849345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CE2AC-4D41-4D3F-AB46-14522263F971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1155" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="339">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -2313,26 +2313,6 @@
   </si>
   <si>
     <t>biscuit_recipi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄色は、まだcompoDBに入れてない
-オレンジは、compoDBは入れた。Utageの感想は入れていない。</t>
-    <rPh sb="0" eb="2">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4311,26 +4291,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【パチパチソーダのレシピ】
-①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;にいれて、とろとろと煮詰めたら出来上がり。</t>
-    <rPh sb="33" eb="35">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="88" eb="91">
-      <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>patipati_soda_recipi</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4359,96 +4319,6 @@
     </rPh>
     <rPh sb="86" eb="89">
       <t>デキア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ショートケーキのレシピ】
-定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
-ぜひ自慢のショートケーキを作ってみてくださいね。
-難易度・・　中～高　ぐらい
-事前準備：
-・生クリームといちご
-・スポンジケーキ＜スライス＞
-事前に、スポンジケーキは作れるようにしておきましょう♪
-【作り方】
-①２つのケーキ土台を作りましょう♪
-・一段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-・二段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-※まとめて作るのではなく、1段ずつ別々に作りましょう。
-クリームはホイップでなく、作りたてクリームをそのまま塗ります。
-土台が出来上がったら、&lt;color=#FF5CA1FF&gt;２つをのせる＋スポンジケーキ＜スライス＞&lt;/color&gt;をのせます。
-②できたショートケーキのベースに、作りたてクリームをぬり、いちごをのせて完成です♪
-さらに、仕上げで、
-・いちごをたっぷりのせる
-・板チョコレートをのせる
-・飾りのミントをのせる
-など
-工夫とアレンジで、より魅力的なショートケーキを作ってみてくださいね～♪</t>
-    <rPh sb="15" eb="17">
-      <t>テイバン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>アマズ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジマン</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="360" eb="361">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="413" eb="414">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="422" eb="423">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="425" eb="427">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="428" eb="429">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="550" eb="551">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="569" eb="571">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="580" eb="582">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="600" eb="601">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="613" eb="614">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="628" eb="630">
-      <t>クフウ</t>
-    </rPh>
-    <rPh sb="639" eb="642">
-      <t>ミリョクテキ</t>
-    </rPh>
-    <rPh sb="651" eb="652">
-      <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4844,6 +4714,574 @@
   </si>
   <si>
     <t>mg_beautifulpower_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eden_recipi_01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【エデンのレシピのかけら】
+エデンの作り方について書かれたレシピのようだ。
+古い文字でかかれており、読めない・・。</t>
+    <rPh sb="19" eb="20">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eden_recipi_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eden_recipi_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eden_recipi_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eden_recipi_05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>###</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ショートケーキのレシピ】
+定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
+ぜひ自慢のショートケーキを作ってみてくださいね。
+難易度・・　中～高　ぐらい
+事前準備：
+・生クリームといちご
+・スポンジケーキ＜スライス＞
+事前に、スポンジケーキは作れるようにしておきましょう♪
+【作り方】
+①２つのケーキ土台を作りましょう♪
+・一段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・二段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+※まとめて作るのではなく、1段ずつ別々に作りましょう。
+クリームはホイップでなく、作りたてクリームをそのまま塗ります。
+土台が出来上がったら、&lt;color=#FF5CA1FF&gt;２つをのせる&lt;/color&gt;。
+②できたショートケーキのベースに、&lt;color=#FF5CA1FF&gt;作りたてクリームの白&lt;/color&gt;をぬり、&lt;color=#FF5CA1FF&gt;いちご&lt;/color&gt;をのせて完成です♪
+さらに、仕上げで、
+・いちごをたっぷりのせる
+・板チョコレートをのせる
+・飾りのミントをのせる
+など
+工夫とアレンジで、より魅力的なショートケーキを作ってみてくださいね～♪</t>
+    <rPh sb="15" eb="17">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アマズ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジマン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="360" eb="361">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="422" eb="423">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="425" eb="427">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="428" eb="429">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="548" eb="549">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="557" eb="558">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="602" eb="604">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="613" eb="615">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="633" eb="634">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="646" eb="647">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="661" eb="663">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="672" eb="675">
+      <t>ミリョクテキ</t>
+    </rPh>
+    <rPh sb="684" eb="685">
+      <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色は、まだcompoDBに入れてない
+オレンジは、compoDBは入れた。Utageの感想・アイコン画像は入れていない。</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パチパチソーダのレシピ】
+口の中でパチパチとはじける、不思議なキャンディです。
+事前に、炭酸水を準備しましょう。
+①&lt;color=#BA9535FF&gt;炭酸水&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れ、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;を入れます。
+②できあがった液体を、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;や&lt;color=#FF5CA1FF&gt;魔法&lt;/color&gt;で冷やせば出来上がり！</t>
+    <rPh sb="15" eb="16">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>タンサンスイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>タンサン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ヒョウシツ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="233" eb="236">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sachertorte_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>opera_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザッハトルテのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オペラのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ザッハトルテのレシピ】
+難易度・・　中～高　ぐらい
+少し手順が複雑ですが、がんばって作ってみてくださいね！
+チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
+①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
+②クリームの生地・・・
+1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
+2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
+3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
+①に②を足して、焼き上げれば完成！！
+ふんわり濃厚なチーズケーキを召し上がれ♪</t>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="331" eb="332">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="343" eb="345">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="363" eb="366">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="427" eb="428">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="431" eb="432">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="433" eb="434">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="437" eb="439">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="447" eb="449">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="457" eb="458">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="459" eb="460">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【オペラのレシピ】
+難易度・・　中～高　ぐらい
+少し手順が複雑ですが、がんばって作ってみてくださいね！
+チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
+①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
+②クリームの生地・・・
+1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
+2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
+3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
+①に②を足して、焼き上げれば完成！！
+ふんわり濃厚なチーズケーキを召し上がれ♪</t>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="181" eb="182">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="246" eb="247">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="328" eb="329">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="360" eb="363">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="372" eb="373">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="424" eb="425">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="428" eb="429">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="430" eb="431">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="434" eb="436">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="444" eb="446">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="456" eb="457">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラビアンローズのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lavien_chocolate_recipi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ラビアンローズのレシピ】
+独特な形状の生地おかし「カヌレ」の作り方です。</t>
+    <rPh sb="15" eb="17">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※注意 3000番台～は上にあるので入れないよう注意</t>
+    <rPh sb="1" eb="3">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽のレシピ</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月のレシピ</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星のレシピ</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エデンのレシピ＜絵柄＞</t>
+    <rPh sb="8" eb="10">
+      <t>エガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エデンのレシピ＜作り方＞</t>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5289,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5354,7 +5792,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A79" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A88" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -5598,10 +6036,10 @@
         <v>20</v>
       </c>
       <c r="L7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="M7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5640,10 +6078,10 @@
         <v>90</v>
       </c>
       <c r="L8">
-        <v>1020</v>
+        <v>3020</v>
       </c>
       <c r="M8">
-        <v>1020</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5682,10 +6120,10 @@
         <v>162</v>
       </c>
       <c r="L9">
-        <v>1050</v>
+        <v>3050</v>
       </c>
       <c r="M9">
-        <v>1050</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5724,10 +6162,10 @@
         <v>201</v>
       </c>
       <c r="L10">
-        <v>1070</v>
+        <v>3070</v>
       </c>
       <c r="M10">
-        <v>1070</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5766,10 +6204,10 @@
         <v>184</v>
       </c>
       <c r="L11">
-        <v>1080</v>
+        <v>3080</v>
       </c>
       <c r="M11">
-        <v>1080</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5808,10 +6246,10 @@
         <v>188</v>
       </c>
       <c r="L12">
-        <v>1090</v>
+        <v>3090</v>
       </c>
       <c r="M12">
-        <v>1090</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5850,10 +6288,10 @@
         <v>191</v>
       </c>
       <c r="L13">
-        <v>1100</v>
+        <v>3100</v>
       </c>
       <c r="M13">
-        <v>1100</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5892,10 +6330,10 @@
         <v>104</v>
       </c>
       <c r="L14">
-        <v>1010</v>
+        <v>3010</v>
       </c>
       <c r="M14">
-        <v>1010</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5934,10 +6372,10 @@
         <v>69</v>
       </c>
       <c r="L15">
-        <v>1030</v>
+        <v>3030</v>
       </c>
       <c r="M15">
-        <v>1030</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5976,10 +6414,10 @@
         <v>180</v>
       </c>
       <c r="L16">
-        <v>1040</v>
+        <v>3040</v>
       </c>
       <c r="M16">
-        <v>1040</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6018,10 +6456,10 @@
         <v>98</v>
       </c>
       <c r="L17">
-        <v>1060</v>
+        <v>3060</v>
       </c>
       <c r="M17">
-        <v>1060</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6183,7 +6621,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -6351,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -7041,10 +7479,10 @@
         <v>200</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E42" s="7">
         <v>500</v>
@@ -7065,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -7107,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L43" s="5">
         <v>310</v>
@@ -7233,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L46" s="5">
         <v>340</v>
@@ -7251,10 +7689,10 @@
         <v>200</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E47" s="4">
         <v>500</v>
@@ -7275,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="L47" s="4">
         <v>350</v>
@@ -7293,10 +7731,10 @@
         <v>200</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" s="4">
         <v>500</v>
@@ -7317,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L48" s="4">
         <v>360</v>
@@ -7335,10 +7773,10 @@
         <v>200</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="E49" s="4">
         <v>500</v>
@@ -7359,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="L49" s="4">
         <v>370</v>
@@ -7368,87 +7806,87 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5">
+    <row r="50" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="C50" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" s="4">
         <v>500</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>150</v>
       </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="L50" s="5">
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" s="4">
         <v>380</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="4">
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5">
+    <row r="51" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="C51" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E51" s="4">
         <v>500</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>150</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5">
-        <v>1</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L51" s="4">
         <v>390</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="4">
         <v>390</v>
       </c>
     </row>
@@ -7461,10 +7899,10 @@
         <v>200</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E52" s="5">
         <v>500</v>
@@ -7485,7 +7923,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -7503,10 +7941,10 @@
         <v>200</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E53" s="5">
         <v>500</v>
@@ -7527,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L53" s="5">
         <v>410</v>
@@ -7545,10 +7983,10 @@
         <v>200</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E54" s="5">
         <v>500</v>
@@ -7569,13 +8007,13 @@
         <v>1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L54" s="5">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="M54" s="5">
-        <v>420</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7587,10 +8025,10 @@
         <v>200</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E55" s="5">
         <v>500</v>
@@ -7611,13 +8049,13 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L55" s="5">
-        <v>430</v>
+        <v>510</v>
       </c>
       <c r="M55" s="5">
-        <v>430</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7629,10 +8067,10 @@
         <v>200</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E56" s="5">
         <v>500</v>
@@ -7653,13 +8091,13 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="L56" s="5">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="M56" s="5">
-        <v>440</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7671,10 +8109,10 @@
         <v>200</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E57" s="5">
         <v>500</v>
@@ -7695,13 +8133,13 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L57" s="5">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="M57" s="5">
-        <v>450</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7713,10 +8151,10 @@
         <v>200</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E58" s="5">
         <v>500</v>
@@ -7737,13 +8175,13 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="L58" s="5">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="M58" s="5">
-        <v>460</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7755,10 +8193,10 @@
         <v>200</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E59" s="5">
         <v>500</v>
@@ -7779,13 +8217,13 @@
         <v>1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L59" s="5">
-        <v>470</v>
+        <v>550</v>
       </c>
       <c r="M59" s="5">
-        <v>470</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7797,10 +8235,10 @@
         <v>200</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E60" s="5">
         <v>500</v>
@@ -7821,13 +8259,13 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L60" s="5">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="M60" s="5">
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7839,10 +8277,10 @@
         <v>200</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E61" s="5">
         <v>500</v>
@@ -7863,55 +8301,55 @@
         <v>1</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="L61" s="5">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="M61" s="5">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="9">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" s="9">
+      <c r="C62" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E62" s="5">
         <v>500</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="5">
         <v>150</v>
       </c>
-      <c r="G62" s="9">
-        <v>0</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-      <c r="J62" s="9">
-        <v>1</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="L62" s="9">
-        <v>500</v>
-      </c>
-      <c r="M62" s="9">
-        <v>500</v>
+      <c r="G62" s="5">
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="L62" s="5">
+        <v>580</v>
+      </c>
+      <c r="M62" s="5">
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7923,10 +8361,10 @@
         <v>200</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E63" s="5">
         <v>500</v>
@@ -7947,55 +8385,55 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="L63" s="5">
-        <v>510</v>
+        <v>590</v>
       </c>
       <c r="M63" s="5">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="5">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="5">
+      <c r="C64" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" s="9">
         <v>500</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="9">
         <v>150</v>
       </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0</v>
-      </c>
-      <c r="I64" s="5">
-        <v>0</v>
-      </c>
-      <c r="J64" s="5">
-        <v>1</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L64" s="5">
-        <v>520</v>
-      </c>
-      <c r="M64" s="5">
-        <v>520</v>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0</v>
+      </c>
+      <c r="J64" s="9">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="L64" s="9">
+        <v>600</v>
+      </c>
+      <c r="M64" s="9">
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8007,10 +8445,10 @@
         <v>200</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="E65" s="5">
         <v>500</v>
@@ -8031,55 +8469,55 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L65" s="5">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="M65" s="5">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="5">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E66" s="5">
+      <c r="C66" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E66" s="9">
         <v>500</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="9">
         <v>150</v>
       </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>0</v>
-      </c>
-      <c r="I66" s="5">
-        <v>0</v>
-      </c>
-      <c r="J66" s="5">
-        <v>1</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="L66" s="5">
-        <v>540</v>
-      </c>
-      <c r="M66" s="5">
-        <v>540</v>
+      <c r="G66" s="9">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="L66" s="9">
+        <v>620</v>
+      </c>
+      <c r="M66" s="9">
+        <v>620</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8091,10 +8529,10 @@
         <v>200</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E67" s="5">
         <v>500</v>
@@ -8115,13 +8553,13 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="L67" s="5">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="M67" s="5">
-        <v>550</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8133,10 +8571,10 @@
         <v>200</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="E68" s="5">
         <v>500</v>
@@ -8157,13 +8595,13 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L68" s="5">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="M68" s="5">
-        <v>560</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8175,10 +8613,10 @@
         <v>200</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E69" s="5">
         <v>500</v>
@@ -8199,13 +8637,13 @@
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L69" s="5">
-        <v>570</v>
+        <v>720</v>
       </c>
       <c r="M69" s="5">
-        <v>570</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8217,10 +8655,10 @@
         <v>200</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E70" s="5">
         <v>500</v>
@@ -8241,13 +8679,13 @@
         <v>1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="L70" s="5">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="M70" s="5">
-        <v>580</v>
+        <v>730</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8259,10 +8697,10 @@
         <v>200</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E71" s="5">
         <v>500</v>
@@ -8283,223 +8721,223 @@
         <v>1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L71" s="5">
-        <v>590</v>
+        <v>740</v>
       </c>
       <c r="M71" s="5">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="4">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="5">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="C72" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="5">
         <v>500</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="5">
         <v>150</v>
       </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4">
-        <v>0</v>
-      </c>
-      <c r="J72" s="4">
-        <v>1</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="L72" s="4">
-        <v>600</v>
-      </c>
-      <c r="M72" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="4">
+      <c r="G72" s="5">
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="L72" s="5">
+        <v>750</v>
+      </c>
+      <c r="M72" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="5">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E73" s="4">
+      <c r="C73" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="5">
         <v>500</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="5">
         <v>150</v>
       </c>
-      <c r="G73" s="4">
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>1</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="L73" s="4">
-        <v>610</v>
-      </c>
-      <c r="M73" s="4">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74">
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L73" s="5">
+        <v>760</v>
+      </c>
+      <c r="M73" s="5">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="5">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C74" t="s">
-        <v>305</v>
-      </c>
-      <c r="D74" t="s">
-        <v>307</v>
-      </c>
-      <c r="E74">
+      <c r="C74" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="5">
         <v>500</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="5">
         <v>150</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="L74">
-        <v>5000</v>
-      </c>
-      <c r="M74">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75">
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="L74" s="5">
+        <v>770</v>
+      </c>
+      <c r="M74" s="5">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C75" t="s">
-        <v>306</v>
-      </c>
-      <c r="D75" t="s">
-        <v>304</v>
-      </c>
-      <c r="E75">
+      <c r="C75" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="4">
         <v>500</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <v>150</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="L75">
-        <v>5000</v>
-      </c>
-      <c r="M75">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76">
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="L75" s="4">
+        <v>780</v>
+      </c>
+      <c r="M75" s="4">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C76" t="s">
-        <v>308</v>
-      </c>
-      <c r="D76" t="s">
-        <v>309</v>
-      </c>
-      <c r="E76">
+      <c r="C76" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E76" s="4">
         <v>500</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="4">
         <v>150</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="L76">
-        <v>5000</v>
-      </c>
-      <c r="M76">
-        <v>5000</v>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <v>1</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="L76" s="4">
+        <v>790</v>
+      </c>
+      <c r="M76" s="4">
+        <v>790</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8511,10 +8949,10 @@
         <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -8535,137 +8973,515 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="L77">
-        <v>5000</v>
+        <v>9999</v>
       </c>
       <c r="M77">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="5">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D78" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E78" s="5">
         <v>500</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="5">
         <v>150</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="L78">
-        <v>5000</v>
-      </c>
-      <c r="M78">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79">
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L78" s="5">
+        <v>2000</v>
+      </c>
+      <c r="M78" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="5">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E79" s="5">
+        <v>500</v>
+      </c>
+      <c r="F79" s="5">
+        <v>150</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0</v>
+      </c>
+      <c r="J79" s="5">
+        <v>1</v>
+      </c>
+      <c r="K79" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E79">
+      <c r="L79" s="5">
+        <v>2100</v>
+      </c>
+      <c r="M79" s="5">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="5">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E80" s="5">
         <v>500</v>
       </c>
-      <c r="F79">
+      <c r="F80" s="5">
         <v>150</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="G80" s="5">
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <v>1</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L80" s="5">
+        <v>2200</v>
+      </c>
+      <c r="M80" s="5">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="5">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E81" s="5">
+        <v>500</v>
+      </c>
+      <c r="F81" s="5">
+        <v>150</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <v>1</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L81" s="5">
+        <v>2300</v>
+      </c>
+      <c r="M81" s="5">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E82" s="5">
+        <v>500</v>
+      </c>
+      <c r="F82" s="5">
+        <v>150</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="L82" s="5">
+        <v>2400</v>
+      </c>
+      <c r="M82" s="5">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>200</v>
+      </c>
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" t="s">
+        <v>304</v>
+      </c>
+      <c r="E83">
+        <v>500</v>
+      </c>
+      <c r="F83">
+        <v>150</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L83">
+        <v>5000</v>
+      </c>
+      <c r="M83">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+      <c r="F84">
+        <v>150</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L84">
+        <v>5000</v>
+      </c>
+      <c r="M84">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85">
+        <v>500</v>
+      </c>
+      <c r="F85">
+        <v>150</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L85">
+        <v>5000</v>
+      </c>
+      <c r="M85">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" t="s">
+        <v>308</v>
+      </c>
+      <c r="D86" t="s">
+        <v>309</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+      <c r="F86">
+        <v>150</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L86">
+        <v>5000</v>
+      </c>
+      <c r="M86">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" t="s">
         <v>310</v>
       </c>
-      <c r="L79">
+      <c r="E87">
+        <v>500</v>
+      </c>
+      <c r="F87">
+        <v>150</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L87">
         <v>5000</v>
       </c>
-      <c r="M79">
+      <c r="M87">
         <v>5000</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80">
+    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88">
+        <v>500</v>
+      </c>
+      <c r="F88">
+        <v>150</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L88">
+        <v>5000</v>
+      </c>
+      <c r="M88">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89">
         <v>10000</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B89" t="s">
         <v>172</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C89" t="s">
         <v>177</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D89" t="s">
         <v>178</v>
       </c>
-      <c r="E80">
+      <c r="E89">
         <v>500</v>
       </c>
-      <c r="F80">
+      <c r="F89">
         <v>150</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L80">
+      <c r="L89">
         <v>9000</v>
       </c>
-      <c r="M80">
+      <c r="M89">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565CE2AC-4D41-4D3F-AB46-14522263F971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9331A5-D7FE-49F0-9B9C-CE422B2EFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -5275,12 +5275,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エデンのレシピ＜作り方＞</t>
-    <rPh sb="8" eb="9">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カタ</t>
+    <t>エデンのレシピ＜手順＞</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5729,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9078,7 +9075,7 @@
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -9120,7 +9117,7 @@
         <v>318</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9331A5-D7FE-49F0-9B9C-CE422B2EFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCFC0F-CA82-49CE-8F61-DC8B501BACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2820" yWindow="1005" windowWidth="25575" windowHeight="14340" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="343">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -5275,10 +5275,32 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エデンのレシピ＜手順＞</t>
-    <rPh sb="8" eb="10">
-      <t>テジュン</t>
-    </rPh>
+    <t>mg_aromapotion_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アロマポーションの本</t>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_TrueofMyheart_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真実のハートの本</t>
+    <rPh sb="0" eb="2">
+      <t>シンジツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハートのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5724,10 +5746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5789,7 +5811,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A88" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A90" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -9159,7 +9181,7 @@
         <v>319</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -9441,18 +9463,19 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -9470,15 +9493,98 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L89">
+        <v>5000</v>
+      </c>
+      <c r="M89">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>340</v>
+      </c>
+      <c r="D90" t="s">
+        <v>341</v>
+      </c>
+      <c r="E90">
+        <v>500</v>
+      </c>
+      <c r="F90">
+        <v>150</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L90">
+        <v>5000</v>
+      </c>
+      <c r="M90">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>10000</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91">
+        <v>500</v>
+      </c>
+      <c r="F91">
+        <v>150</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L89">
+      <c r="L91">
         <v>9000</v>
       </c>
-      <c r="M89">
+      <c r="M91">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CCFC0F-CA82-49CE-8F61-DC8B501BACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59C590-3E77-42FA-B5B2-07FBDB5D911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1005" windowWidth="25575" windowHeight="14340" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1815" yWindow="930" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="347">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -5301,6 +5301,28 @@
   </si>
   <si>
     <t>ハートのレシピ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_caramelized_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラメリーゼの本</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_rainbowrain_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レインボーレインの本</t>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5746,10 +5768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5811,7 +5833,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A90" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A92" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -9346,10 +9368,10 @@
         <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D86" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E86">
         <v>500</v>
@@ -9388,10 +9410,10 @@
         <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="D87" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -9430,10 +9452,10 @@
         <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -9472,10 +9494,10 @@
         <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="D89" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -9514,10 +9536,10 @@
         <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="D90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="E90">
         <v>500</v>
@@ -9547,18 +9569,19 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -9576,15 +9599,98 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L91">
+        <v>5000</v>
+      </c>
+      <c r="M91">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" t="s">
+        <v>341</v>
+      </c>
+      <c r="E92">
+        <v>500</v>
+      </c>
+      <c r="F92">
+        <v>150</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L92">
+        <v>5000</v>
+      </c>
+      <c r="M92">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>10000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93">
+        <v>500</v>
+      </c>
+      <c r="F93">
+        <v>150</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L91">
+      <c r="L93">
         <v>9000</v>
       </c>
-      <c r="M91">
+      <c r="M93">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D59C590-3E77-42FA-B5B2-07FBDB5D911B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB33F7-AF60-40D1-B8B0-808EDAB5F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="930" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2760" yWindow="1275" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -4953,128 +4953,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ザッハトルテのレシピ】
-難易度・・　中～高　ぐらい
-少し手順が複雑ですが、がんばって作ってみてくださいね！
-チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
-①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
-②クリームの生地・・・
-1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
-2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
-3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
-①に②を足して、焼き上げれば完成！！
-ふんわり濃厚なチーズケーキを召し上がれ♪</t>
-    <rPh sb="14" eb="17">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="249" eb="250">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="288" eb="289">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="331" eb="332">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="343" eb="345">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="363" eb="366">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="375" eb="376">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="416" eb="417">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="427" eb="428">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="431" eb="432">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="433" eb="434">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="437" eb="439">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="447" eb="449">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="457" eb="458">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="459" eb="460">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【オペラのレシピ】
 難易度・・　中～高　ぐらい
 少し手順が複雑ですが、がんばって作ってみてくださいね！
@@ -5322,6 +5200,307 @@
     <t>レインボーレインの本</t>
     <rPh sb="9" eb="10">
       <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ザッハトルテのレシピ】
+難易度・・　高
+つやつやの滑らかで、伝統的なチョコレートケーキです。
+以下、３つの生地を作り、あとで合わせて仕上げていきます。
+A. ザッハトルテ生地
+B. コーティングチョコ生地
+C. あんずジャム
+A.
+①チョコの生地・・・溶けた液体のチョコレートに、卵黄を混ぜ、さらにバターと混ぜ合わせます。
+②事前にメレンゲを作っておきます。・・・
+&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;と砂糖を角が立つまで、混ぜ合わせます。
+③先ほど作った、チョコ生地とメレンゲを混ぜ合わせ、そこに薄力粉を加えて、しっかり混ぜます。
+焼き上げれば、ザッハトルテ生地は完成です！！
+※170度で約40~50分。
+あとで、スライスして、他のソースをつけていきます。今は置いておきましょう。
+B. コーティング用チョコ生地
+①水と砂糖をお鍋にかけ、水あめを先に作ります。
+②水あめに、液体チョコレートを混ぜ、お鍋にかけて、とろとろに煮詰めましょう。
+これで、とろりとしたチョコのコーティング生地の完成です。
+C. あんずジャムの作り方
+①あんずと砂糖を、お鍋に入れて、とろとろと煮詰めていきます。
+とろりしたら、完成です。
+【完成まで】
+①Aで作った生地をスライスします。
+②スライスした生地の上面に、あんずジャムを塗りましょう。
+③②の生地に、スライスしたザッハトルテ生地を上からかぶせます。
+④できあがったケーキベースに、あんずジャムを、全体的に塗ってコーティングします。
+※2時間ほど乾燥させます。
+⑤コーティングした生地に、上からBのチョコレート生地をかけて、コーティングします。
+きれいに全体がチョコでコーティングされたら、完成です♪
+なめらかなチョコの艶や光沢、そしてあんずの芳醇な香り.. それらの調和をお楽しみ頂ければ幸いです。</t>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナメ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>ツノ</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="266" eb="269">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="285" eb="286">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="287" eb="288">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="298" eb="300">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="312" eb="313">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="320" eb="321">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="373" eb="374">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="381" eb="382">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="383" eb="385">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="387" eb="388">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="392" eb="393">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="396" eb="397">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="398" eb="399">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="406" eb="407">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="411" eb="413">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="420" eb="421">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="424" eb="425">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="435" eb="437">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="465" eb="467">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="468" eb="470">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="486" eb="487">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="488" eb="489">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="495" eb="497">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="500" eb="501">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="502" eb="503">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="511" eb="513">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="528" eb="530">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="536" eb="538">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="546" eb="547">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="549" eb="551">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="569" eb="571">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="572" eb="574">
+      <t>ジョウメン</t>
+    </rPh>
+    <rPh sb="583" eb="584">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="595" eb="597">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="611" eb="613">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="614" eb="615">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="648" eb="651">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="652" eb="653">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="668" eb="670">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="672" eb="674">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="690" eb="692">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="694" eb="695">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="705" eb="707">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="728" eb="730">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="746" eb="748">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="762" eb="763">
+      <t>ツヤ</t>
+    </rPh>
+    <rPh sb="764" eb="766">
+      <t>コウタク</t>
+    </rPh>
+    <rPh sb="774" eb="776">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="777" eb="778">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="786" eb="788">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="790" eb="791">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="793" eb="794">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="797" eb="798">
+      <t>サイワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5770,8 +5949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7838,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="L49" s="4">
         <v>370</v>
@@ -7880,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L50" s="4">
         <v>380</v>
@@ -8528,10 +8707,10 @@
         <v>200</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E66" s="9">
         <v>500</v>
@@ -8552,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L66" s="9">
         <v>620</v>
@@ -8897,45 +9076,45 @@
         <v>770</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="4">
+    <row r="75" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="5">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="5">
         <v>500</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <v>150</v>
       </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="H75" s="4">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <v>1</v>
-      </c>
-      <c r="K75" s="11" t="s">
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <v>1</v>
+      </c>
+      <c r="K75" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L75" s="5">
         <v>780</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="5">
         <v>780</v>
       </c>
     </row>
@@ -9014,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -9035,7 +9214,7 @@
         <v>314</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E78" s="5">
         <v>500</v>
@@ -9077,7 +9256,7 @@
         <v>316</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E79" s="5">
         <v>500</v>
@@ -9119,7 +9298,7 @@
         <v>317</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -9161,7 +9340,7 @@
         <v>318</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>
@@ -9203,7 +9382,7 @@
         <v>319</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -9410,10 +9589,10 @@
         <v>200</v>
       </c>
       <c r="C87" t="s">
+        <v>342</v>
+      </c>
+      <c r="D87" t="s">
         <v>343</v>
-      </c>
-      <c r="D87" t="s">
-        <v>344</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -9452,10 +9631,10 @@
         <v>200</v>
       </c>
       <c r="C88" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" t="s">
         <v>345</v>
-      </c>
-      <c r="D88" t="s">
-        <v>346</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -9578,10 +9757,10 @@
         <v>200</v>
       </c>
       <c r="C91" t="s">
+        <v>337</v>
+      </c>
+      <c r="D91" t="s">
         <v>338</v>
-      </c>
-      <c r="D91" t="s">
-        <v>339</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -9620,10 +9799,10 @@
         <v>200</v>
       </c>
       <c r="C92" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" t="s">
         <v>340</v>
-      </c>
-      <c r="D92" t="s">
-        <v>341</v>
       </c>
       <c r="E92">
         <v>500</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB33F7-AF60-40D1-B8B0-808EDAB5F48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5EDB9-550B-4CC5-ADFF-D9BC4AB55F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1275" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1815" yWindow="930" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -4165,128 +4165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【モンブランのレシピ】
-難易度・・　中～高　ぐらい
-少し手順が複雑ですが、がんばって作ってみてくださいね！
-チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
-①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
-②クリームの生地・・・
-1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
-2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
-3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
-①に②を足して、焼き上げれば完成！！
-ふんわり濃厚なチーズケーキを召し上がれ♪</t>
-    <rPh sb="13" eb="16">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="232" eb="234">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="248" eb="249">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="262" eb="264">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="287" eb="288">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="330" eb="331">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="342" eb="344">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="362" eb="365">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="374" eb="375">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="415" eb="416">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="426" eb="427">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="430" eb="431">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="436" eb="438">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="446" eb="448">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="456" eb="457">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="458" eb="459">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パチパチソーダのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4491,128 +4369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ブッシュドノエルのレシピ】
-難易度・・　中～高　ぐらい
-少し手順が複雑ですが、がんばって作ってみてくださいね！
-チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
-①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
-②クリームの生地・・・
-1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
-2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
-3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
-①に②を足して、焼き上げれば完成！！
-ふんわり濃厚なチーズケーキを召し上がれ♪</t>
-    <rPh sb="16" eb="19">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="249" eb="250">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="251" eb="252">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="265" eb="267">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="290" eb="291">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="333" eb="334">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="345" eb="347">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="365" eb="368">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="377" eb="378">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="418" eb="419">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="429" eb="430">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="433" eb="434">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="435" eb="436">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="439" eb="441">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="449" eb="451">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="459" eb="460">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="461" eb="462">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初心者向けお菓子魔法の本</t>
     <rPh sb="0" eb="3">
       <t>ショシンシャ</t>
@@ -4762,99 +4518,6 @@
   </si>
   <si>
     <t>###</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ショートケーキのレシピ】
-定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
-ぜひ自慢のショートケーキを作ってみてくださいね。
-難易度・・　中～高　ぐらい
-事前準備：
-・生クリームといちご
-・スポンジケーキ＜スライス＞
-事前に、スポンジケーキは作れるようにしておきましょう♪
-【作り方】
-①２つのケーキ土台を作りましょう♪
-・一段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-・二段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-※まとめて作るのではなく、1段ずつ別々に作りましょう。
-クリームはホイップでなく、作りたてクリームをそのまま塗ります。
-土台が出来上がったら、&lt;color=#FF5CA1FF&gt;２つをのせる&lt;/color&gt;。
-②できたショートケーキのベースに、&lt;color=#FF5CA1FF&gt;作りたてクリームの白&lt;/color&gt;をぬり、&lt;color=#FF5CA1FF&gt;いちご&lt;/color&gt;をのせて完成です♪
-さらに、仕上げで、
-・いちごをたっぷりのせる
-・板チョコレートをのせる
-・飾りのミントをのせる
-など
-工夫とアレンジで、より魅力的なショートケーキを作ってみてくださいね～♪</t>
-    <rPh sb="15" eb="17">
-      <t>テイバン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>アマズ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジマン</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="360" eb="361">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="413" eb="414">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="422" eb="423">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="425" eb="427">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="428" eb="429">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="548" eb="549">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="557" eb="558">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="602" eb="604">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="613" eb="615">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="633" eb="634">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="646" eb="647">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="661" eb="663">
-      <t>クフウ</t>
-    </rPh>
-    <rPh sb="672" eb="675">
-      <t>ミリョクテキ</t>
-    </rPh>
-    <rPh sb="684" eb="685">
-      <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4950,128 +4613,6 @@
   </si>
   <si>
     <t>オペラのレシピ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【オペラのレシピ】
-難易度・・　中～高　ぐらい
-少し手順が複雑ですが、がんばって作ってみてくださいね！
-チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
-①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
-②クリームの生地・・・
-1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
-2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
-3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
-①に②を足して、焼き上げれば完成！！
-ふんわり濃厚なチーズケーキを召し上がれ♪</t>
-    <rPh sb="11" eb="14">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="181" eb="182">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="244" eb="245">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="246" eb="247">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="285" eb="286">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="328" eb="329">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="340" eb="342">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="360" eb="363">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="372" eb="373">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="413" eb="414">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="424" eb="425">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="428" eb="429">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="430" eb="431">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="434" eb="436">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="444" eb="446">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="454" eb="455">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="456" eb="457">
-      <t>ア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5501,6 +5042,1016 @@
     </rPh>
     <rPh sb="797" eb="798">
       <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【モンブランのレシピ】
+難易度・・　中～高　ぐらい
+少し難しいですが、順番に丁寧に作ってみてくださいね。
+先に、
+A. 土台の生地
+B. マロンクリーム
+を準備します。
+あとで仕上げていきましょう。
+また事前に、
+・くり
+・ホイップクリーム
+・メレンゲ
+・モンブラン用絞り袋
+も用意しましょう。
+A.
+※メレンゲの準備・・・&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜて、メレンゲを作ります。
+①クリーム生地・・・準備したメレンゲに、薄力粉・アーモンドパウダーを混ぜて、土台の生地クリームを作ります。
+③できたクリーム生地を、絞り袋に入れ、薄く円盤に絞ります。このとき、粉砂糖も振りかけておきましょう。
+焼き上げれば土台の完成です！
+B.
+①水をお鍋にはり、栗を入れて煮ます。柔らかくゆでた栗にします。
+②できたゆで栗に、砂糖・ミルクを混ぜて、さらに煮詰めます。そのまま潰せば、マロンペーストが出来上がります。
+③マロンペーストに、生クリームを混ぜて、泡だて器で混ぜます。とろり濃厚なマロンクリームの完成です♪
+④できたマロンクリームは、モンブラン用の絞り袋に入れて準備します。
+【仕上げ】
+①Aで作った土台生地に、ゆで栗を一粒のせ、ホイップクリームを周りに絞り、ドーム型にします。
+②その周りに、Bで準備したマロンクリームをたっぷりとかけていけば..
+マロンの風味が香るとってもおいしいモンブランの完成です♪
+秋の定番スイーツ、ぜひ作ってみてくださいね！
+</t>
+    <rPh sb="13" eb="16">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="260" eb="263">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="307" eb="308">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="309" eb="310">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="311" eb="312">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>エンバン</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="329" eb="332">
+      <t>コナザトウ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="356" eb="358">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="370" eb="371">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="377" eb="378">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="391" eb="392">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="405" eb="406">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="408" eb="410">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="415" eb="416">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="444" eb="447">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="464" eb="465">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="470" eb="471">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="474" eb="475">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="477" eb="478">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="479" eb="480">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="487" eb="489">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="498" eb="500">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="523" eb="524">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="525" eb="526">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="527" eb="528">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="529" eb="530">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="532" eb="534">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="541" eb="543">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="550" eb="551">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="553" eb="555">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="555" eb="557">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="561" eb="562">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="563" eb="565">
+      <t>ヒトツブ</t>
+    </rPh>
+    <rPh sb="577" eb="578">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="580" eb="581">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="586" eb="587">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="597" eb="598">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="603" eb="605">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="634" eb="636">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="637" eb="638">
+      <t>カオル</t>
+    </rPh>
+    <rPh sb="653" eb="655">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="660" eb="661">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="662" eb="664">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="671" eb="672">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ブッシュドノエルのレシピ】
+難易度・・　中～高　ぐらい
+木を模した伝統的なケーキ菓子です。チョコレートやココアの風味が、森を思わせる・・
+森のケーキをお楽しみください。
+下準備として、
+A. ココアケーキ生地
+B. チョコレートクリーム
+の２つを先に作ります。
+あとで、生地をまきまきしていきましょう♪
+★作る前に、魔法「ウィンドロール」を覚えておきましょう。
+★模様をつけるため、器材「フォーク」も買っておきましょう。
+【作り方】
+A. ココアケーキ生地
+①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と、&lt;color=#BA9535FF&gt;ココアパウダー&lt;/color&gt;を先に混ぜておきます。
+②アパレイユを作る・・・
+ &lt;color=#BA9535FF&gt;砂糖、卵、バター&lt;/color&gt;を混ぜ、アパレイユを作ります。
+③アパレイユに先ほどの粉類をふるい入れ、ウィンドミキサーで混ぜます。焼き上げれば生地の完成です。
+※180度で10~12分ほど焼くといい感じです。
+B.チョコレートクリーム
+①たまごに砂糖をいれ混ぜます。ある程度混ざったら、バターを入れてよく混ぜます。
+＜バタークリーム＞
+②バタークリームに、液体状のチョコレートをいれて、よく混ぜます。
+チョコレートクリームの完成です。
+【仕上げ】
+①Aで焼き上げた生地に、Bのチョコレートクリームをぬっていきます。
+②できた生地に、魔法「ウィンドロール」をかけて、きれいに巻きましょう！
+③巻いたロール生地に、さらにBチョコレートクリームをぬります。このとき、「フォーク」を使って、木の模様をつけていきます。
+④上にマジパンで作ったお花や、動物などのトッピングでデコレーションして..
+ブッシュドノエル完成で～す♪
+まさに、木を模した伝統的で豪華なお菓子です。
+なかなかお目にかかれないので、ぜひ自分の手で作ってみてくださいね。
+</t>
+    <rPh sb="16" eb="19">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>シタジュンビ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>キザイ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="253" eb="256">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="359" eb="360">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="382" eb="383">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="386" eb="388">
+      <t>コナルイ</t>
+    </rPh>
+    <rPh sb="404" eb="405">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="409" eb="410">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="411" eb="412">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="415" eb="417">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="418" eb="420">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="428" eb="429">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="435" eb="436">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="438" eb="439">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="468" eb="470">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="473" eb="474">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="480" eb="482">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="482" eb="483">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="492" eb="493">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="497" eb="498">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="524" eb="527">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="559" eb="561">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="567" eb="569">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="576" eb="577">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="578" eb="579">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="581" eb="583">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="612" eb="614">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="616" eb="618">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="636" eb="637">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="646" eb="647">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="652" eb="654">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="688" eb="689">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="692" eb="693">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="694" eb="696">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="708" eb="709">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="715" eb="716">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="719" eb="720">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="722" eb="724">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="753" eb="755">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="765" eb="766">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="767" eb="768">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="770" eb="773">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="774" eb="776">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="778" eb="780">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="789" eb="790">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="801" eb="803">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="804" eb="805">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="806" eb="807">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【オペラのレシピ】
+難易度・・　超高
+濃厚かつしっとりとした、まさに正統派なチョコレートケーキです。
+かなり手順が複雑で多いのですが、がんばってみてくださいね。
+以下、
+A, スポンジ生地作り
+B. コーヒーシロップ
+C. コーヒーバタークリーム
+D. ガナッシュクリーム
+E. チョコレートソースグラサージュ
+の５つを先に準備します。
+全部できたら、最後に仕上げていきましょう。
+★メレンゲも作れるようになっておきましょう。
+★焦がしバターも使います。作り方を事前に覚えておきましょう。
+A. 生地作り
+※事前に、&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;とココアパウダーを混ぜておきます。
+また、メレンゲ、焦がしバターも準備しておきましょう。
+①&lt;color=#BA9535FF&gt;砂糖、卵&lt;/color&gt;に、アーモンドパウダーを入れ、混ぜ合わせます。
+②①でできた生地に、①で用意した粉類とメレンゲを入れて、よく混ぜましょう。
+③焦がしバターを最後に加えて混ぜます。
+焼き上げれば、オペラケーキ生地が完成です。
+B. コーヒーシロップ
+水・砂糖・コーヒー豆を加えて、煮詰めればコーヒーシロップができます。準備しておきます。
+C. コーヒーのバタークリーム
+①たまごに砂糖をいれ混ぜます。ある程度混ざったら、バターを入れてよく混ぜます。
+＜バタークリーム＞
+②バタークリームに、コーヒーをいれて、よく混ぜます。
+香り高いコーヒークリームの完成です。
+D. ガナッシュクリーム
+①お鍋に、生クリームを入れ、液体状のチョコレート入れ、火にかけながら混ぜます。
+濃厚なガナッシュクリームの完成です。
+E. チョコレートソースグラサージュ
+ケーキに最後にかけるコーティング用のチョコソースを作っていきます。
+①生クリームに、砂糖・ココアパウダーを入れ、混ぜながら火にかけます。
+②水・ゼラチンを加えて、さらに混ぜ合わせます。
+濃厚でとろりとした、真っ黒のチョコソースが完成です。
+【仕上げ】
+①Aで作ったケーキ生地を、パンナイフでスライスし切り分けます。
+②生地に、液体状チョコレートを塗ります。これが底生地になります。
+③底生地に、Bのコーヒーシロップをぬって、味付けをします。
+④ぬった生地の上に、さらにコーヒーバタークリームを塗り、層を作ります。
+⑤④の上に、スライスしたケーキ生地をのせます。
+⑥⑤の生地の表面に、コーヒーシロップをさらにつけ、その上に、Dのガナッシュクリームを塗っていきます。
+ソースは平坦にぬると、きれいになります。
+⑦⑥の生地の上に、さらにコーヒーバタークリームを塗ります。平に塗っていきます。
+⑧ベースは完成です。あとは、氷室、もしくは魔法「フリージング」で冷やしていきましょう。
+⑨最後に、真っ黒なEのチョコソースグラサージュをかけてコーティングすれば..
+高貴なチョコケーキ「オペラ」完成です♪
+仕上げに、「金箔」を一つまみのせると、大富豪も大喜びのリッチな仕上げになります。</t>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>セイトウハ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="280" eb="283">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="317" eb="318">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="355" eb="357">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="379" eb="380">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="382" eb="383">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="404" eb="406">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="408" eb="410">
+      <t>コナルイ</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="422" eb="423">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="452" eb="453">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="465" eb="467">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="468" eb="470">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="487" eb="488">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="489" eb="491">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="496" eb="497">
+      <t>マメ</t>
+    </rPh>
+    <rPh sb="498" eb="499">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="502" eb="504">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="521" eb="523">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="627" eb="628">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="629" eb="630">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="662" eb="663">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="665" eb="666">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="671" eb="672">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="674" eb="677">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="684" eb="685">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="687" eb="688">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="694" eb="695">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="701" eb="703">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="744" eb="746">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="756" eb="757">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="765" eb="766">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="776" eb="777">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="783" eb="785">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="794" eb="795">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="797" eb="798">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="802" eb="803">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="812" eb="813">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="819" eb="820">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="826" eb="827">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="828" eb="829">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="836" eb="838">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="846" eb="847">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="848" eb="849">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="857" eb="859">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="865" eb="867">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="874" eb="875">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="880" eb="882">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="895" eb="896">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="897" eb="898">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="905" eb="907">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="909" eb="912">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="919" eb="920">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="927" eb="930">
+      <t>ソコキジ</t>
+    </rPh>
+    <rPh sb="939" eb="942">
+      <t>ソコキジ</t>
+    </rPh>
+    <rPh sb="959" eb="961">
+      <t>アジツ</t>
+    </rPh>
+    <rPh sb="973" eb="975">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="976" eb="977">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="994" eb="995">
+      <t>ヌリ</t>
+    </rPh>
+    <rPh sb="997" eb="998">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="999" eb="1000">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="1009" eb="1010">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1021" eb="1023">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1034" eb="1036">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1037" eb="1039">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="1058" eb="1059">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1073" eb="1074">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1086" eb="1088">
+      <t>ヘイタン</t>
+    </rPh>
+    <rPh sb="1107" eb="1109">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1110" eb="1111">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1128" eb="1129">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1133" eb="1134">
+      <t>タイラ</t>
+    </rPh>
+    <rPh sb="1135" eb="1136">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1150" eb="1152">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="1159" eb="1161">
+      <t>ヒムロ</t>
+    </rPh>
+    <rPh sb="1166" eb="1168">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="1177" eb="1178">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1191" eb="1193">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="1195" eb="1196">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="1197" eb="1198">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="1230" eb="1232">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="1244" eb="1246">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="1251" eb="1253">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="1257" eb="1259">
+      <t>キンパク</t>
+    </rPh>
+    <rPh sb="1261" eb="1262">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="1270" eb="1273">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="1274" eb="1276">
+      <t>オオヨロコ</t>
+    </rPh>
+    <rPh sb="1282" eb="1284">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ショートケーキのレシピ】
+定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
+ぜひ自慢のショートケーキを作ってみてくださいね。
+難易度・・　中
+事前準備：
+・生クリームといちご
+・スポンジケーキ＜スライス＞
+事前に、スポンジケーキは作れるようにしておきましょう♪
+【作り方】
+①ケーキ土台を作ります。
+・一段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・二段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;
+クリームはホイップでなく、作りたてクリームをそのまま塗ります。
+&lt;color=#FF5CA1FF&gt;1段目に2段目をのせ&lt;/color&gt;、土台を作ります。
+②できたショートケーキのベースに、&lt;color=#FF5CA1FF&gt;作りたてクリームの白&lt;/color&gt;をぬり、&lt;color=#FF5CA1FF&gt;いちご&lt;/color&gt;をのせて完成です♪
+さらに、仕上げで、
+・いちごをたっぷりのせる
+・板チョコレートをのせる
+・飾りのミントをのせる
+など
+工夫とアレンジで、より魅力的なショートケーキを作ってみてくださいね～♪</t>
+    <rPh sb="15" eb="17">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アマズ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジマン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="385" eb="387">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="402" eb="403">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="452" eb="453">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="497" eb="499">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="508" eb="510">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="528" eb="529">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="556" eb="558">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="567" eb="570">
+      <t>ミリョクテキ</t>
+    </rPh>
+    <rPh sb="579" eb="580">
+      <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5950,7 +6501,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7723,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -7900,45 +8451,45 @@
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
+    <row r="47" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>500</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>150</v>
       </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="L47" s="4">
+      <c r="G47" s="5">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="L47" s="5">
         <v>350</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="5">
         <v>350</v>
       </c>
     </row>
@@ -7975,7 +8526,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="L48" s="4">
         <v>360</v>
@@ -7993,10 +8544,10 @@
         <v>200</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E49" s="4">
         <v>500</v>
@@ -8017,7 +8568,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L49" s="4">
         <v>370</v>
@@ -8035,10 +8586,10 @@
         <v>200</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E50" s="4">
         <v>500</v>
@@ -8059,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L50" s="4">
         <v>380</v>
@@ -8077,10 +8628,10 @@
         <v>200</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E51" s="4">
         <v>500</v>
@@ -8101,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="L51" s="4">
         <v>390</v>
@@ -8395,7 +8946,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L58" s="5">
         <v>540</v>
@@ -8605,7 +9156,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L63" s="5">
         <v>590</v>
@@ -8707,10 +9258,10 @@
         <v>200</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E66" s="9">
         <v>500</v>
@@ -8731,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L66" s="9">
         <v>620</v>
@@ -9085,10 +9636,10 @@
         <v>200</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E75" s="5">
         <v>500</v>
@@ -9109,7 +9660,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L75" s="5">
         <v>780</v>
@@ -9127,10 +9678,10 @@
         <v>200</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E76" s="4">
         <v>500</v>
@@ -9151,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L76" s="4">
         <v>790</v>
@@ -9169,10 +9720,10 @@
         <v>200</v>
       </c>
       <c r="C77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -9193,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -9211,10 +9762,10 @@
         <v>200</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E78" s="5">
         <v>500</v>
@@ -9235,7 +9786,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L78" s="5">
         <v>2000</v>
@@ -9253,10 +9804,10 @@
         <v>200</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E79" s="5">
         <v>500</v>
@@ -9277,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L79" s="5">
         <v>2100</v>
@@ -9295,10 +9846,10 @@
         <v>200</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -9319,7 +9870,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L80" s="5">
         <v>2200</v>
@@ -9337,10 +9888,10 @@
         <v>200</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>
@@ -9361,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L81" s="5">
         <v>2300</v>
@@ -9379,10 +9930,10 @@
         <v>200</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -9403,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L82" s="5">
         <v>2400</v>
@@ -9421,10 +9972,10 @@
         <v>200</v>
       </c>
       <c r="C83" t="s">
+        <v>300</v>
+      </c>
+      <c r="D83" t="s">
         <v>302</v>
-      </c>
-      <c r="D83" t="s">
-        <v>304</v>
       </c>
       <c r="E83">
         <v>500</v>
@@ -9445,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L83">
         <v>5000</v>
@@ -9463,10 +10014,10 @@
         <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -9487,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L84">
         <v>5000</v>
@@ -9505,10 +10056,10 @@
         <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D85" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E85">
         <v>500</v>
@@ -9529,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L85">
         <v>5000</v>
@@ -9547,10 +10098,10 @@
         <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D86" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E86">
         <v>500</v>
@@ -9571,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L86">
         <v>5000</v>
@@ -9589,10 +10140,10 @@
         <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D87" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -9613,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L87">
         <v>5000</v>
@@ -9631,10 +10182,10 @@
         <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D88" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -9655,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L88">
         <v>5000</v>
@@ -9673,10 +10224,10 @@
         <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D89" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -9697,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L89">
         <v>5000</v>
@@ -9715,10 +10266,10 @@
         <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D90" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E90">
         <v>500</v>
@@ -9739,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L90">
         <v>5000</v>
@@ -9757,10 +10308,10 @@
         <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D91" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -9781,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L91">
         <v>5000</v>
@@ -9799,10 +10350,10 @@
         <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D92" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -9823,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L92">
         <v>5000</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E5EDB9-550B-4CC5-ADFF-D9BC4AB55F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04477B1D-7E3B-4443-9F41-F149948D8DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="930" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2520" yWindow="1110" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -5046,927 +5046,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【モンブランのレシピ】
-難易度・・　中～高　ぐらい
-少し難しいですが、順番に丁寧に作ってみてくださいね。
-先に、
-A. 土台の生地
-B. マロンクリーム
-を準備します。
-あとで仕上げていきましょう。
-また事前に、
-・くり
-・ホイップクリーム
-・メレンゲ
-・モンブラン用絞り袋
-も用意しましょう。
-A.
-※メレンゲの準備・・・&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜて、メレンゲを作ります。
-①クリーム生地・・・準備したメレンゲに、薄力粉・アーモンドパウダーを混ぜて、土台の生地クリームを作ります。
-③できたクリーム生地を、絞り袋に入れ、薄く円盤に絞ります。このとき、粉砂糖も振りかけておきましょう。
-焼き上げれば土台の完成です！
-B.
-①水をお鍋にはり、栗を入れて煮ます。柔らかくゆでた栗にします。
-②できたゆで栗に、砂糖・ミルクを混ぜて、さらに煮詰めます。そのまま潰せば、マロンペーストが出来上がります。
-③マロンペーストに、生クリームを混ぜて、泡だて器で混ぜます。とろり濃厚なマロンクリームの完成です♪
-④できたマロンクリームは、モンブラン用の絞り袋に入れて準備します。
-【仕上げ】
-①Aで作った土台生地に、ゆで栗を一粒のせ、ホイップクリームを周りに絞り、ドーム型にします。
-②その周りに、Bで準備したマロンクリームをたっぷりとかけていけば..
-マロンの風味が香るとってもおいしいモンブランの完成です♪
-秋の定番スイーツ、ぜひ作ってみてくださいね！
-</t>
-    <rPh sb="13" eb="16">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テイネイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="250" eb="252">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="260" eb="263">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="288" eb="289">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="303" eb="305">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="307" eb="308">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="309" eb="310">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="311" eb="312">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="314" eb="315">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="316" eb="318">
-      <t>エンバン</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="329" eb="332">
-      <t>コナザトウ</t>
-    </rPh>
-    <rPh sb="333" eb="334">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="347" eb="348">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="349" eb="350">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="353" eb="355">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="356" eb="358">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="370" eb="371">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="375" eb="376">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="377" eb="378">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="380" eb="381">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="384" eb="385">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="391" eb="392">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="405" eb="406">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="408" eb="410">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="415" eb="416">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="422" eb="424">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>ツブ</t>
-    </rPh>
-    <rPh sb="444" eb="447">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="464" eb="465">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="470" eb="471">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="474" eb="475">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="477" eb="478">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="479" eb="480">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="487" eb="489">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="498" eb="500">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="523" eb="524">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="525" eb="526">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="527" eb="528">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="529" eb="530">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="532" eb="534">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="541" eb="543">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="550" eb="551">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="553" eb="555">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="555" eb="557">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="561" eb="562">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="563" eb="565">
-      <t>ヒトツブ</t>
-    </rPh>
-    <rPh sb="577" eb="578">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="580" eb="581">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="586" eb="587">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="597" eb="598">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="603" eb="605">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="634" eb="636">
-      <t>フウミ</t>
-    </rPh>
-    <rPh sb="637" eb="638">
-      <t>カオル</t>
-    </rPh>
-    <rPh sb="653" eb="655">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="660" eb="661">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="662" eb="664">
-      <t>テイバン</t>
-    </rPh>
-    <rPh sb="671" eb="672">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【ブッシュドノエルのレシピ】
-難易度・・　中～高　ぐらい
-木を模した伝統的なケーキ菓子です。チョコレートやココアの風味が、森を思わせる・・
-森のケーキをお楽しみください。
-下準備として、
-A. ココアケーキ生地
-B. チョコレートクリーム
-の２つを先に作ります。
-あとで、生地をまきまきしていきましょう♪
-★作る前に、魔法「ウィンドロール」を覚えておきましょう。
-★模様をつけるため、器材「フォーク」も買っておきましょう。
-【作り方】
-A. ココアケーキ生地
-①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と、&lt;color=#BA9535FF&gt;ココアパウダー&lt;/color&gt;を先に混ぜておきます。
-②アパレイユを作る・・・
- &lt;color=#BA9535FF&gt;砂糖、卵、バター&lt;/color&gt;を混ぜ、アパレイユを作ります。
-③アパレイユに先ほどの粉類をふるい入れ、ウィンドミキサーで混ぜます。焼き上げれば生地の完成です。
-※180度で10~12分ほど焼くといい感じです。
-B.チョコレートクリーム
-①たまごに砂糖をいれ混ぜます。ある程度混ざったら、バターを入れてよく混ぜます。
-＜バタークリーム＞
-②バタークリームに、液体状のチョコレートをいれて、よく混ぜます。
-チョコレートクリームの完成です。
-【仕上げ】
-①Aで焼き上げた生地に、Bのチョコレートクリームをぬっていきます。
-②できた生地に、魔法「ウィンドロール」をかけて、きれいに巻きましょう！
-③巻いたロール生地に、さらにBチョコレートクリームをぬります。このとき、「フォーク」を使って、木の模様をつけていきます。
-④上にマジパンで作ったお花や、動物などのトッピングでデコレーションして..
-ブッシュドノエル完成で～す♪
-まさに、木を模した伝統的で豪華なお菓子です。
-なかなかお目にかかれないので、ぜひ自分の手で作ってみてくださいね。
-</t>
-    <rPh sb="16" eb="19">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>デントウテキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>フウミ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="89" eb="92">
-      <t>シタジュンビ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="160" eb="161">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>オボ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>モヨウ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>キザイ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="220" eb="221">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="253" eb="256">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="342" eb="344">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="359" eb="360">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="382" eb="383">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="386" eb="388">
-      <t>コナルイ</t>
-    </rPh>
-    <rPh sb="404" eb="405">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="409" eb="410">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="411" eb="412">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="415" eb="417">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="418" eb="420">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="428" eb="429">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="435" eb="436">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="438" eb="439">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="443" eb="444">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="468" eb="470">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="473" eb="474">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="480" eb="482">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="482" eb="483">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="492" eb="493">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="497" eb="498">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="524" eb="527">
-      <t>エキタイジョウ</t>
-    </rPh>
-    <rPh sb="541" eb="542">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="559" eb="561">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="567" eb="569">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="576" eb="577">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="578" eb="579">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="581" eb="583">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="612" eb="614">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="616" eb="618">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="636" eb="637">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="646" eb="647">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="652" eb="654">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="688" eb="689">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="692" eb="693">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="694" eb="696">
-      <t>モヨウ</t>
-    </rPh>
-    <rPh sb="708" eb="709">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="715" eb="716">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="719" eb="720">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="722" eb="724">
-      <t>ドウブツ</t>
-    </rPh>
-    <rPh sb="753" eb="755">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="765" eb="766">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="767" eb="768">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="770" eb="773">
-      <t>デントウテキ</t>
-    </rPh>
-    <rPh sb="774" eb="776">
-      <t>ゴウカ</t>
-    </rPh>
-    <rPh sb="778" eb="780">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="789" eb="790">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="801" eb="803">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="804" eb="805">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="806" eb="807">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【オペラのレシピ】
-難易度・・　超高
-濃厚かつしっとりとした、まさに正統派なチョコレートケーキです。
-かなり手順が複雑で多いのですが、がんばってみてくださいね。
-以下、
-A, スポンジ生地作り
-B. コーヒーシロップ
-C. コーヒーバタークリーム
-D. ガナッシュクリーム
-E. チョコレートソースグラサージュ
-の５つを先に準備します。
-全部できたら、最後に仕上げていきましょう。
-★メレンゲも作れるようになっておきましょう。
-★焦がしバターも使います。作り方を事前に覚えておきましょう。
-A. 生地作り
-※事前に、&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;とココアパウダーを混ぜておきます。
-また、メレンゲ、焦がしバターも準備しておきましょう。
-①&lt;color=#BA9535FF&gt;砂糖、卵&lt;/color&gt;に、アーモンドパウダーを入れ、混ぜ合わせます。
-②①でできた生地に、①で用意した粉類とメレンゲを入れて、よく混ぜましょう。
-③焦がしバターを最後に加えて混ぜます。
-焼き上げれば、オペラケーキ生地が完成です。
-B. コーヒーシロップ
-水・砂糖・コーヒー豆を加えて、煮詰めればコーヒーシロップができます。準備しておきます。
-C. コーヒーのバタークリーム
-①たまごに砂糖をいれ混ぜます。ある程度混ざったら、バターを入れてよく混ぜます。
-＜バタークリーム＞
-②バタークリームに、コーヒーをいれて、よく混ぜます。
-香り高いコーヒークリームの完成です。
-D. ガナッシュクリーム
-①お鍋に、生クリームを入れ、液体状のチョコレート入れ、火にかけながら混ぜます。
-濃厚なガナッシュクリームの完成です。
-E. チョコレートソースグラサージュ
-ケーキに最後にかけるコーティング用のチョコソースを作っていきます。
-①生クリームに、砂糖・ココアパウダーを入れ、混ぜながら火にかけます。
-②水・ゼラチンを加えて、さらに混ぜ合わせます。
-濃厚でとろりとした、真っ黒のチョコソースが完成です。
-【仕上げ】
-①Aで作ったケーキ生地を、パンナイフでスライスし切り分けます。
-②生地に、液体状チョコレートを塗ります。これが底生地になります。
-③底生地に、Bのコーヒーシロップをぬって、味付けをします。
-④ぬった生地の上に、さらにコーヒーバタークリームを塗り、層を作ります。
-⑤④の上に、スライスしたケーキ生地をのせます。
-⑥⑤の生地の表面に、コーヒーシロップをさらにつけ、その上に、Dのガナッシュクリームを塗っていきます。
-ソースは平坦にぬると、きれいになります。
-⑦⑥の生地の上に、さらにコーヒーバタークリームを塗ります。平に塗っていきます。
-⑧ベースは完成です。あとは、氷室、もしくは魔法「フリージング」で冷やしていきましょう。
-⑨最後に、真っ黒なEのチョコソースグラサージュをかけてコーティングすれば..
-高貴なチョコケーキ「オペラ」完成です♪
-仕上げに、「金箔」を一つまみのせると、大富豪も大喜びのリッチな仕上げになります。</t>
-    <rPh sb="11" eb="14">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>セイトウハ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="233" eb="234">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="238" eb="239">
-      <t>オボ</t>
-    </rPh>
-    <rPh sb="253" eb="255">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="280" eb="283">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="300" eb="301">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="317" eb="318">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="324" eb="326">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="355" eb="357">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="379" eb="380">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="382" eb="383">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="384" eb="385">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="398" eb="400">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="404" eb="406">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="408" eb="410">
-      <t>コナルイ</t>
-    </rPh>
-    <rPh sb="416" eb="417">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="422" eb="423">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="452" eb="453">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="454" eb="455">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="465" eb="467">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="468" eb="470">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="487" eb="488">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="489" eb="491">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="496" eb="497">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="498" eb="499">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="502" eb="504">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="521" eb="523">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="627" eb="628">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="629" eb="630">
-      <t>ダカ</t>
-    </rPh>
-    <rPh sb="662" eb="663">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="665" eb="666">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="671" eb="672">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="674" eb="677">
-      <t>エキタイジョウ</t>
-    </rPh>
-    <rPh sb="684" eb="685">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="687" eb="688">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="694" eb="695">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="701" eb="703">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="744" eb="746">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="756" eb="757">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="765" eb="766">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="776" eb="777">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="783" eb="785">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="794" eb="795">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="797" eb="798">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="802" eb="803">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="812" eb="813">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="819" eb="820">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="826" eb="827">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="828" eb="829">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="836" eb="838">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="846" eb="847">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="848" eb="849">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="857" eb="859">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="865" eb="867">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="874" eb="875">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="880" eb="882">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="895" eb="896">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="897" eb="898">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="905" eb="907">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="909" eb="912">
-      <t>エキタイジョウ</t>
-    </rPh>
-    <rPh sb="919" eb="920">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="927" eb="930">
-      <t>ソコキジ</t>
-    </rPh>
-    <rPh sb="939" eb="942">
-      <t>ソコキジ</t>
-    </rPh>
-    <rPh sb="959" eb="961">
-      <t>アジツ</t>
-    </rPh>
-    <rPh sb="973" eb="975">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="976" eb="977">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="994" eb="995">
-      <t>ヌリ</t>
-    </rPh>
-    <rPh sb="997" eb="998">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="999" eb="1000">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="1009" eb="1010">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1021" eb="1023">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="1034" eb="1036">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="1037" eb="1039">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="1058" eb="1059">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1073" eb="1074">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="1086" eb="1088">
-      <t>ヘイタン</t>
-    </rPh>
-    <rPh sb="1107" eb="1109">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="1110" eb="1111">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1128" eb="1129">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="1133" eb="1134">
-      <t>タイラ</t>
-    </rPh>
-    <rPh sb="1135" eb="1136">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="1150" eb="1152">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="1159" eb="1161">
-      <t>ヒムロ</t>
-    </rPh>
-    <rPh sb="1166" eb="1168">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="1177" eb="1178">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1191" eb="1193">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="1195" eb="1196">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="1197" eb="1198">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="1230" eb="1232">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="1244" eb="1246">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="1251" eb="1253">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="1257" eb="1259">
-      <t>キンパク</t>
-    </rPh>
-    <rPh sb="1261" eb="1262">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="1270" eb="1273">
-      <t>ダイフゴウ</t>
-    </rPh>
-    <rPh sb="1274" eb="1276">
-      <t>オオヨロコ</t>
-    </rPh>
-    <rPh sb="1282" eb="1284">
-      <t>シア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ショートケーキのレシピ】
 定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
 ぜひ自慢のショートケーキを作ってみてくださいね。
@@ -6052,6 +5131,938 @@
     </rPh>
     <rPh sb="579" eb="580">
       <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【モンブランのレシピ】
+難易度・・　中～高　ぐらい
+少し難しいですが、順番に丁寧に作ってみてくださいね。
+先に、
+A. 土台の生地
+B. マロンクリーム
+を準備します。
+あとで仕上げていきましょう。
+また事前に、
+・くり
+・ホイップクリーム
+・メレンゲ
+・モンブラン用絞り袋
+も用意しましょう。
+A.
+※メレンゲの準備・・・&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜて、メレンゲを作ります。
+①クリーム生地・・・準備したメレンゲに、薄力粉・アーモンドパウダーを混ぜて、土台の生地クリームを作ります。
+②できたクリーム生地を、絞り袋に入れ、薄く円盤に絞ります。このとき、粉砂糖も振りかけておきましょう。
+焼き上げれば土台の完成です！
+B.
+①水をお鍋にはり、栗を入れて煮ます。柔らかくゆでた栗にします。
+②できたゆで栗に、砂糖・ミルクを混ぜて、さらに煮詰めます。そのまま潰せば、マロンペーストが出来上がります。
+③マロンペーストに、生クリームを混ぜて、泡だて器で混ぜます。とろり濃厚なマロンクリームの完成です♪
+④できたマロンクリームは、モンブラン用の絞り袋に入れて準備します。
+【仕上げ】
+①Aで作った土台生地に、ゆで栗を一粒のせ、ホイップクリームを周りに絞り、ドーム型にします。
+②その周りに、Bで準備したマロンクリームをたっぷりとかけていけば..
+マロンの風味が香るとってもおいしいモンブランの完成です♪
+秋の定番スイーツ、ぜひ作ってみてくださいね！
+</t>
+    <rPh sb="13" eb="16">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="260" eb="263">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="278" eb="280">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="281" eb="283">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="307" eb="308">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="309" eb="310">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="311" eb="312">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>エンバン</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="329" eb="332">
+      <t>コナザトウ</t>
+    </rPh>
+    <rPh sb="333" eb="334">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="347" eb="348">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="356" eb="358">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="370" eb="371">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="375" eb="376">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="377" eb="378">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="380" eb="381">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="391" eb="392">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="405" eb="406">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="408" eb="410">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="415" eb="416">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="444" eb="447">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="464" eb="465">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="470" eb="471">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="474" eb="475">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="477" eb="478">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="479" eb="480">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="487" eb="489">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="498" eb="500">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="523" eb="524">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="525" eb="526">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="527" eb="528">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="529" eb="530">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="532" eb="534">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="541" eb="543">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="550" eb="551">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="553" eb="555">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="555" eb="557">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="561" eb="562">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="563" eb="565">
+      <t>ヒトツブ</t>
+    </rPh>
+    <rPh sb="577" eb="578">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="580" eb="581">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="586" eb="587">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="597" eb="598">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="603" eb="605">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="634" eb="636">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="637" eb="638">
+      <t>カオル</t>
+    </rPh>
+    <rPh sb="653" eb="655">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="660" eb="661">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="662" eb="664">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="671" eb="672">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【オペラのレシピ】
+難易度・・　超高
+濃厚かつしっとりとした、まさに正統派なチョコレートケーキです。
+かなり手順が複雑で多いのですが、がんばってみてくださいね。
+以下、
+A, スポンジ生地作り
+B. コーヒーシロップ
+C. コーヒーバタークリーム
+D. ガナッシュクリーム
+E. チョコレートソースグラサージュ
+の５つを先に準備します。
+全部できたら、最後に仕上げていきましょう。
+★メレンゲも作れるようになっておきましょう。
+★焦がしバターも使います。作り方を事前に覚えておきましょう。
+A. 生地作り
+※事前に、&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;とココアパウダーを混ぜておきます。
+また、メレンゲ、焦がしバターも準備しておきましょう。
+①&lt;color=#BA9535FF&gt;砂糖、卵&lt;/color&gt;に、アーモンドパウダーを入れ、混ぜ合わせます。
+②①でできた生地に、①で用意した粉類とメレンゲを入れて、よく混ぜましょう。
+③焦がしバターを最後に加えて混ぜます。
+焼き上げれば、オペラケーキ生地が完成です。
+B. コーヒーシロップ
+水・砂糖・コーヒーパウダーを加えて、煮詰めればコーヒーシロップができます。準備しておきます。
+C. コーヒーのバタークリーム
+①卵黄に砂糖を混ぜます。＜アパレイユ黄身＞
+さらに、少量のコーヒーを入れよく混ぜます。
+②ある程度混ざったら、バターを入れて、よく混ぜます。
+香り高いコーヒークリームの完成です。
+D. ガナッシュクリーム
+①お鍋に、生クリームを入れ、液体状のチョコレート入れ、火にかけながら混ぜます。
+濃厚なガナッシュクリームの完成です。
+E. チョコレートソースグラサージュ
+ケーキに最後にかけるコーティング用のチョコソースを作っていきます。
+①生クリームに、砂糖・ココアパウダーを入れ、混ぜながら火にかけます。
+②水・ゼラチンを加えて、さらに混ぜ合わせます。
+濃厚でとろりとした、真っ黒のチョコソースが完成です。
+【仕上げ】
+①Aで作ったケーキ生地を、四角いセルクルでスライスし切り分けます。
+②生地に、液体状チョコレートを塗ります。これが底生地になります。
+ここから上にどんどん生地・クリームを重ねていきます。
+③底生地に、Bのコーヒーシロップをぬって、味付けをし、その上にコーヒーバタークリームを塗り、層を作ります。
+④③の上に、スライスしたケーキ生地をのせます。
+⑤④の生地の表面に、コーヒーシロップをさらにつけ、その上に、Dのガナッシュクリームを塗っていきます。
+ソースは平坦にぬると、きれいになります。
+⑥⑤の生地の上に、さらにコーヒーバタークリームを塗ります。平に塗っていきます。
+⑦ベースは完成です。あとは、氷室、もしくは魔法「フリージング」で冷やしていきましょう。
+⑧最後に、真っ黒なEのチョコソースグラサージュをかけてコーティングすれば..
+高貴なチョコケーキ「オペラ」完成です♪
+仕上げに、「金箔」を一つまみのせると、王様も大喜びのリッチな仕上げになります。</t>
+    <rPh sb="11" eb="14">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>セイトウハ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="253" eb="255">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="280" eb="283">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="300" eb="301">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="317" eb="318">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="355" eb="357">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="379" eb="380">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="382" eb="383">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="384" eb="385">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="398" eb="400">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="404" eb="406">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="408" eb="410">
+      <t>コナルイ</t>
+    </rPh>
+    <rPh sb="416" eb="417">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="422" eb="423">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="452" eb="453">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="454" eb="455">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="465" eb="467">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="468" eb="470">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="487" eb="488">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="489" eb="491">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="501" eb="502">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="505" eb="507">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="524" eb="526">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="552" eb="554">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="569" eb="571">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="577" eb="579">
+      <t>ショウリョウ</t>
+    </rPh>
+    <rPh sb="585" eb="586">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="589" eb="590">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="624" eb="625">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="626" eb="627">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="659" eb="660">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="662" eb="663">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="668" eb="669">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="671" eb="674">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="681" eb="682">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="684" eb="685">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="691" eb="692">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="698" eb="700">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="741" eb="743">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="753" eb="754">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="762" eb="763">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="773" eb="774">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="780" eb="782">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="791" eb="792">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="794" eb="795">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="799" eb="800">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="809" eb="810">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="816" eb="817">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="823" eb="824">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="825" eb="826">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="833" eb="835">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="843" eb="844">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="845" eb="846">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="854" eb="856">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="862" eb="864">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="871" eb="872">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="877" eb="879">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="881" eb="883">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="894" eb="895">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="896" eb="897">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="904" eb="906">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="908" eb="911">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="918" eb="919">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="926" eb="929">
+      <t>ソコキジ</t>
+    </rPh>
+    <rPh sb="941" eb="942">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="947" eb="949">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="955" eb="956">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="966" eb="969">
+      <t>ソコキジ</t>
+    </rPh>
+    <rPh sb="986" eb="988">
+      <t>アジツ</t>
+    </rPh>
+    <rPh sb="994" eb="995">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1023" eb="1024">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1035" eb="1037">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1048" eb="1050">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1051" eb="1053">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="1072" eb="1073">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1087" eb="1088">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1100" eb="1102">
+      <t>ヘイタン</t>
+    </rPh>
+    <rPh sb="1121" eb="1123">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1124" eb="1125">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1142" eb="1143">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1147" eb="1148">
+      <t>タイラ</t>
+    </rPh>
+    <rPh sb="1149" eb="1150">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1164" eb="1166">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="1173" eb="1175">
+      <t>ヒムロ</t>
+    </rPh>
+    <rPh sb="1180" eb="1182">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="1191" eb="1192">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1205" eb="1207">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="1209" eb="1210">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="1211" eb="1212">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="1244" eb="1246">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="1258" eb="1260">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="1265" eb="1267">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="1271" eb="1273">
+      <t>キンパク</t>
+    </rPh>
+    <rPh sb="1275" eb="1276">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="1284" eb="1286">
+      <t>オウサマ</t>
+    </rPh>
+    <rPh sb="1287" eb="1289">
+      <t>オオヨロコ</t>
+    </rPh>
+    <rPh sb="1295" eb="1297">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ブッシュドノエルのレシピ】
+難易度・・　中～高　ぐらい
+木を模した伝統的なケーキ菓子です。チョコレートやココアの風味が、森を思わせる・・
+森のケーキをお楽しみください。
+下準備として、
+A. ココアケーキ生地
+B. チョコレートクリーム
+の２つを先に作ります。
+あとで、生地をまきまきしていきましょう♪
+★作る前に、魔法「ウィンドロール」を覚えておきましょう。
+★模様をつけるため、器材「フォーク」も買っておきましょう。
+【作り方】
+A. ココアケーキ生地
+①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と、&lt;color=#BA9535FF&gt;ココアパウダー&lt;/color&gt;を先に混ぜておきます。
+②アパレイユを作る・・・
+ &lt;color=#BA9535FF&gt;砂糖、卵、バター&lt;/color&gt;を混ぜ、アパレイユを作ります。
+③アパレイユに先ほどの粉類をふるい入れ、ウィンドミキサーで混ぜます。焼き上げれば生地の完成です。
+※180度で10~12分ほど焼くといい感じです。
+B.チョコレートバタークリーム
+①卵黄に砂糖を混ぜます。＜アパレイユ黄身＞
+さらに、少量の液体状チョコレートを入れよく混ぜます。
+②ある程度混ざったら、バターを入れて、よく混ぜます。
+芳醇で味わい深いチョコレートバタークリームの完成です。
+【仕上げ】
+①Aで焼き上げた生地の片面に、Bのチョコレートクリームをぬっていきます。
+②できた生地に、魔法「ウィンドロール」をかけて、きれいに巻きましょう！
+③巻いたロール生地に、さらにBチョコレートクリームをぬります。このとき、「フォーク」を使って、木の模様をつけていきます。
+④上にマジパンで作ったお花や、動物などのトッピングでデコレーションして..
+ブッシュドノエル完成で～す♪
+まさに、木を模した伝統的で豪華なお菓子です。
+ぜひ自分の手で作ってみてくださいね。
+【あとがき】
+うわさですが、ブッシュドノエルの、さらに上位の伝説のお菓子があるとか・・？
+</t>
+    <rPh sb="16" eb="19">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>シタジュンビ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>キザイ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="253" eb="256">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="359" eb="360">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="382" eb="383">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="386" eb="388">
+      <t>コナルイ</t>
+    </rPh>
+    <rPh sb="404" eb="405">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="409" eb="410">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="411" eb="412">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="415" eb="417">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="418" eb="420">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="428" eb="429">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="435" eb="436">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="438" eb="439">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="495" eb="498">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="543" eb="545">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="546" eb="547">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="549" eb="550">
+      <t>ブカ</t>
+    </rPh>
+    <rPh sb="565" eb="567">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="573" eb="575">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="582" eb="583">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="584" eb="585">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="587" eb="589">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="590" eb="592">
+      <t>カタメン</t>
+    </rPh>
+    <rPh sb="621" eb="623">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="625" eb="627">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="645" eb="646">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="655" eb="656">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="661" eb="663">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="697" eb="698">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="701" eb="702">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="703" eb="705">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="717" eb="718">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="724" eb="725">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="728" eb="729">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="731" eb="733">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="763" eb="765">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="775" eb="776">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="777" eb="778">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="780" eb="783">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="784" eb="786">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="788" eb="790">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="796" eb="798">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="799" eb="800">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="801" eb="802">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="841" eb="843">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="844" eb="846">
+      <t>デンセツ</t>
+    </rPh>
+    <rPh sb="848" eb="850">
+      <t>カシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6501,7 +6512,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8484,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L47" s="5">
         <v>350</v>
@@ -8526,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L48" s="4">
         <v>360</v>
@@ -8652,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L51" s="4">
         <v>390</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04477B1D-7E3B-4443-9F41-F149948D8DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C1C9CE-7420-43CC-8605-13F116338B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1110" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2745" yWindow="1005" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1287,41 +1287,6 @@
   </si>
   <si>
     <t>Items/tiramisu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【コーヒーのレシピ】
-おいしいコーヒーの淹れ方
-&lt;color=#BA9535FF&gt;コーヒー豆&lt;/color&gt;をひき、&lt;color=#BA9535FF&gt;水&lt;/color&gt;をいれ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でひと煮立ちしたら出来上がり。
-コーヒー豆と水は、&lt;color=#BA9535FF&gt;4:1&lt;/color&gt;ぐらいがほどよい苦さでマイルドです。
-</t>
-    <rPh sb="21" eb="22">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ニタ</t>
-    </rPh>
-    <rPh sb="126" eb="129">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>マメ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>ニガ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4745,307 +4710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ザッハトルテのレシピ】
-難易度・・　高
-つやつやの滑らかで、伝統的なチョコレートケーキです。
-以下、３つの生地を作り、あとで合わせて仕上げていきます。
-A. ザッハトルテ生地
-B. コーティングチョコ生地
-C. あんずジャム
-A.
-①チョコの生地・・・溶けた液体のチョコレートに、卵黄を混ぜ、さらにバターと混ぜ合わせます。
-②事前にメレンゲを作っておきます。・・・
-&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;と砂糖を角が立つまで、混ぜ合わせます。
-③先ほど作った、チョコ生地とメレンゲを混ぜ合わせ、そこに薄力粉を加えて、しっかり混ぜます。
-焼き上げれば、ザッハトルテ生地は完成です！！
-※170度で約40~50分。
-あとで、スライスして、他のソースをつけていきます。今は置いておきましょう。
-B. コーティング用チョコ生地
-①水と砂糖をお鍋にかけ、水あめを先に作ります。
-②水あめに、液体チョコレートを混ぜ、お鍋にかけて、とろとろに煮詰めましょう。
-これで、とろりとしたチョコのコーティング生地の完成です。
-C. あんずジャムの作り方
-①あんずと砂糖を、お鍋に入れて、とろとろと煮詰めていきます。
-とろりしたら、完成です。
-【完成まで】
-①Aで作った生地をスライスします。
-②スライスした生地の上面に、あんずジャムを塗りましょう。
-③②の生地に、スライスしたザッハトルテ生地を上からかぶせます。
-④できあがったケーキベースに、あんずジャムを、全体的に塗ってコーティングします。
-※2時間ほど乾燥させます。
-⑤コーティングした生地に、上からBのチョコレート生地をかけて、コーティングします。
-きれいに全体がチョコでコーティングされたら、完成です♪
-なめらかなチョコの艶や光沢、そしてあんずの芳醇な香り.. それらの調和をお楽しみ頂ければ幸いです。</t>
-    <rPh sb="14" eb="17">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ナメ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>デントウテキ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="207" eb="209">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>ツノ</t>
-    </rPh>
-    <rPh sb="223" eb="224">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="228" eb="229">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="242" eb="243">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="257" eb="258">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="259" eb="260">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="266" eb="269">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="270" eb="271">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="285" eb="286">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="287" eb="288">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="298" eb="300">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="301" eb="303">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="312" eb="313">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="314" eb="315">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="320" eb="321">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="335" eb="336">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="349" eb="350">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="351" eb="352">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="373" eb="374">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="377" eb="379">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="381" eb="382">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="383" eb="385">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="387" eb="388">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="392" eb="393">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="396" eb="397">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="398" eb="399">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="406" eb="407">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="411" eb="413">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="420" eb="421">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="424" eb="425">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="435" eb="437">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="465" eb="467">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="468" eb="470">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="486" eb="487">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="488" eb="489">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="495" eb="497">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="500" eb="501">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="502" eb="503">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="511" eb="513">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="528" eb="530">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="536" eb="538">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="546" eb="547">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="549" eb="551">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="569" eb="571">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="572" eb="574">
-      <t>ジョウメン</t>
-    </rPh>
-    <rPh sb="583" eb="584">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="595" eb="597">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="611" eb="613">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="614" eb="615">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="648" eb="651">
-      <t>ゼンタイテキ</t>
-    </rPh>
-    <rPh sb="652" eb="653">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="668" eb="670">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="672" eb="674">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="690" eb="692">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="694" eb="695">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="705" eb="707">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="728" eb="730">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="746" eb="748">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="762" eb="763">
-      <t>ツヤ</t>
-    </rPh>
-    <rPh sb="764" eb="766">
-      <t>コウタク</t>
-    </rPh>
-    <rPh sb="774" eb="776">
-      <t>ホウジュン</t>
-    </rPh>
-    <rPh sb="777" eb="778">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="786" eb="788">
-      <t>チョウワ</t>
-    </rPh>
-    <rPh sb="790" eb="791">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="793" eb="794">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="797" eb="798">
-      <t>サイワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ショートケーキのレシピ】
 定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
 ぜひ自慢のショートケーキを作ってみてくださいね。
@@ -5135,276 +4799,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【モンブランのレシピ】
-難易度・・　中～高　ぐらい
-少し難しいですが、順番に丁寧に作ってみてくださいね。
-先に、
-A. 土台の生地
-B. マロンクリーム
-を準備します。
-あとで仕上げていきましょう。
-また事前に、
-・くり
-・ホイップクリーム
-・メレンゲ
-・モンブラン用絞り袋
-も用意しましょう。
-A.
-※メレンゲの準備・・・&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜて、メレンゲを作ります。
-①クリーム生地・・・準備したメレンゲに、薄力粉・アーモンドパウダーを混ぜて、土台の生地クリームを作ります。
-②できたクリーム生地を、絞り袋に入れ、薄く円盤に絞ります。このとき、粉砂糖も振りかけておきましょう。
-焼き上げれば土台の完成です！
-B.
-①水をお鍋にはり、栗を入れて煮ます。柔らかくゆでた栗にします。
-②できたゆで栗に、砂糖・ミルクを混ぜて、さらに煮詰めます。そのまま潰せば、マロンペーストが出来上がります。
-③マロンペーストに、生クリームを混ぜて、泡だて器で混ぜます。とろり濃厚なマロンクリームの完成です♪
-④できたマロンクリームは、モンブラン用の絞り袋に入れて準備します。
-【仕上げ】
-①Aで作った土台生地に、ゆで栗を一粒のせ、ホイップクリームを周りに絞り、ドーム型にします。
-②その周りに、Bで準備したマロンクリームをたっぷりとかけていけば..
-マロンの風味が香るとってもおいしいモンブランの完成です♪
-秋の定番スイーツ、ぜひ作ってみてくださいね！
-</t>
-    <rPh sb="13" eb="16">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テイネイ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="250" eb="252">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="260" eb="263">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="274" eb="275">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="288" eb="289">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="303" eb="305">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="307" eb="308">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="309" eb="310">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="311" eb="312">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="314" eb="315">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="316" eb="318">
-      <t>エンバン</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="329" eb="332">
-      <t>コナザトウ</t>
-    </rPh>
-    <rPh sb="333" eb="334">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="347" eb="348">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="349" eb="350">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="353" eb="355">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="356" eb="358">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="370" eb="371">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="375" eb="376">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="377" eb="378">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="380" eb="381">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="384" eb="385">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="391" eb="392">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="405" eb="406">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="408" eb="410">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="415" eb="416">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="422" eb="424">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>ツブ</t>
-    </rPh>
-    <rPh sb="444" eb="447">
-      <t>デキア</t>
-    </rPh>
-    <rPh sb="464" eb="465">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="470" eb="471">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="474" eb="475">
-      <t>アワ</t>
-    </rPh>
-    <rPh sb="477" eb="478">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="479" eb="480">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="487" eb="489">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="498" eb="500">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="523" eb="524">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="525" eb="526">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="527" eb="528">
-      <t>ブクロ</t>
-    </rPh>
-    <rPh sb="529" eb="530">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="532" eb="534">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="541" eb="543">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="550" eb="551">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="553" eb="555">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="555" eb="557">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="561" eb="562">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="563" eb="565">
-      <t>ヒトツブ</t>
-    </rPh>
-    <rPh sb="577" eb="578">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="580" eb="581">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="586" eb="587">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="597" eb="598">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="603" eb="605">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="634" eb="636">
-      <t>フウミ</t>
-    </rPh>
-    <rPh sb="637" eb="638">
-      <t>カオル</t>
-    </rPh>
-    <rPh sb="653" eb="655">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="660" eb="661">
-      <t>アキ</t>
-    </rPh>
-    <rPh sb="662" eb="664">
-      <t>テイバン</t>
-    </rPh>
-    <rPh sb="671" eb="672">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【オペラのレシピ】
 難易度・・　超高
 濃厚かつしっとりとした、まさに正統派なチョコレートケーキです。
@@ -5423,7 +4817,7 @@
 ※事前に、&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;とココアパウダーを混ぜておきます。
 また、メレンゲ、焦がしバターも準備しておきましょう。
 ①&lt;color=#BA9535FF&gt;砂糖、卵&lt;/color&gt;に、アーモンドパウダーを入れ、混ぜ合わせます。
-②①でできた生地に、①で用意した粉類とメレンゲを入れて、よく混ぜましょう。
+②①でできたアパレイユに、事前に用意した粉類とメレンゲを入れて、よく混ぜましょう。
 ③焦がしバターを最後に加えて混ぜます。
 焼き上げれば、オペラケーキ生地が完成です。
 B. コーヒーシロップ
@@ -5544,269 +4938,311 @@
     <rPh sb="384" eb="385">
       <t>ア</t>
     </rPh>
-    <rPh sb="398" eb="400">
+    <rPh sb="405" eb="407">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="408" eb="410">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="412" eb="414">
+      <t>コナルイ</t>
+    </rPh>
+    <rPh sb="420" eb="421">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="426" eb="427">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="456" eb="457">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="458" eb="459">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="469" eb="471">
       <t>キジ</t>
     </rPh>
-    <rPh sb="404" eb="406">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="408" eb="410">
-      <t>コナルイ</t>
-    </rPh>
-    <rPh sb="416" eb="417">
+    <rPh sb="472" eb="474">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="491" eb="492">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="493" eb="495">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="505" eb="506">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="509" eb="511">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="528" eb="530">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="556" eb="558">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="573" eb="575">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="581" eb="583">
+      <t>ショウリョウ</t>
+    </rPh>
+    <rPh sb="589" eb="590">
       <t>イ</t>
     </rPh>
-    <rPh sb="422" eb="423">
+    <rPh sb="593" eb="594">
       <t>マ</t>
     </rPh>
-    <rPh sb="452" eb="453">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="454" eb="455">
+    <rPh sb="628" eb="629">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="630" eb="631">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="663" eb="664">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="666" eb="667">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="672" eb="673">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="675" eb="678">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="685" eb="686">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="688" eb="689">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="695" eb="696">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="702" eb="704">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="745" eb="747">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="757" eb="758">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="766" eb="767">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="777" eb="778">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="784" eb="786">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="795" eb="796">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="798" eb="799">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="803" eb="804">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="813" eb="814">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="820" eb="821">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="827" eb="828">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="829" eb="830">
       <t>ア</t>
     </rPh>
-    <rPh sb="465" eb="467">
+    <rPh sb="837" eb="839">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="847" eb="848">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="849" eb="850">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="858" eb="860">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="866" eb="868">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="875" eb="876">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="881" eb="883">
       <t>キジ</t>
     </rPh>
-    <rPh sb="468" eb="470">
+    <rPh sb="885" eb="887">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="898" eb="899">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="900" eb="901">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="908" eb="910">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="912" eb="915">
+      <t>エキタイジョウ</t>
+    </rPh>
+    <rPh sb="922" eb="923">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="930" eb="933">
+      <t>ソコキジ</t>
+    </rPh>
+    <rPh sb="945" eb="946">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="951" eb="953">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="959" eb="960">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="970" eb="973">
+      <t>ソコキジ</t>
+    </rPh>
+    <rPh sb="990" eb="992">
+      <t>アジツ</t>
+    </rPh>
+    <rPh sb="998" eb="999">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1027" eb="1028">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1039" eb="1041">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1052" eb="1054">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1055" eb="1057">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="1076" eb="1077">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1091" eb="1092">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1104" eb="1106">
+      <t>ヘイタン</t>
+    </rPh>
+    <rPh sb="1125" eb="1127">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="1128" eb="1129">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1146" eb="1147">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1151" eb="1152">
+      <t>タイラ</t>
+    </rPh>
+    <rPh sb="1153" eb="1154">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="1168" eb="1170">
       <t>カンセイ</t>
     </rPh>
-    <rPh sb="487" eb="488">
+    <rPh sb="1177" eb="1179">
+      <t>ヒムロ</t>
+    </rPh>
+    <rPh sb="1184" eb="1186">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="1195" eb="1196">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1209" eb="1211">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="1213" eb="1214">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="1215" eb="1216">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="1248" eb="1250">
+      <t>コウキ</t>
+    </rPh>
+    <rPh sb="1262" eb="1264">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="1269" eb="1271">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="1275" eb="1277">
+      <t>キンパク</t>
+    </rPh>
+    <rPh sb="1279" eb="1280">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="1288" eb="1290">
+      <t>オウサマ</t>
+    </rPh>
+    <rPh sb="1291" eb="1293">
+      <t>オオヨロコ</t>
+    </rPh>
+    <rPh sb="1299" eb="1301">
+      <t>シア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【コーヒーのレシピ】
+おいしいコーヒーの淹れ方
+①&lt;color=#BA9535FF&gt;コーヒー豆&lt;/color&gt;を&lt;color=#FF5CA1FF&gt;すり鉢&lt;/color&gt;でひき、粉にします。
+②&lt;color=#BA9535FF&gt;コーヒーパウダー&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をいれ、&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;でひと煮立ちしたら出来上がり。
+コーヒー粉と水は、&lt;color=#BA9535FF&gt;4:1&lt;/color&gt;ぐらいがほどよい苦さでマイルドです。
+</t>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>バチ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
       <t>ミズ</t>
     </rPh>
-    <rPh sb="489" eb="491">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="501" eb="502">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="505" eb="507">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="524" eb="526">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="552" eb="554">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="569" eb="571">
-      <t>キミ</t>
-    </rPh>
-    <rPh sb="577" eb="579">
-      <t>ショウリョウ</t>
-    </rPh>
-    <rPh sb="585" eb="586">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="589" eb="590">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="624" eb="625">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="626" eb="627">
-      <t>ダカ</t>
-    </rPh>
-    <rPh sb="659" eb="660">
+    <rPh sb="181" eb="182">
       <t>ナベ</t>
     </rPh>
-    <rPh sb="662" eb="663">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="668" eb="669">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="671" eb="674">
-      <t>エキタイジョウ</t>
-    </rPh>
-    <rPh sb="681" eb="682">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="684" eb="685">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="691" eb="692">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="698" eb="700">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="741" eb="743">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="753" eb="754">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="762" eb="763">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="773" eb="774">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="780" eb="782">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="791" eb="792">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="794" eb="795">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="799" eb="800">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="809" eb="810">
+    <rPh sb="193" eb="195">
+      <t>ニタ</t>
+    </rPh>
+    <rPh sb="199" eb="202">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
       <t>ミズ</t>
     </rPh>
-    <rPh sb="816" eb="817">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="823" eb="824">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="825" eb="826">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="833" eb="835">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="843" eb="844">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="845" eb="846">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="854" eb="856">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="862" eb="864">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="871" eb="872">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="877" eb="879">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="881" eb="883">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="894" eb="895">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="896" eb="897">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="904" eb="906">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="908" eb="911">
-      <t>エキタイジョウ</t>
-    </rPh>
-    <rPh sb="918" eb="919">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="926" eb="929">
-      <t>ソコキジ</t>
-    </rPh>
-    <rPh sb="941" eb="942">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="947" eb="949">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="955" eb="956">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="966" eb="969">
-      <t>ソコキジ</t>
-    </rPh>
-    <rPh sb="986" eb="988">
-      <t>アジツ</t>
-    </rPh>
-    <rPh sb="994" eb="995">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1023" eb="1024">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1035" eb="1037">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="1048" eb="1050">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="1051" eb="1053">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="1072" eb="1073">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1087" eb="1088">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="1100" eb="1102">
-      <t>ヘイタン</t>
-    </rPh>
-    <rPh sb="1121" eb="1123">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="1124" eb="1125">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1142" eb="1143">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="1147" eb="1148">
-      <t>タイラ</t>
-    </rPh>
-    <rPh sb="1149" eb="1150">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="1164" eb="1166">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="1173" eb="1175">
-      <t>ヒムロ</t>
-    </rPh>
-    <rPh sb="1180" eb="1182">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="1191" eb="1192">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1205" eb="1207">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="1209" eb="1210">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="1211" eb="1212">
-      <t>クロ</t>
-    </rPh>
-    <rPh sb="1244" eb="1246">
-      <t>コウキ</t>
-    </rPh>
-    <rPh sb="1258" eb="1260">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="1265" eb="1267">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="1271" eb="1273">
-      <t>キンパク</t>
-    </rPh>
-    <rPh sb="1275" eb="1276">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="1284" eb="1286">
-      <t>オウサマ</t>
-    </rPh>
-    <rPh sb="1287" eb="1289">
-      <t>オオヨロコ</t>
-    </rPh>
-    <rPh sb="1295" eb="1297">
-      <t>シア</t>
+    <rPh sb="252" eb="253">
+      <t>ニガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5835,7 +5271,8 @@
 ②ある程度混ざったら、バターを入れて、よく混ぜます。
 芳醇で味わい深いチョコレートバタークリームの完成です。
 【仕上げ】
-①Aで焼き上げた生地の片面に、Bのチョコレートクリームをぬっていきます。
+※Aの生地を事前にスライスします。
+①スライスした生地の片面に、Bのチョコレートクリームをぬっていきます。
 ②できた生地に、魔法「ウィンドロール」をかけて、きれいに巻きましょう！
 ③巻いたロール生地に、さらにBチョコレートクリームをぬります。このとき、「フォーク」を使って、木の模様をつけていきます。
 ④上にマジパンで作ったお花や、動物などのトッピングでデコレーションして..
@@ -5843,7 +5280,7 @@
 まさに、木を模した伝統的で豪華なお菓子です。
 ぜひ自分の手で作ってみてくださいね。
 【あとがき】
-うわさですが、ブッシュドノエルの、さらに上位の伝説のお菓子があるとか・・？
+ブッシュドノエルは、ちょうちょとの相性がいいようです。
 </t>
     <rPh sb="16" eb="19">
       <t>ナンイド</t>
@@ -5980,89 +5417,665 @@
     <rPh sb="573" eb="575">
       <t>シア</t>
     </rPh>
-    <rPh sb="582" eb="583">
+    <rPh sb="581" eb="583">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="584" eb="586">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="604" eb="606">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="607" eb="609">
+      <t>カタメン</t>
+    </rPh>
+    <rPh sb="638" eb="640">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="642" eb="644">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="662" eb="663">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="672" eb="673">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="678" eb="680">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="714" eb="715">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="718" eb="719">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="720" eb="722">
+      <t>モヨウ</t>
+    </rPh>
+    <rPh sb="734" eb="735">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="741" eb="742">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="745" eb="746">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="748" eb="750">
+      <t>ドウブツ</t>
+    </rPh>
+    <rPh sb="780" eb="782">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="792" eb="793">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="794" eb="795">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="797" eb="800">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="801" eb="803">
+      <t>ゴウカ</t>
+    </rPh>
+    <rPh sb="805" eb="807">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="813" eb="815">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="816" eb="817">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="818" eb="819">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="855" eb="857">
+      <t>アイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ザッハトルテのレシピ】
+難易度・・　高
+つやつやの滑らかで、伝統的なチョコレートケーキです。
+以下、３つの生地を作り、あとで合わせて仕上げていきます。
+A. ザッハトルテ生地
+B. コーティングチョコ生地
+C. あんずジャム
+A.
+①チョコの生地・・・卵黄・砂糖に、バターを入れて混ぜ合わせます。
+できたバタークリームに、溶けた液体のチョコレートをいれて混ぜます。
+チョコレートの生地ができます。
+②事前にメレンゲを作っておきます。・・・
+&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;と砂糖を角が立つまで、混ぜ合わせます。
+③先ほど作った、チョコ生地とメレンゲを混ぜ合わせ、そこに薄力粉を加えて、しっかり混ぜます。
+焼き上げれば、ザッハトルテ生地は完成です！！
+※170度で約40~50分。
+あとで、スライスして、他のソースをつけていきます。今は置いておきましょう。
+B. コーティング用チョコ生地
+①水と砂糖をお鍋にかけ、水あめを先に作ります。
+②水あめに、液体チョコレートを混ぜ、お鍋にかけて、とろとろに煮詰めましょう。
+これで、とろりとしたチョコのコーティング生地の完成です。
+C. あんずジャムの作り方
+①あんずと砂糖を、お鍋に入れて、とろとろと煮詰めていきます。
+とろりしたら、完成です。
+【完成まで】
+①Aで作った生地をスライスします。
+②スライスした生地の上面に、あんずジャムを塗り、再度スライスしたザッハトルテ生地を上からかぶせます。
+③できあがったケーキベースに、あんずジャムを、全体的に塗ってコーティングします。
+※2時間ほど乾燥させます。
+④コーティングした生地に、上からBのチョコレート生地をかけて、コーティングします。
+きれいに全体がチョコでコーティングされたら、完成です♪
+なめらかなチョコの艶や光沢、そしてあんずの芳醇な香り.. それらの調和をお楽しみ頂ければ幸いです。</t>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナメ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ツノ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="281" eb="282">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="305" eb="308">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="309" eb="310">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="317" eb="318">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="324" eb="325">
       <t>ヤ</t>
     </rPh>
-    <rPh sb="584" eb="585">
+    <rPh sb="326" eb="327">
       <t>ア</t>
     </rPh>
-    <rPh sb="587" eb="589">
+    <rPh sb="337" eb="339">
       <t>キジ</t>
     </rPh>
-    <rPh sb="590" eb="592">
-      <t>カタメン</t>
+    <rPh sb="340" eb="342">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="353" eb="354">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="359" eb="360">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="374" eb="375">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="388" eb="389">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="390" eb="391">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="412" eb="413">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="416" eb="418">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="420" eb="421">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="422" eb="424">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="426" eb="427">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="431" eb="432">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="435" eb="436">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="445" eb="446">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="450" eb="452">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="459" eb="460">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="463" eb="464">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="474" eb="476">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="504" eb="506">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="507" eb="509">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="525" eb="526">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="527" eb="528">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="534" eb="536">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="539" eb="540">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="550" eb="552">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="567" eb="569">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="575" eb="577">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="585" eb="586">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="588" eb="590">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="608" eb="610">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="611" eb="613">
+      <t>ジョウメン</t>
+    </rPh>
+    <rPh sb="622" eb="623">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="625" eb="627">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="676" eb="679">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="680" eb="681">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="696" eb="698">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="700" eb="702">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="718" eb="720">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="722" eb="723">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="733" eb="735">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="756" eb="758">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="774" eb="776">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="790" eb="791">
+      <t>ツヤ</t>
+    </rPh>
+    <rPh sb="792" eb="794">
+      <t>コウタク</t>
+    </rPh>
+    <rPh sb="802" eb="804">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="805" eb="806">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="814" eb="816">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="818" eb="819">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="821" eb="822">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="825" eb="826">
+      <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【モンブランのレシピ】
+難易度・・　中～高　ぐらい
+少し難しいですが、順番に丁寧に作ってみてくださいね。
+先に、
+A. 土台の生地
+B. マロンクリーム
+を準備します。
+あとで仕上げていきましょう。
+また事前に、
+・くり
+・ホイップクリーム
+・メレンゲ
+・モンブラン用絞り袋
+も用意しましょう。
+A.
+※メレンゲの準備・・・&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜて、メレンゲを作ります。
+&lt;color=#FF5CA1FF&gt;泡だて器かウィンドミキサー&lt;/color&gt;を使うのを忘れずに！
+①クリーム生地・・・準備したメレンゲに、&lt;color=#BA9535FF&gt;薄力粉・アーモンドパウダー&lt;/color&gt;を混ぜて、土台の生地クリームを作ります。
+②できたクリーム生地を、&lt;color=#FF5CA1FF&gt;絞り袋&lt;/color&gt;に入れ、薄く円盤に絞ります。このとき、粉砂糖も振りかけておきましょう。
+焼き上げれば土台の完成です！
+B.
+①&lt;color=#BA9535FF&gt;水&lt;/color&gt;を&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;にはり、&lt;color=#BA9535FF&gt;栗&lt;/color&gt;を入れて煮ます。柔らかくゆでた栗にします。
+②できたゆで栗に、&lt;color=#BA9535FF&gt;砂糖・ミルク&lt;/color&gt;を混ぜて、さらに煮詰めます。そのまま潰せば、マロンペーストが出来上がります。
+③マロンペーストに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;を混ぜて、&lt;color=#FF5CA1FF&gt;泡だて器&lt;/color&gt;で混ぜます。とろり濃厚なマロンクリームの完成です♪
+④できたマロンクリームは、&lt;color=#FF5CA1FF&gt;モンブラン用の絞り袋&lt;/color&gt;に入れて準備します。
+【仕上げ】
+①Aで作った土台生地に、&lt;color=#BA9535FF&gt;ゆで栗&lt;/color&gt;を一粒のせ、&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;を周りに絞り、ドーム型にします。
+②その周りに、Bで準備した&lt;color=#BA9535FF&gt;マロンクリーム&lt;/color&gt;をたっぷりとかけていけば..
+マロンの風味が香るとってもおいしいモンブランの完成です♪
+秋の定番スイーツ、ぜひ作ってみてくださいね！
+</t>
+    <rPh sb="13" eb="16">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="259" eb="260">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="294" eb="296">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="326" eb="329">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="348" eb="349">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="352" eb="354">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="355" eb="357">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="362" eb="363">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="377" eb="379">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="398" eb="399">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="400" eb="401">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="410" eb="411">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="413" eb="414">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="415" eb="417">
+      <t>エンバン</t>
+    </rPh>
+    <rPh sb="418" eb="419">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="428" eb="431">
+      <t>コナザトウ</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="446" eb="447">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="448" eb="449">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="452" eb="454">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="455" eb="457">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="511" eb="512">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="551" eb="552">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="554" eb="555">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="558" eb="559">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="565" eb="566">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="579" eb="580">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="599" eb="601">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="614" eb="615">
+      <t>マ</t>
     </rPh>
     <rPh sb="621" eb="623">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="631" eb="632">
+      <t>ツブ</t>
+    </rPh>
+    <rPh sb="643" eb="646">
+      <t>デキア</t>
+    </rPh>
+    <rPh sb="680" eb="681">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="694" eb="695">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="715" eb="716">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="718" eb="719">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="728" eb="729">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="736" eb="738">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="747" eb="749">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="789" eb="790">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="791" eb="792">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="793" eb="794">
+      <t>ブクロ</t>
+    </rPh>
+    <rPh sb="803" eb="804">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="806" eb="808">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="815" eb="817">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="824" eb="825">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="827" eb="829">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="829" eb="831">
       <t>キジ</t>
     </rPh>
-    <rPh sb="625" eb="627">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="645" eb="646">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="655" eb="656">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="661" eb="663">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="697" eb="698">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="701" eb="702">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="703" eb="705">
-      <t>モヨウ</t>
-    </rPh>
-    <rPh sb="717" eb="718">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="724" eb="725">
+    <rPh sb="852" eb="853">
+      <t>クリ</t>
+    </rPh>
+    <rPh sb="862" eb="864">
+      <t>ヒトツブ</t>
+    </rPh>
+    <rPh sb="901" eb="902">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="904" eb="905">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="910" eb="911">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="921" eb="922">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="927" eb="929">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="983" eb="985">
+      <t>フウミ</t>
+    </rPh>
+    <rPh sb="986" eb="987">
+      <t>カオル</t>
+    </rPh>
+    <rPh sb="1002" eb="1004">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="1009" eb="1010">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="1011" eb="1013">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="1020" eb="1021">
       <t>ツク</t>
-    </rPh>
-    <rPh sb="728" eb="729">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="731" eb="733">
-      <t>ドウブツ</t>
-    </rPh>
-    <rPh sb="763" eb="765">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="775" eb="776">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="777" eb="778">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="780" eb="783">
-      <t>デントウテキ</t>
-    </rPh>
-    <rPh sb="784" eb="786">
-      <t>ゴウカ</t>
-    </rPh>
-    <rPh sb="788" eb="790">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="796" eb="798">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="799" eb="800">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="801" eb="802">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="841" eb="843">
-      <t>ジョウイ</t>
-    </rPh>
-    <rPh sb="844" eb="846">
-      <t>デンセツ</t>
-    </rPh>
-    <rPh sb="848" eb="850">
-      <t>カシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6160,7 +6173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6190,9 +6203,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6511,8 +6521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6773,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -6941,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L10">
         <v>3070</v>
@@ -6956,13 +6966,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
         <v>174</v>
-      </c>
-      <c r="D11" t="s">
-        <v>175</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -6983,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L11">
         <v>3080</v>
@@ -6998,13 +7008,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -7025,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L12">
         <v>3090</v>
@@ -7040,13 +7050,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" t="s">
         <v>189</v>
-      </c>
-      <c r="D13" t="s">
-        <v>190</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -7067,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L13">
         <v>3100</v>
@@ -7193,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L16">
         <v>3040</v>
@@ -7277,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -7403,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -7571,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -7739,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L29">
         <v>130</v>
@@ -7823,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -7865,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L32">
         <v>210</v>
@@ -8117,7 +8127,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>173</v>
+        <v>343</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -8159,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L39">
         <v>280</v>
@@ -8174,13 +8184,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -8201,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L40">
         <v>290</v>
@@ -8216,13 +8226,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -8243,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L41">
         <v>300</v>
@@ -8258,13 +8268,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E42" s="7">
         <v>500</v>
@@ -8285,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -8300,13 +8310,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E43" s="5">
         <v>500</v>
@@ -8327,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L43" s="5">
         <v>310</v>
@@ -8342,13 +8352,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="5">
         <v>500</v>
@@ -8369,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L44" s="5">
         <v>320</v>
@@ -8384,13 +8394,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E45" s="5">
         <v>500</v>
@@ -8411,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L45" s="5">
         <v>330</v>
@@ -8426,13 +8436,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E46" s="5">
         <v>500</v>
@@ -8453,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L46" s="5">
         <v>340</v>
@@ -8468,13 +8478,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E47" s="5">
         <v>500</v>
@@ -8495,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L47" s="5">
         <v>350</v>
@@ -8504,171 +8514,171 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
+    <row r="48" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="B48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="5">
         <v>500</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>150</v>
       </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="L48" s="4">
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="L48" s="5">
         <v>360</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="5">
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="4">
+    <row r="49" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="B49" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="5">
         <v>500</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>150</v>
       </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="L49" s="4">
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" s="5">
         <v>370</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
+    <row r="50" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="B50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E50" s="5">
         <v>500</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <v>150</v>
       </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="L50" s="4">
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L50" s="5">
         <v>380</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
+    <row r="51" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="B51" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E51" s="4">
+      <c r="D51" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="5">
         <v>500</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <v>150</v>
       </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="L51" s="4">
+      <c r="G51" s="5">
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="L51" s="5">
         <v>390</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="5">
         <v>390</v>
       </c>
     </row>
@@ -8678,13 +8688,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="E52" s="5">
         <v>500</v>
@@ -8705,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -8720,13 +8730,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E53" s="5">
         <v>500</v>
@@ -8747,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L53" s="5">
         <v>410</v>
@@ -8762,13 +8772,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="5">
         <v>500</v>
@@ -8789,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L54" s="5">
         <v>500</v>
@@ -8804,13 +8814,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E55" s="5">
         <v>500</v>
@@ -8831,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L55" s="5">
         <v>510</v>
@@ -8846,13 +8856,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E56" s="5">
         <v>500</v>
@@ -8873,7 +8883,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L56" s="5">
         <v>520</v>
@@ -8888,13 +8898,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E57" s="5">
         <v>500</v>
@@ -8915,7 +8925,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L57" s="5">
         <v>530</v>
@@ -8930,13 +8940,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E58" s="5">
         <v>500</v>
@@ -8957,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L58" s="5">
         <v>540</v>
@@ -8972,13 +8982,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="5">
         <v>500</v>
@@ -8999,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L59" s="5">
         <v>550</v>
@@ -9014,13 +9024,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="5">
         <v>500</v>
@@ -9041,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L60" s="5">
         <v>560</v>
@@ -9056,13 +9066,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E61" s="5">
         <v>500</v>
@@ -9083,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L61" s="5">
         <v>570</v>
@@ -9098,13 +9108,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E62" s="5">
         <v>500</v>
@@ -9125,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L62" s="5">
         <v>580</v>
@@ -9140,13 +9150,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" s="5">
         <v>500</v>
@@ -9167,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L63" s="5">
         <v>590</v>
@@ -9182,13 +9192,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E64" s="9">
         <v>500</v>
@@ -9209,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L64" s="9">
         <v>600</v>
@@ -9224,13 +9234,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="E65" s="5">
         <v>500</v>
@@ -9251,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L65" s="5">
         <v>610</v>
@@ -9266,13 +9276,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E66" s="9">
         <v>500</v>
@@ -9293,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L66" s="9">
         <v>620</v>
@@ -9308,13 +9318,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E67" s="5">
         <v>500</v>
@@ -9335,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L67" s="5">
         <v>700</v>
@@ -9350,13 +9360,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E68" s="5">
         <v>500</v>
@@ -9377,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L68" s="5">
         <v>710</v>
@@ -9392,13 +9402,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E69" s="5">
         <v>500</v>
@@ -9419,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L69" s="5">
         <v>720</v>
@@ -9434,13 +9444,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E70" s="5">
         <v>500</v>
@@ -9461,7 +9471,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L70" s="5">
         <v>730</v>
@@ -9476,13 +9486,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="E71" s="5">
         <v>500</v>
@@ -9503,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L71" s="5">
         <v>740</v>
@@ -9518,13 +9528,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E72" s="5">
         <v>500</v>
@@ -9545,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L72" s="5">
         <v>750</v>
@@ -9560,13 +9570,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E73" s="5">
         <v>500</v>
@@ -9587,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L73" s="5">
         <v>760</v>
@@ -9602,13 +9612,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E74" s="5">
         <v>500</v>
@@ -9629,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L74" s="5">
         <v>770</v>
@@ -9644,13 +9654,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E75" s="5">
         <v>500</v>
@@ -9671,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L75" s="5">
         <v>780</v>
@@ -9680,45 +9690,45 @@
         <v>780</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="4">
+    <row r="76" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="9">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="B76" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="9">
+        <v>500</v>
+      </c>
+      <c r="F76" s="9">
+        <v>150</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0</v>
+      </c>
+      <c r="J76" s="9">
+        <v>1</v>
+      </c>
+      <c r="K76" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E76" s="4">
-        <v>500</v>
-      </c>
-      <c r="F76" s="4">
-        <v>150</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0</v>
-      </c>
-      <c r="I76" s="4">
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
-        <v>1</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="L76" s="4">
+      <c r="L76" s="9">
         <v>790</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="9">
         <v>790</v>
       </c>
     </row>
@@ -9728,13 +9738,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -9755,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -9770,13 +9780,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E78" s="5">
         <v>500</v>
@@ -9797,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L78" s="5">
         <v>2000</v>
@@ -9812,13 +9822,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E79" s="5">
         <v>500</v>
@@ -9839,7 +9849,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L79" s="5">
         <v>2100</v>
@@ -9854,13 +9864,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -9881,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L80" s="5">
         <v>2200</v>
@@ -9896,13 +9906,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>
@@ -9923,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L81" s="5">
         <v>2300</v>
@@ -9938,13 +9948,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -9965,7 +9975,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L82" s="5">
         <v>2400</v>
@@ -9980,13 +9990,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E83">
         <v>500</v>
@@ -10007,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L83">
         <v>5000</v>
@@ -10022,13 +10032,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -10049,7 +10059,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L84">
         <v>5000</v>
@@ -10064,13 +10074,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" t="s">
         <v>303</v>
-      </c>
-      <c r="D85" t="s">
-        <v>304</v>
       </c>
       <c r="E85">
         <v>500</v>
@@ -10091,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L85">
         <v>5000</v>
@@ -10106,13 +10116,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E86">
         <v>500</v>
@@ -10133,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L86">
         <v>5000</v>
@@ -10148,13 +10158,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
+        <v>337</v>
+      </c>
+      <c r="D87" t="s">
         <v>338</v>
-      </c>
-      <c r="D87" t="s">
-        <v>339</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -10175,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L87">
         <v>5000</v>
@@ -10190,13 +10200,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C88" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" t="s">
         <v>340</v>
-      </c>
-      <c r="D88" t="s">
-        <v>341</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -10217,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L88">
         <v>5000</v>
@@ -10232,13 +10242,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" t="s">
         <v>306</v>
-      </c>
-      <c r="D89" t="s">
-        <v>307</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -10259,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L89">
         <v>5000</v>
@@ -10274,13 +10284,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E90">
         <v>500</v>
@@ -10301,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L90">
         <v>5000</v>
@@ -10316,13 +10326,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" t="s">
         <v>333</v>
-      </c>
-      <c r="D91" t="s">
-        <v>334</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -10343,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L91">
         <v>5000</v>
@@ -10358,13 +10368,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
+        <v>334</v>
+      </c>
+      <c r="D92" t="s">
         <v>335</v>
-      </c>
-      <c r="D92" t="s">
-        <v>336</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -10385,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L92">
         <v>5000</v>
@@ -10402,10 +10412,10 @@
         <v>172</v>
       </c>
       <c r="C93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" t="s">
         <v>177</v>
-      </c>
-      <c r="D93" t="s">
-        <v>178</v>
       </c>
       <c r="E93">
         <v>500</v>
@@ -10426,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L93">
         <v>9000</v>
@@ -11020,10 +11030,10 @@
         <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C1C9CE-7420-43CC-8605-13F116338B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2064AEEA-48FE-4B7C-ABD5-8A9B402EF39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="1005" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2610" yWindow="720" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="348">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -399,28 +399,6 @@
   </si>
   <si>
     <t>recipibook_2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>集めろ！お菓子の材料～身の回り編～</t>
-    <rPh sb="0" eb="1">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヘン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6076,6 +6054,62 @@
     </rPh>
     <rPh sb="1020" eb="1021">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>集めろ！お菓子の材料～オランジーナ編～</t>
+    <rPh sb="0" eb="1">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オランジーナ近辺の採取地の情報が書かれてある。
+代表的なもの：
+春風の森・・・さくらの花、オレンジ、ぶどう、ナッツ、ミント、レモン、エメラルドシュガーなど
+ブルートパーズのお花畑・・・ラベンダーのお花、ジャスミンのお花など</t>
+    <rPh sb="6" eb="8">
+      <t>キンペン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サイシュチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ダイヒョウテキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ハルカゼ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ハナバタケ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ハナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6521,8 +6555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6567,7 +6601,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -6588,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -6630,7 +6664,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -6672,7 +6706,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -6714,7 +6748,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -6756,7 +6790,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -6783,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -6798,13 +6832,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>346</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -6824,8 +6858,8 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
-        <v>20</v>
+      <c r="K7" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="L7">
         <v>3000</v>
@@ -6840,13 +6874,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -6867,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8">
         <v>3020</v>
@@ -6882,13 +6916,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -6909,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L9">
         <v>3050</v>
@@ -6924,13 +6958,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -6951,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L10">
         <v>3070</v>
@@ -6966,13 +7000,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
         <v>173</v>
-      </c>
-      <c r="D11" t="s">
-        <v>174</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -6993,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L11">
         <v>3080</v>
@@ -7008,13 +7042,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -7035,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L12">
         <v>3090</v>
@@ -7050,13 +7084,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
         <v>188</v>
-      </c>
-      <c r="D13" t="s">
-        <v>189</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -7077,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L13">
         <v>3100</v>
@@ -7092,13 +7126,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -7119,7 +7153,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L14">
         <v>3010</v>
@@ -7137,10 +7171,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -7161,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L15">
         <v>3030</v>
@@ -7176,13 +7210,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -7203,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L16">
         <v>3040</v>
@@ -7218,13 +7252,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
         <v>96</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -7245,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L17">
         <v>3060</v>
@@ -7266,7 +7300,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -7287,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -7350,7 +7384,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -7371,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L20">
         <v>40</v>
@@ -7386,13 +7420,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
         <v>164</v>
-      </c>
-      <c r="C21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -7413,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -7455,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L22">
         <v>60</v>
@@ -7497,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23">
         <v>70</v>
@@ -7539,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L24">
         <v>80</v>
@@ -7560,7 +7594,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -7581,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -7623,7 +7657,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26">
         <v>100</v>
@@ -7722,13 +7756,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -7749,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L29">
         <v>130</v>
@@ -7764,13 +7798,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -7791,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L30">
         <v>140</v>
@@ -7806,7 +7840,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -7833,7 +7867,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -7848,13 +7882,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -7875,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L32">
         <v>210</v>
@@ -7890,13 +7924,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -7917,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L33">
         <v>220</v>
@@ -7932,13 +7966,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -7959,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L34">
         <v>230</v>
@@ -7974,13 +8008,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35">
         <v>500</v>
@@ -8001,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L35">
         <v>240</v>
@@ -8016,13 +8050,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -8043,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L36">
         <v>250</v>
@@ -8085,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L37">
         <v>260</v>
@@ -8100,13 +8134,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s">
         <v>167</v>
-      </c>
-      <c r="D38" t="s">
-        <v>168</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -8127,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -8142,13 +8176,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39">
         <v>500</v>
@@ -8169,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L39">
         <v>280</v>
@@ -8184,13 +8218,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -8211,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L40">
         <v>290</v>
@@ -8226,13 +8260,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -8253,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L41">
         <v>300</v>
@@ -8268,13 +8302,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E42" s="7">
         <v>500</v>
@@ -8295,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -8310,13 +8344,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E43" s="5">
         <v>500</v>
@@ -8337,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L43" s="5">
         <v>310</v>
@@ -8352,13 +8386,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44" s="5">
         <v>500</v>
@@ -8379,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L44" s="5">
         <v>320</v>
@@ -8394,13 +8428,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45" s="5">
         <v>500</v>
@@ -8421,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L45" s="5">
         <v>330</v>
@@ -8436,13 +8470,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E46" s="5">
         <v>500</v>
@@ -8463,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L46" s="5">
         <v>340</v>
@@ -8478,13 +8512,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E47" s="5">
         <v>500</v>
@@ -8505,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L47" s="5">
         <v>350</v>
@@ -8520,13 +8554,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E48" s="5">
         <v>500</v>
@@ -8547,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L48" s="5">
         <v>360</v>
@@ -8562,13 +8596,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E49" s="5">
         <v>500</v>
@@ -8589,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L49" s="5">
         <v>370</v>
@@ -8604,13 +8638,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E50" s="5">
         <v>500</v>
@@ -8631,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L50" s="5">
         <v>380</v>
@@ -8646,13 +8680,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" s="5">
         <v>500</v>
@@ -8673,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L51" s="5">
         <v>390</v>
@@ -8688,13 +8722,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="E52" s="5">
         <v>500</v>
@@ -8715,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -8730,13 +8764,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E53" s="5">
         <v>500</v>
@@ -8757,7 +8791,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L53" s="5">
         <v>410</v>
@@ -8772,13 +8806,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E54" s="5">
         <v>500</v>
@@ -8799,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L54" s="5">
         <v>500</v>
@@ -8814,13 +8848,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E55" s="5">
         <v>500</v>
@@ -8841,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L55" s="5">
         <v>510</v>
@@ -8856,13 +8890,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E56" s="5">
         <v>500</v>
@@ -8883,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L56" s="5">
         <v>520</v>
@@ -8898,13 +8932,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E57" s="5">
         <v>500</v>
@@ -8925,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L57" s="5">
         <v>530</v>
@@ -8940,13 +8974,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E58" s="5">
         <v>500</v>
@@ -8967,7 +9001,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L58" s="5">
         <v>540</v>
@@ -8982,13 +9016,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E59" s="5">
         <v>500</v>
@@ -9009,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L59" s="5">
         <v>550</v>
@@ -9024,13 +9058,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" s="5">
         <v>500</v>
@@ -9051,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L60" s="5">
         <v>560</v>
@@ -9066,13 +9100,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E61" s="5">
         <v>500</v>
@@ -9093,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L61" s="5">
         <v>570</v>
@@ -9108,13 +9142,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E62" s="5">
         <v>500</v>
@@ -9135,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L62" s="5">
         <v>580</v>
@@ -9150,13 +9184,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E63" s="5">
         <v>500</v>
@@ -9177,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L63" s="5">
         <v>590</v>
@@ -9192,13 +9226,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E64" s="9">
         <v>500</v>
@@ -9219,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L64" s="9">
         <v>600</v>
@@ -9234,13 +9268,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="E65" s="5">
         <v>500</v>
@@ -9261,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L65" s="5">
         <v>610</v>
@@ -9276,13 +9310,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E66" s="9">
         <v>500</v>
@@ -9303,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L66" s="9">
         <v>620</v>
@@ -9318,13 +9352,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E67" s="5">
         <v>500</v>
@@ -9345,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L67" s="5">
         <v>700</v>
@@ -9360,13 +9394,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E68" s="5">
         <v>500</v>
@@ -9387,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L68" s="5">
         <v>710</v>
@@ -9402,13 +9436,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E69" s="5">
         <v>500</v>
@@ -9429,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L69" s="5">
         <v>720</v>
@@ -9444,13 +9478,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E70" s="5">
         <v>500</v>
@@ -9471,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L70" s="5">
         <v>730</v>
@@ -9486,13 +9520,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E71" s="5">
         <v>500</v>
@@ -9513,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L71" s="5">
         <v>740</v>
@@ -9528,13 +9562,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E72" s="5">
         <v>500</v>
@@ -9555,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L72" s="5">
         <v>750</v>
@@ -9570,13 +9604,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E73" s="5">
         <v>500</v>
@@ -9597,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L73" s="5">
         <v>760</v>
@@ -9612,13 +9646,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E74" s="5">
         <v>500</v>
@@ -9639,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L74" s="5">
         <v>770</v>
@@ -9654,13 +9688,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E75" s="5">
         <v>500</v>
@@ -9681,7 +9715,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L75" s="5">
         <v>780</v>
@@ -9696,13 +9730,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E76" s="9">
         <v>500</v>
@@ -9723,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L76" s="9">
         <v>790</v>
@@ -9738,13 +9772,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -9765,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -9780,13 +9814,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E78" s="5">
         <v>500</v>
@@ -9807,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L78" s="5">
         <v>2000</v>
@@ -9822,13 +9856,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E79" s="5">
         <v>500</v>
@@ -9849,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L79" s="5">
         <v>2100</v>
@@ -9864,13 +9898,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -9891,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L80" s="5">
         <v>2200</v>
@@ -9906,13 +9940,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>
@@ -9933,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L81" s="5">
         <v>2300</v>
@@ -9948,13 +9982,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -9975,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L82" s="5">
         <v>2400</v>
@@ -9990,13 +10024,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E83">
         <v>500</v>
@@ -10017,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L83">
         <v>5000</v>
@@ -10032,13 +10066,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -10059,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L84">
         <v>5000</v>
@@ -10074,13 +10108,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" t="s">
         <v>302</v>
-      </c>
-      <c r="D85" t="s">
-        <v>303</v>
       </c>
       <c r="E85">
         <v>500</v>
@@ -10101,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L85">
         <v>5000</v>
@@ -10116,13 +10150,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E86">
         <v>500</v>
@@ -10143,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L86">
         <v>5000</v>
@@ -10158,13 +10192,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" t="s">
         <v>337</v>
-      </c>
-      <c r="D87" t="s">
-        <v>338</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -10185,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L87">
         <v>5000</v>
@@ -10200,13 +10234,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
+        <v>338</v>
+      </c>
+      <c r="D88" t="s">
         <v>339</v>
-      </c>
-      <c r="D88" t="s">
-        <v>340</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -10227,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L88">
         <v>5000</v>
@@ -10242,13 +10276,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" t="s">
         <v>305</v>
-      </c>
-      <c r="D89" t="s">
-        <v>306</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -10269,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L89">
         <v>5000</v>
@@ -10284,13 +10318,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E90">
         <v>500</v>
@@ -10311,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L90">
         <v>5000</v>
@@ -10326,13 +10360,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
+        <v>331</v>
+      </c>
+      <c r="D91" t="s">
         <v>332</v>
-      </c>
-      <c r="D91" t="s">
-        <v>333</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -10353,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L91">
         <v>5000</v>
@@ -10368,13 +10402,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C92" t="s">
+        <v>333</v>
+      </c>
+      <c r="D92" t="s">
         <v>334</v>
-      </c>
-      <c r="D92" t="s">
-        <v>335</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -10395,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L92">
         <v>5000</v>
@@ -10409,13 +10443,13 @@
         <v>10000</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C93" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" t="s">
         <v>176</v>
-      </c>
-      <c r="D93" t="s">
-        <v>177</v>
       </c>
       <c r="E93">
         <v>500</v>
@@ -10436,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L93">
         <v>9000</v>
@@ -10502,7 +10536,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -10523,13 +10557,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10550,7 +10584,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -10565,13 +10599,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10592,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -10607,13 +10641,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -10634,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L4">
         <v>9999</v>
@@ -10649,13 +10683,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10676,7 +10710,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L5">
         <v>9999</v>
@@ -10691,13 +10725,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -10718,7 +10752,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6">
         <v>9999</v>
@@ -10733,13 +10767,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10760,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L7">
         <v>9999</v>
@@ -10775,13 +10809,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10802,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8">
         <v>9999</v>
@@ -10817,13 +10851,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -10844,7 +10878,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -10859,13 +10893,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -10886,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L10">
         <v>9999</v>
@@ -10901,14 +10935,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
         <v>148</v>
       </c>
-      <c r="D11" t="s">
-        <v>149</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -10928,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L11">
         <v>9999</v>
@@ -10943,13 +10977,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -10970,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12">
         <v>9999</v>
@@ -10985,13 +11019,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -11012,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13">
         <v>9999</v>
@@ -11027,14 +11061,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
@@ -11054,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L14" s="4">
         <v>9999</v>
@@ -11072,10 +11106,10 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -11096,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <v>9999</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2064AEEA-48FE-4B7C-ABD5-8A9B402EF39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC7D96-4A5B-4645-B2C5-142B35C8AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="720" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2340" yWindow="1875" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -257,13 +257,6 @@
     <rPh sb="161" eb="163">
       <t>シア</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小麦粉と砂糖とバター
-&lt;color=#BA9535FF&gt;2 : 1 : 1 &lt;/color&gt;
-で混ぜると良いらしいぜ！
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6110,6 +6103,16 @@
     </rPh>
     <rPh sb="110" eb="111">
       <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小麦粉とバターと砂糖
+&lt;color=#BA9535FF&gt;2 : 2 : 1 &lt;/color&gt;
+で混ぜると良いらしいぜ！
+</t>
+    <rPh sb="8" eb="10">
+      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6556,7 +6559,7 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6601,7 +6604,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -6610,10 +6613,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6622,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -6664,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -6691,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -6706,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -6748,7 +6751,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -6790,13 +6793,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -6817,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -6832,13 +6835,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -6859,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L7">
         <v>3000</v>
@@ -6874,13 +6877,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -6901,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L8">
         <v>3020</v>
@@ -6916,13 +6919,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -6943,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9">
         <v>3050</v>
@@ -6958,13 +6961,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -6985,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L10">
         <v>3070</v>
@@ -7000,13 +7003,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
         <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>173</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -7027,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L11">
         <v>3080</v>
@@ -7042,13 +7045,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -7069,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12">
         <v>3090</v>
@@ -7084,13 +7087,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" t="s">
         <v>187</v>
-      </c>
-      <c r="D13" t="s">
-        <v>188</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -7111,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L13">
         <v>3100</v>
@@ -7126,13 +7129,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -7153,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14">
         <v>3010</v>
@@ -7171,10 +7174,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -7195,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15">
         <v>3030</v>
@@ -7210,13 +7213,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -7237,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L16">
         <v>3040</v>
@@ -7252,13 +7255,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -7279,7 +7282,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L17">
         <v>3060</v>
@@ -7300,7 +7303,7 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -7321,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -7384,7 +7387,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -7405,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20">
         <v>40</v>
@@ -7420,13 +7423,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" t="s">
         <v>163</v>
-      </c>
-      <c r="C21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" t="s">
-        <v>164</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -7447,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -7489,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L22">
         <v>60</v>
@@ -7531,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23">
         <v>70</v>
@@ -7573,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L24">
         <v>80</v>
@@ -7594,7 +7597,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -7615,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -7657,7 +7660,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L26">
         <v>100</v>
@@ -7672,13 +7675,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -7699,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27">
         <v>110</v>
@@ -7714,13 +7717,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28">
         <v>500</v>
@@ -7741,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28">
         <v>120</v>
@@ -7756,13 +7759,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E29">
         <v>500</v>
@@ -7783,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L29">
         <v>130</v>
@@ -7798,13 +7801,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30">
         <v>500</v>
@@ -7825,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L30">
         <v>140</v>
@@ -7840,7 +7843,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -7867,7 +7870,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L31">
         <v>200</v>
@@ -7882,13 +7885,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>500</v>
@@ -7909,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L32">
         <v>210</v>
@@ -7924,13 +7927,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33">
         <v>500</v>
@@ -7951,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L33">
         <v>220</v>
@@ -7966,13 +7969,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34">
         <v>500</v>
@@ -7993,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34">
         <v>230</v>
@@ -8008,13 +8011,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35">
         <v>500</v>
@@ -8035,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L35">
         <v>240</v>
@@ -8050,13 +8053,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36">
         <v>500</v>
@@ -8077,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L36">
         <v>250</v>
@@ -8119,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L37">
         <v>260</v>
@@ -8134,13 +8137,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" t="s">
         <v>166</v>
-      </c>
-      <c r="D38" t="s">
-        <v>167</v>
       </c>
       <c r="E38">
         <v>500</v>
@@ -8161,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -8176,13 +8179,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39">
         <v>500</v>
@@ -8203,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L39">
         <v>280</v>
@@ -8218,13 +8221,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -8245,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L40">
         <v>290</v>
@@ -8260,13 +8263,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -8287,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L41">
         <v>300</v>
@@ -8302,13 +8305,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" s="7">
         <v>500</v>
@@ -8329,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -8344,13 +8347,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E43" s="5">
         <v>500</v>
@@ -8371,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L43" s="5">
         <v>310</v>
@@ -8386,13 +8389,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E44" s="5">
         <v>500</v>
@@ -8413,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L44" s="5">
         <v>320</v>
@@ -8428,13 +8431,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E45" s="5">
         <v>500</v>
@@ -8455,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L45" s="5">
         <v>330</v>
@@ -8470,13 +8473,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="E46" s="5">
         <v>500</v>
@@ -8497,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L46" s="5">
         <v>340</v>
@@ -8512,13 +8515,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E47" s="5">
         <v>500</v>
@@ -8539,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L47" s="5">
         <v>350</v>
@@ -8554,13 +8557,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E48" s="5">
         <v>500</v>
@@ -8581,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L48" s="5">
         <v>360</v>
@@ -8596,13 +8599,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E49" s="5">
         <v>500</v>
@@ -8623,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L49" s="5">
         <v>370</v>
@@ -8638,13 +8641,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E50" s="5">
         <v>500</v>
@@ -8665,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L50" s="5">
         <v>380</v>
@@ -8680,13 +8683,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E51" s="5">
         <v>500</v>
@@ -8707,7 +8710,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L51" s="5">
         <v>390</v>
@@ -8722,13 +8725,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E52" s="5">
         <v>500</v>
@@ -8749,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L52" s="5">
         <v>400</v>
@@ -8764,13 +8767,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E53" s="5">
         <v>500</v>
@@ -8791,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L53" s="5">
         <v>410</v>
@@ -8806,13 +8809,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E54" s="5">
         <v>500</v>
@@ -8833,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L54" s="5">
         <v>500</v>
@@ -8848,13 +8851,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="5">
         <v>500</v>
@@ -8875,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L55" s="5">
         <v>510</v>
@@ -8890,13 +8893,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E56" s="5">
         <v>500</v>
@@ -8917,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L56" s="5">
         <v>520</v>
@@ -8932,13 +8935,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" s="5">
         <v>500</v>
@@ -8959,7 +8962,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L57" s="5">
         <v>530</v>
@@ -8974,13 +8977,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E58" s="5">
         <v>500</v>
@@ -9001,7 +9004,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L58" s="5">
         <v>540</v>
@@ -9016,13 +9019,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E59" s="5">
         <v>500</v>
@@ -9043,7 +9046,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L59" s="5">
         <v>550</v>
@@ -9058,13 +9061,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E60" s="5">
         <v>500</v>
@@ -9085,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L60" s="5">
         <v>560</v>
@@ -9100,13 +9103,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E61" s="5">
         <v>500</v>
@@ -9127,7 +9130,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L61" s="5">
         <v>570</v>
@@ -9142,13 +9145,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E62" s="5">
         <v>500</v>
@@ -9169,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L62" s="5">
         <v>580</v>
@@ -9184,13 +9187,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E63" s="5">
         <v>500</v>
@@ -9211,7 +9214,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L63" s="5">
         <v>590</v>
@@ -9226,13 +9229,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E64" s="9">
         <v>500</v>
@@ -9253,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L64" s="9">
         <v>600</v>
@@ -9268,13 +9271,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E65" s="5">
         <v>500</v>
@@ -9295,7 +9298,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L65" s="5">
         <v>610</v>
@@ -9310,13 +9313,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E66" s="9">
         <v>500</v>
@@ -9337,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L66" s="9">
         <v>620</v>
@@ -9352,13 +9355,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E67" s="5">
         <v>500</v>
@@ -9379,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L67" s="5">
         <v>700</v>
@@ -9394,13 +9397,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E68" s="5">
         <v>500</v>
@@ -9421,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L68" s="5">
         <v>710</v>
@@ -9436,13 +9439,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E69" s="5">
         <v>500</v>
@@ -9463,7 +9466,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L69" s="5">
         <v>720</v>
@@ -9478,13 +9481,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E70" s="5">
         <v>500</v>
@@ -9505,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L70" s="5">
         <v>730</v>
@@ -9520,13 +9523,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="E71" s="5">
         <v>500</v>
@@ -9547,7 +9550,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L71" s="5">
         <v>740</v>
@@ -9562,13 +9565,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E72" s="5">
         <v>500</v>
@@ -9589,7 +9592,7 @@
         <v>1</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L72" s="5">
         <v>750</v>
@@ -9604,13 +9607,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E73" s="5">
         <v>500</v>
@@ -9631,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L73" s="5">
         <v>760</v>
@@ -9646,13 +9649,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E74" s="5">
         <v>500</v>
@@ -9673,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L74" s="5">
         <v>770</v>
@@ -9688,13 +9691,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E75" s="5">
         <v>500</v>
@@ -9715,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L75" s="5">
         <v>780</v>
@@ -9730,13 +9733,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E76" s="9">
         <v>500</v>
@@ -9757,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L76" s="9">
         <v>790</v>
@@ -9772,13 +9775,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -9799,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -9814,13 +9817,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E78" s="5">
         <v>500</v>
@@ -9841,7 +9844,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L78" s="5">
         <v>2000</v>
@@ -9856,13 +9859,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E79" s="5">
         <v>500</v>
@@ -9883,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L79" s="5">
         <v>2100</v>
@@ -9898,13 +9901,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -9925,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L80" s="5">
         <v>2200</v>
@@ -9940,13 +9943,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>
@@ -9967,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L81" s="5">
         <v>2300</v>
@@ -9982,13 +9985,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -10009,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L82" s="5">
         <v>2400</v>
@@ -10024,13 +10027,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E83">
         <v>500</v>
@@ -10051,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L83">
         <v>5000</v>
@@ -10066,13 +10069,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -10093,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L84">
         <v>5000</v>
@@ -10108,13 +10111,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
+        <v>300</v>
+      </c>
+      <c r="D85" t="s">
         <v>301</v>
-      </c>
-      <c r="D85" t="s">
-        <v>302</v>
       </c>
       <c r="E85">
         <v>500</v>
@@ -10135,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L85">
         <v>5000</v>
@@ -10150,13 +10153,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E86">
         <v>500</v>
@@ -10177,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L86">
         <v>5000</v>
@@ -10192,13 +10195,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" t="s">
         <v>336</v>
-      </c>
-      <c r="D87" t="s">
-        <v>337</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -10219,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L87">
         <v>5000</v>
@@ -10234,13 +10237,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88" t="s">
         <v>338</v>
-      </c>
-      <c r="D88" t="s">
-        <v>339</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -10261,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L88">
         <v>5000</v>
@@ -10276,13 +10279,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
+        <v>303</v>
+      </c>
+      <c r="D89" t="s">
         <v>304</v>
-      </c>
-      <c r="D89" t="s">
-        <v>305</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -10303,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L89">
         <v>5000</v>
@@ -10318,13 +10321,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E90">
         <v>500</v>
@@ -10345,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L90">
         <v>5000</v>
@@ -10360,13 +10363,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
+        <v>330</v>
+      </c>
+      <c r="D91" t="s">
         <v>331</v>
-      </c>
-      <c r="D91" t="s">
-        <v>332</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -10387,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L91">
         <v>5000</v>
@@ -10402,13 +10405,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" t="s">
+        <v>332</v>
+      </c>
+      <c r="D92" t="s">
         <v>333</v>
-      </c>
-      <c r="D92" t="s">
-        <v>334</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -10429,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L92">
         <v>5000</v>
@@ -10443,13 +10446,13 @@
         <v>10000</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
         <v>175</v>
-      </c>
-      <c r="D93" t="s">
-        <v>176</v>
       </c>
       <c r="E93">
         <v>500</v>
@@ -10470,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L93">
         <v>9000</v>
@@ -10536,7 +10539,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -10545,10 +10548,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -10557,13 +10560,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10584,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2">
         <v>9999</v>
@@ -10599,13 +10602,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10626,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -10641,13 +10644,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -10668,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L4">
         <v>9999</v>
@@ -10683,13 +10686,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10710,7 +10713,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L5">
         <v>9999</v>
@@ -10725,13 +10728,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -10752,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6">
         <v>9999</v>
@@ -10767,13 +10770,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -10794,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7">
         <v>9999</v>
@@ -10809,13 +10812,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -10836,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L8">
         <v>9999</v>
@@ -10851,13 +10854,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -10878,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9">
         <v>9999</v>
@@ -10893,13 +10896,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -10920,7 +10923,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10">
         <v>9999</v>
@@ -10935,14 +10938,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
         <v>147</v>
       </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11">
         <v>9999</v>
@@ -10977,13 +10980,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -11004,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12">
         <v>9999</v>
@@ -11019,13 +11022,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -11046,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13">
         <v>9999</v>
@@ -11061,14 +11064,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
@@ -11088,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="4">
         <v>9999</v>
@@ -11106,10 +11109,10 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -11130,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15">
         <v>9999</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CC7D96-4A5B-4645-B2C5-142B35C8AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A2EAC-0A2B-451B-BFAF-208042F635A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1875" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="428">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -4454,29 +4454,6 @@
   </si>
   <si>
     <t>###</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄色は、まだcompoDBに入れてない
-オレンジは、compoDBは入れた。Utageの感想・アイコン画像は入れていない。</t>
-    <rPh sb="0" eb="2">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>イ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6116,6 +6093,460 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>mg_bake_beans_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豆焼きの本</t>
+    <rPh sb="0" eb="2">
+      <t>マメヤ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンパリングの本</t>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_chocolatetempering_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドアークの本</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_windarc_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_heart_of_icecream_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイスの気持ちの本</t>
+    <rPh sb="4" eb="6">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェラートフリーズの本</t>
+    <rPh sb="10" eb="11">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_freezing_overrun_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バタフライルミネの本</t>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_buttelfy_illumination_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPリジェネレートの本</t>
+    <rPh sb="10" eb="11">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_mp_regenaration_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナッペの本</t>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アパレイユのお勉強の本</t>
+    <rPh sb="7" eb="9">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_nappe_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_appaleil_study_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドロールの本</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドペンシルの本</t>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_windroll_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_windpencil_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フローティングの本</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バブルミストの本</t>
+    <rPh sb="7" eb="8">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_float_material_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_bubblemist_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>造形の本</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_statue_of_material_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天体観測の本</t>
+    <rPh sb="0" eb="4">
+      <t>テンタイカンソク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_star_gazer_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スターブレッシングの本</t>
+    <rPh sb="10" eb="11">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_star_blessing_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラテアートの本</t>
+    <rPh sb="6" eb="7">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ムーンライトバナナの本</t>
+    <rPh sb="10" eb="11">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジックソーダの本</t>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_latte_art_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_moonlight_banana_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_magic_soda_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物栽培の本</t>
+    <rPh sb="0" eb="4">
+      <t>ショクブツサイバイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_plant_growth_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムイリュージョンの本</t>
+    <rPh sb="11" eb="12">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リターンの本</t>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_time_illusion_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手作りの温もりの本</t>
+    <rPh sb="0" eb="2">
+      <t>テヅク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヌク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_warming_handmade_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライフストリームの本</t>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_life_stream_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アブタラカブタラの本</t>
+    <rPh sb="9" eb="10">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_abracadabra_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミラボーの召喚の本</t>
+    <rPh sb="5" eb="7">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_summon_mirabo_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mg_time_return_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/recipibook_magic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/chocolate_black</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/soda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/cola</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/cheese_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/strawberry_sponge_cake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/mont_blanc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/sachertorte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/opera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/bush_de_noel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/forget_me_not</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/affo_gato</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/chocolate_banana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/potato_butter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/gelato</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/cream_brulee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/maritozzo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/brioche</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/milfiyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/langue_de_chat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/roll_cookie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/pan_cake_souffle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/huwakoro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/apple_pie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/confiserie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/biscuit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/mizuame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色は、まだcompoDBに入れてない
+オレンジは、compoDBは入れた。Utageの感想は入れていない。薄い水色は、画像もまだ。</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/apple_candy</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -6158,7 +6589,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6195,6 +6626,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6210,7 +6647,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6240,6 +6677,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6556,10 +7005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6621,7 +7070,7 @@
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A92" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A118" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -6694,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -6841,7 +7290,7 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -6862,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L7">
         <v>3000</v>
@@ -8164,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -8332,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -8347,7 +8796,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>197</v>
+        <v>400</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>200</v>
@@ -8389,7 +8838,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>197</v>
+        <v>401</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>205</v>
@@ -8431,7 +8880,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>197</v>
+        <v>402</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>208</v>
@@ -8473,7 +8922,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>210</v>
@@ -8515,7 +8964,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>284</v>
@@ -8542,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L47" s="5">
         <v>350</v>
@@ -8557,7 +9006,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>197</v>
+        <v>405</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>285</v>
@@ -8584,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L48" s="5">
         <v>360</v>
@@ -8599,13 +9048,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>197</v>
+        <v>406</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E49" s="5">
         <v>500</v>
@@ -8626,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L49" s="5">
         <v>370</v>
@@ -8641,13 +9090,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E50" s="5">
         <v>500</v>
@@ -8668,7 +9117,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L50" s="5">
         <v>380</v>
@@ -8683,7 +9132,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>197</v>
+        <v>408</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>294</v>
@@ -8710,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L51" s="5">
         <v>390</v>
@@ -8719,45 +9168,45 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="5">
+    <row r="52" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="13">
         <v>500</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="13">
         <v>150</v>
       </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5">
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
         <v>1</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="13">
         <v>400</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="13">
         <v>400</v>
       </c>
     </row>
@@ -8767,7 +9216,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>197</v>
+        <v>409</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>215</v>
@@ -8809,7 +9258,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>217</v>
@@ -8851,7 +9300,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>219</v>
@@ -8893,7 +9342,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>197</v>
+        <v>427</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>222</v>
@@ -8935,7 +9384,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>197</v>
+        <v>412</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>223</v>
@@ -9019,7 +9468,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>197</v>
+        <v>413</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>228</v>
@@ -9061,7 +9510,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>229</v>
@@ -9103,7 +9552,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>197</v>
+        <v>415</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>233</v>
@@ -9145,7 +9594,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>197</v>
+        <v>416</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>232</v>
@@ -9187,7 +9636,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>197</v>
+        <v>417</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>235</v>
@@ -9265,45 +9714,45 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="5">
+    <row r="65" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="13">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="13">
         <v>500</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="13">
         <v>150</v>
       </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" s="13">
+        <v>0</v>
+      </c>
+      <c r="J65" s="13">
         <v>1</v>
       </c>
-      <c r="K65" s="6" t="s">
+      <c r="K65" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="13">
         <v>610</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="13">
         <v>610</v>
       </c>
     </row>
@@ -9316,10 +9765,10 @@
         <v>197</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E66" s="9">
         <v>500</v>
@@ -9340,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L66" s="9">
         <v>620</v>
@@ -9355,7 +9804,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>242</v>
@@ -9397,7 +9846,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>197</v>
+        <v>419</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>277</v>
@@ -9439,7 +9888,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>197</v>
+        <v>420</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>244</v>
@@ -9481,7 +9930,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>197</v>
+        <v>421</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>246</v>
@@ -9523,7 +9972,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>247</v>
@@ -9565,7 +10014,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>197</v>
+        <v>423</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>254</v>
@@ -9607,7 +10056,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>197</v>
+        <v>424</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>250</v>
@@ -9649,7 +10098,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>197</v>
+        <v>425</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>280</v>
@@ -9685,45 +10134,45 @@
         <v>770</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="5">
+    <row r="75" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="13">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="13">
         <v>500</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="13">
         <v>150</v>
       </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5">
-        <v>0</v>
-      </c>
-      <c r="J75" s="5">
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13">
+        <v>0</v>
+      </c>
+      <c r="J75" s="13">
         <v>1</v>
       </c>
-      <c r="K75" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="L75" s="5">
+      <c r="K75" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="L75" s="13">
         <v>780</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="13">
         <v>780</v>
       </c>
     </row>
@@ -9802,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -9823,7 +10272,7 @@
         <v>309</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E78" s="5">
         <v>500</v>
@@ -9865,7 +10314,7 @@
         <v>311</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E79" s="5">
         <v>500</v>
@@ -9907,7 +10356,7 @@
         <v>312</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -9949,7 +10398,7 @@
         <v>313</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>
@@ -9991,7 +10440,7 @@
         <v>314</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -10027,7 +10476,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="C83" t="s">
         <v>297</v>
@@ -10069,13 +10518,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -10105,129 +10554,129 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85">
+    <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="11">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
-      </c>
-      <c r="C85" t="s">
-        <v>300</v>
-      </c>
-      <c r="D85" t="s">
-        <v>301</v>
-      </c>
-      <c r="E85">
+        <v>399</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E85" s="11">
         <v>500</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="11">
         <v>150</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>0</v>
+      </c>
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="11">
         <v>5000</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86">
+    <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="11">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
-      </c>
-      <c r="C86" t="s">
-        <v>306</v>
-      </c>
-      <c r="D86" t="s">
-        <v>305</v>
-      </c>
-      <c r="E86">
+        <v>399</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E86" s="11">
         <v>500</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="11">
         <v>150</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0</v>
+      </c>
+      <c r="K86" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="11">
         <v>5000</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87">
+    <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="11">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" t="s">
-        <v>335</v>
-      </c>
-      <c r="D87" t="s">
-        <v>336</v>
-      </c>
-      <c r="E87">
+        <v>399</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E87" s="11">
         <v>500</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="11">
         <v>150</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>0</v>
+      </c>
+      <c r="J87" s="11">
+        <v>0</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="11">
         <v>5000</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -10237,13 +10686,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="C88" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="D88" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -10279,13 +10728,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -10315,87 +10764,87 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90">
+    <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="11">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" t="s">
-        <v>308</v>
-      </c>
-      <c r="D90" t="s">
-        <v>307</v>
-      </c>
-      <c r="E90">
+        <v>399</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" s="11">
         <v>500</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="11">
         <v>150</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="11">
         <v>5000</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="11">
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91">
+    <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="11">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
-      </c>
-      <c r="C91" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" t="s">
-        <v>331</v>
-      </c>
-      <c r="E91">
+        <v>399</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E91" s="11">
         <v>500</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="11">
         <v>150</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="11">
         <v>5000</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="11">
         <v>5000</v>
       </c>
     </row>
@@ -10405,13 +10854,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D92" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -10441,44 +10890,1136 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93">
+    <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="11">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>399</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E93" s="11">
+        <v>500</v>
+      </c>
+      <c r="F93" s="11">
+        <v>150</v>
+      </c>
+      <c r="G93" s="11">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0</v>
+      </c>
+      <c r="J93" s="11">
+        <v>0</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L93" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M93" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94">
+        <v>500</v>
+      </c>
+      <c r="F94">
+        <v>150</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L94">
+        <v>5000</v>
+      </c>
+      <c r="M94">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="11">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>399</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="11">
+        <v>500</v>
+      </c>
+      <c r="F95" s="11">
+        <v>150</v>
+      </c>
+      <c r="G95" s="11">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>0</v>
+      </c>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L95" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M95" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="11">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E96" s="11">
+        <v>500</v>
+      </c>
+      <c r="F96" s="11">
+        <v>150</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>0</v>
+      </c>
+      <c r="J96" s="11">
+        <v>0</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L96" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M96" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="11">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>399</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="E97" s="11">
+        <v>500</v>
+      </c>
+      <c r="F97" s="11">
+        <v>150</v>
+      </c>
+      <c r="G97" s="11">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>0</v>
+      </c>
+      <c r="J97" s="11">
+        <v>0</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L97" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M97" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="11">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>399</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E98" s="11">
+        <v>500</v>
+      </c>
+      <c r="F98" s="11">
+        <v>150</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L98" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M98" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99">
+        <v>500</v>
+      </c>
+      <c r="F99">
+        <v>150</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L99">
+        <v>5000</v>
+      </c>
+      <c r="M99">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="11">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E100" s="11">
+        <v>500</v>
+      </c>
+      <c r="F100" s="11">
+        <v>150</v>
+      </c>
+      <c r="G100" s="11">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L100" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M100" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="11">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>399</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E101" s="11">
+        <v>500</v>
+      </c>
+      <c r="F101" s="11">
+        <v>150</v>
+      </c>
+      <c r="G101" s="11">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11">
+        <v>0</v>
+      </c>
+      <c r="J101" s="11">
+        <v>0</v>
+      </c>
+      <c r="K101" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L101" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M101" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E102" s="11">
+        <v>500</v>
+      </c>
+      <c r="F102" s="11">
+        <v>150</v>
+      </c>
+      <c r="G102" s="11">
+        <v>0</v>
+      </c>
+      <c r="H102" s="11">
+        <v>0</v>
+      </c>
+      <c r="I102" s="11">
+        <v>0</v>
+      </c>
+      <c r="J102" s="11">
+        <v>0</v>
+      </c>
+      <c r="K102" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L102" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M102" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="11">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>399</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E103" s="11">
+        <v>500</v>
+      </c>
+      <c r="F103" s="11">
+        <v>150</v>
+      </c>
+      <c r="G103" s="11">
+        <v>0</v>
+      </c>
+      <c r="H103" s="11">
+        <v>0</v>
+      </c>
+      <c r="I103" s="11">
+        <v>0</v>
+      </c>
+      <c r="J103" s="11">
+        <v>0</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L103" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M103" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="11">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>399</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E104" s="11">
+        <v>500</v>
+      </c>
+      <c r="F104" s="11">
+        <v>150</v>
+      </c>
+      <c r="G104" s="11">
+        <v>0</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
+        <v>0</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L104" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M104" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="11">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>399</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E105" s="11">
+        <v>500</v>
+      </c>
+      <c r="F105" s="11">
+        <v>150</v>
+      </c>
+      <c r="G105" s="11">
+        <v>0</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
+      </c>
+      <c r="I105" s="11">
+        <v>0</v>
+      </c>
+      <c r="J105" s="11">
+        <v>0</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L105" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M105" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="11">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>399</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E106" s="11">
+        <v>500</v>
+      </c>
+      <c r="F106" s="11">
+        <v>150</v>
+      </c>
+      <c r="G106" s="11">
+        <v>0</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0</v>
+      </c>
+      <c r="I106" s="11">
+        <v>0</v>
+      </c>
+      <c r="J106" s="11">
+        <v>0</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L106" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M106" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="11">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>399</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E107" s="11">
+        <v>500</v>
+      </c>
+      <c r="F107" s="11">
+        <v>150</v>
+      </c>
+      <c r="G107" s="11">
+        <v>0</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0</v>
+      </c>
+      <c r="I107" s="11">
+        <v>0</v>
+      </c>
+      <c r="J107" s="11">
+        <v>0</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L107" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M107" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="11">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>399</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E108" s="11">
+        <v>500</v>
+      </c>
+      <c r="F108" s="11">
+        <v>150</v>
+      </c>
+      <c r="G108" s="11">
+        <v>0</v>
+      </c>
+      <c r="H108" s="11">
+        <v>0</v>
+      </c>
+      <c r="I108" s="11">
+        <v>0</v>
+      </c>
+      <c r="J108" s="11">
+        <v>0</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L108" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M108" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="11">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109" s="11">
+        <v>500</v>
+      </c>
+      <c r="F109" s="11">
+        <v>150</v>
+      </c>
+      <c r="G109" s="11">
+        <v>0</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0</v>
+      </c>
+      <c r="I109" s="11">
+        <v>0</v>
+      </c>
+      <c r="J109" s="11">
+        <v>0</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L109" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M109" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>399</v>
+      </c>
+      <c r="C110" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>337</v>
+      </c>
+      <c r="E110">
+        <v>500</v>
+      </c>
+      <c r="F110">
+        <v>150</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L110">
+        <v>5000</v>
+      </c>
+      <c r="M110">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" t="s">
+        <v>329</v>
+      </c>
+      <c r="D111" t="s">
+        <v>330</v>
+      </c>
+      <c r="E111">
+        <v>500</v>
+      </c>
+      <c r="F111">
+        <v>150</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L111">
+        <v>5000</v>
+      </c>
+      <c r="M111">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="11">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E112" s="11">
+        <v>500</v>
+      </c>
+      <c r="F112" s="11">
+        <v>150</v>
+      </c>
+      <c r="G112" s="11">
+        <v>0</v>
+      </c>
+      <c r="H112" s="11">
+        <v>0</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L112" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M112" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="11">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>399</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E113" s="11">
+        <v>500</v>
+      </c>
+      <c r="F113" s="11">
+        <v>150</v>
+      </c>
+      <c r="G113" s="11">
+        <v>0</v>
+      </c>
+      <c r="H113" s="11">
+        <v>0</v>
+      </c>
+      <c r="I113" s="11">
+        <v>0</v>
+      </c>
+      <c r="J113" s="11">
+        <v>0</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L113" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M113" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="11">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>399</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="E114" s="11">
+        <v>500</v>
+      </c>
+      <c r="F114" s="11">
+        <v>150</v>
+      </c>
+      <c r="G114" s="11">
+        <v>0</v>
+      </c>
+      <c r="H114" s="11">
+        <v>0</v>
+      </c>
+      <c r="I114" s="11">
+        <v>0</v>
+      </c>
+      <c r="J114" s="11">
+        <v>0</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L114" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M114" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="11">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>399</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="E115" s="11">
+        <v>500</v>
+      </c>
+      <c r="F115" s="11">
+        <v>150</v>
+      </c>
+      <c r="G115" s="11">
+        <v>0</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
+      </c>
+      <c r="I115" s="11">
+        <v>0</v>
+      </c>
+      <c r="J115" s="11">
+        <v>0</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L115" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M115" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="11">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>399</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="E116" s="11">
+        <v>500</v>
+      </c>
+      <c r="F116" s="11">
+        <v>150</v>
+      </c>
+      <c r="G116" s="11">
+        <v>0</v>
+      </c>
+      <c r="H116" s="11">
+        <v>0</v>
+      </c>
+      <c r="I116" s="11">
+        <v>0</v>
+      </c>
+      <c r="J116" s="11">
+        <v>0</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L116" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M116" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="11">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>399</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E117" s="11">
+        <v>500</v>
+      </c>
+      <c r="F117" s="11">
+        <v>150</v>
+      </c>
+      <c r="G117" s="11">
+        <v>0</v>
+      </c>
+      <c r="H117" s="11">
+        <v>0</v>
+      </c>
+      <c r="I117" s="11">
+        <v>0</v>
+      </c>
+      <c r="J117" s="11">
+        <v>0</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="L117" s="11">
+        <v>5000</v>
+      </c>
+      <c r="M117" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>399</v>
+      </c>
+      <c r="C118" t="s">
+        <v>331</v>
+      </c>
+      <c r="D118" t="s">
+        <v>332</v>
+      </c>
+      <c r="E118">
+        <v>500</v>
+      </c>
+      <c r="F118">
+        <v>150</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L118">
+        <v>5000</v>
+      </c>
+      <c r="M118">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119">
         <v>10000</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B119" t="s">
         <v>170</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C119" t="s">
         <v>174</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D119" t="s">
         <v>175</v>
       </c>
-      <c r="E93">
+      <c r="E119">
         <v>500</v>
       </c>
-      <c r="F93">
+      <c r="F119">
         <v>150</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
         <v>1</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="L93">
+      <c r="L119">
         <v>9000</v>
       </c>
-      <c r="M93">
+      <c r="M119">
         <v>9000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1A2EAC-0A2B-451B-BFAF-208042F635A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B2C28-1CF0-4173-941F-1D24426DD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="2700" yWindow="1215" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="430">
   <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
@@ -6515,8 +6515,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Items/apple_candy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>黄色は、まだcompoDBに入れてない
-オレンジは、compoDBは入れた。Utageの感想は入れていない。薄い水色は、画像もまだ。</t>
+オレンジは、compoDBは入れた。Utageの感想は入れていない。薄い水色は、CompoはOKで画像、感想がまだ。</t>
     <rPh sb="0" eb="2">
       <t>キイロ</t>
     </rPh>
@@ -6538,13 +6542,20 @@
     <rPh sb="56" eb="58">
       <t>ミズイロ</t>
     </rPh>
-    <rPh sb="60" eb="62">
+    <rPh sb="69" eb="71">
       <t>ガゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Items/apple_candy</t>
+    <rPh sb="72" eb="74">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/chocolate_aquamarine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Items/patipati_soda</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6647,7 +6658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6677,12 +6688,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
@@ -7007,8 +7012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8781,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -9168,45 +9173,45 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="13">
+    <row r="52" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="11">
         <v>500</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="11">
         <v>150</v>
       </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="13">
-        <v>0</v>
-      </c>
-      <c r="J52" s="13">
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
         <v>1</v>
       </c>
-      <c r="K52" s="14" t="s">
+      <c r="K52" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L52" s="11">
         <v>400</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="11">
         <v>400</v>
       </c>
     </row>
@@ -9342,7 +9347,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>222</v>
@@ -9714,45 +9719,45 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="13">
+    <row r="65" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="5">
         <v>500</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="5">
         <v>150</v>
       </c>
-      <c r="G65" s="13">
-        <v>0</v>
-      </c>
-      <c r="H65" s="13">
-        <v>0</v>
-      </c>
-      <c r="I65" s="13">
-        <v>0</v>
-      </c>
-      <c r="J65" s="13">
+      <c r="G65" s="5">
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
         <v>1</v>
       </c>
-      <c r="K65" s="14" t="s">
+      <c r="K65" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L65" s="5">
         <v>610</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M65" s="5">
         <v>610</v>
       </c>
     </row>
@@ -10134,45 +10139,45 @@
         <v>770</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="13">
+    <row r="75" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="5">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="13" t="s">
+      <c r="B75" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="5">
         <v>500</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="5">
         <v>150</v>
       </c>
-      <c r="G75" s="13">
-        <v>0</v>
-      </c>
-      <c r="H75" s="13">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13">
-        <v>0</v>
-      </c>
-      <c r="J75" s="13">
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
         <v>1</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L75" s="5">
         <v>780</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M75" s="5">
         <v>780</v>
       </c>
     </row>
@@ -10554,129 +10559,129 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="11">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>399</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" t="s">
         <v>358</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" t="s">
         <v>357</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85">
         <v>500</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85">
         <v>150</v>
       </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
-        <v>0</v>
-      </c>
-      <c r="J85" s="11">
-        <v>0</v>
-      </c>
-      <c r="K85" s="12" t="s">
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L85">
         <v>5000</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M85">
         <v>5000</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="11">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>399</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" t="s">
         <v>360</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" t="s">
         <v>359</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86">
         <v>500</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86">
         <v>150</v>
       </c>
-      <c r="G86" s="11">
-        <v>0</v>
-      </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
-        <v>0</v>
-      </c>
-      <c r="J86" s="11">
-        <v>0</v>
-      </c>
-      <c r="K86" s="12" t="s">
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86">
         <v>5000</v>
       </c>
-      <c r="M86" s="11">
+      <c r="M86">
         <v>5000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="11">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>399</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" t="s">
         <v>397</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" t="s">
         <v>396</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87">
         <v>500</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87">
         <v>150</v>
       </c>
-      <c r="G87" s="11">
-        <v>0</v>
-      </c>
-      <c r="H87" s="11">
-        <v>0</v>
-      </c>
-      <c r="I87" s="11">
-        <v>0</v>
-      </c>
-      <c r="J87" s="11">
-        <v>0</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L87">
         <v>5000</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M87">
         <v>5000</v>
       </c>
     </row>
@@ -10764,87 +10769,87 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="11">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>399</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" t="s">
         <v>347</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" t="s">
         <v>348</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90">
         <v>500</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90">
         <v>150</v>
       </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>0</v>
-      </c>
-      <c r="J90" s="11">
-        <v>0</v>
-      </c>
-      <c r="K90" s="12" t="s">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L90">
         <v>5000</v>
       </c>
-      <c r="M90" s="11">
+      <c r="M90">
         <v>5000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="11">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>399</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" t="s">
         <v>350</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" t="s">
         <v>349</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91">
         <v>500</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91">
         <v>150</v>
       </c>
-      <c r="G91" s="11">
-        <v>0</v>
-      </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
-        <v>0</v>
-      </c>
-      <c r="J91" s="11">
-        <v>0</v>
-      </c>
-      <c r="K91" s="12" t="s">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L91" s="11">
+      <c r="L91">
         <v>5000</v>
       </c>
-      <c r="M91" s="11">
+      <c r="M91">
         <v>5000</v>
       </c>
     </row>
@@ -10890,45 +10895,45 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="93" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="11">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>399</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" t="s">
         <v>353</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" t="s">
         <v>354</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93">
         <v>500</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93">
         <v>150</v>
       </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
-        <v>0</v>
-      </c>
-      <c r="J93" s="11">
-        <v>0</v>
-      </c>
-      <c r="K93" s="12" t="s">
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L93">
         <v>5000</v>
       </c>
-      <c r="M93" s="11">
+      <c r="M93">
         <v>5000</v>
       </c>
     </row>
@@ -10974,171 +10979,171 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="11">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>399</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" t="s">
         <v>356</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" t="s">
         <v>355</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95">
         <v>500</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95">
         <v>150</v>
       </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11">
-        <v>0</v>
-      </c>
-      <c r="J95" s="11">
-        <v>0</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L95" s="11">
+      <c r="L95">
         <v>5000</v>
       </c>
-      <c r="M95" s="11">
+      <c r="M95">
         <v>5000</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="11">
+    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>399</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" t="s">
         <v>363</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" t="s">
         <v>361</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96">
         <v>500</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96">
         <v>150</v>
       </c>
-      <c r="G96" s="11">
-        <v>0</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
-        <v>0</v>
-      </c>
-      <c r="J96" s="11">
-        <v>0</v>
-      </c>
-      <c r="K96" s="12" t="s">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L96" s="11">
+      <c r="L96">
         <v>5000</v>
       </c>
-      <c r="M96" s="11">
+      <c r="M96">
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="11">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>399</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" t="s">
         <v>364</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" t="s">
         <v>362</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97">
         <v>500</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97">
         <v>150</v>
       </c>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
-        <v>0</v>
-      </c>
-      <c r="J97" s="11">
-        <v>0</v>
-      </c>
-      <c r="K97" s="12" t="s">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L97" s="11">
+      <c r="L97">
         <v>5000</v>
       </c>
-      <c r="M97" s="11">
+      <c r="M97">
         <v>5000</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="11">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>399</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" t="s">
         <v>352</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" t="s">
         <v>351</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98">
         <v>500</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98">
         <v>150</v>
       </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
-        <v>0</v>
-      </c>
-      <c r="J98" s="11">
-        <v>0</v>
-      </c>
-      <c r="K98" s="12" t="s">
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L98" s="11">
+      <c r="L98">
         <v>5000</v>
       </c>
-      <c r="M98" s="11">
+      <c r="M98">
         <v>5000</v>
       </c>
     </row>
@@ -11184,423 +11189,423 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="11">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>399</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" t="s">
         <v>367</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" t="s">
         <v>365</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100">
         <v>500</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100">
         <v>150</v>
       </c>
-      <c r="G100" s="11">
-        <v>0</v>
-      </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
-        <v>0</v>
-      </c>
-      <c r="J100" s="11">
-        <v>0</v>
-      </c>
-      <c r="K100" s="12" t="s">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L100" s="11">
+      <c r="L100">
         <v>5000</v>
       </c>
-      <c r="M100" s="11">
+      <c r="M100">
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="11">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>399</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" t="s">
         <v>368</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" t="s">
         <v>366</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101">
         <v>500</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101">
         <v>150</v>
       </c>
-      <c r="G101" s="11">
-        <v>0</v>
-      </c>
-      <c r="H101" s="11">
-        <v>0</v>
-      </c>
-      <c r="I101" s="11">
-        <v>0</v>
-      </c>
-      <c r="J101" s="11">
-        <v>0</v>
-      </c>
-      <c r="K101" s="12" t="s">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L101" s="11">
+      <c r="L101">
         <v>5000</v>
       </c>
-      <c r="M101" s="11">
+      <c r="M101">
         <v>5000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="11">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>399</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" t="s">
         <v>371</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" t="s">
         <v>369</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102">
         <v>500</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102">
         <v>150</v>
       </c>
-      <c r="G102" s="11">
-        <v>0</v>
-      </c>
-      <c r="H102" s="11">
-        <v>0</v>
-      </c>
-      <c r="I102" s="11">
-        <v>0</v>
-      </c>
-      <c r="J102" s="11">
-        <v>0</v>
-      </c>
-      <c r="K102" s="12" t="s">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L102" s="11">
+      <c r="L102">
         <v>5000</v>
       </c>
-      <c r="M102" s="11">
+      <c r="M102">
         <v>5000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="11">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>399</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" t="s">
         <v>372</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" t="s">
         <v>370</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103">
         <v>500</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103">
         <v>150</v>
       </c>
-      <c r="G103" s="11">
-        <v>0</v>
-      </c>
-      <c r="H103" s="11">
-        <v>0</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0</v>
-      </c>
-      <c r="J103" s="11">
-        <v>0</v>
-      </c>
-      <c r="K103" s="12" t="s">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L103" s="11">
+      <c r="L103">
         <v>5000</v>
       </c>
-      <c r="M103" s="11">
+      <c r="M103">
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="11">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>399</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" t="s">
         <v>374</v>
       </c>
-      <c r="D104" s="11" t="s">
+      <c r="D104" t="s">
         <v>373</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104">
         <v>500</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104">
         <v>150</v>
       </c>
-      <c r="G104" s="11">
-        <v>0</v>
-      </c>
-      <c r="H104" s="11">
-        <v>0</v>
-      </c>
-      <c r="I104" s="11">
-        <v>0</v>
-      </c>
-      <c r="J104" s="11">
-        <v>0</v>
-      </c>
-      <c r="K104" s="12" t="s">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L104" s="11">
+      <c r="L104">
         <v>5000</v>
       </c>
-      <c r="M104" s="11">
+      <c r="M104">
         <v>5000</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="11">
+    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>399</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" t="s">
         <v>376</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" t="s">
         <v>375</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105">
         <v>500</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105">
         <v>150</v>
       </c>
-      <c r="G105" s="11">
-        <v>0</v>
-      </c>
-      <c r="H105" s="11">
-        <v>0</v>
-      </c>
-      <c r="I105" s="11">
-        <v>0</v>
-      </c>
-      <c r="J105" s="11">
-        <v>0</v>
-      </c>
-      <c r="K105" s="12" t="s">
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L105" s="11">
+      <c r="L105">
         <v>5000</v>
       </c>
-      <c r="M105" s="11">
+      <c r="M105">
         <v>5000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="11">
+    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>399</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" t="s">
         <v>378</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" t="s">
         <v>377</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106">
         <v>500</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106">
         <v>150</v>
       </c>
-      <c r="G106" s="11">
-        <v>0</v>
-      </c>
-      <c r="H106" s="11">
-        <v>0</v>
-      </c>
-      <c r="I106" s="11">
-        <v>0</v>
-      </c>
-      <c r="J106" s="11">
-        <v>0</v>
-      </c>
-      <c r="K106" s="12" t="s">
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L106" s="11">
+      <c r="L106">
         <v>5000</v>
       </c>
-      <c r="M106" s="11">
+      <c r="M106">
         <v>5000</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="11">
+    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>399</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" t="s">
         <v>382</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" t="s">
         <v>379</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107">
         <v>500</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107">
         <v>150</v>
       </c>
-      <c r="G107" s="11">
-        <v>0</v>
-      </c>
-      <c r="H107" s="11">
-        <v>0</v>
-      </c>
-      <c r="I107" s="11">
-        <v>0</v>
-      </c>
-      <c r="J107" s="11">
-        <v>0</v>
-      </c>
-      <c r="K107" s="12" t="s">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L107" s="11">
+      <c r="L107">
         <v>5000</v>
       </c>
-      <c r="M107" s="11">
+      <c r="M107">
         <v>5000</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="11">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>399</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" t="s">
         <v>383</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" t="s">
         <v>380</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108">
         <v>500</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108">
         <v>150</v>
       </c>
-      <c r="G108" s="11">
-        <v>0</v>
-      </c>
-      <c r="H108" s="11">
-        <v>0</v>
-      </c>
-      <c r="I108" s="11">
-        <v>0</v>
-      </c>
-      <c r="J108" s="11">
-        <v>0</v>
-      </c>
-      <c r="K108" s="12" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L108" s="11">
+      <c r="L108">
         <v>5000</v>
       </c>
-      <c r="M108" s="11">
+      <c r="M108">
         <v>5000</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="11">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>399</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" t="s">
         <v>384</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" t="s">
         <v>381</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109">
         <v>500</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109">
         <v>150</v>
       </c>
-      <c r="G109" s="11">
-        <v>0</v>
-      </c>
-      <c r="H109" s="11">
-        <v>0</v>
-      </c>
-      <c r="I109" s="11">
-        <v>0</v>
-      </c>
-      <c r="J109" s="11">
-        <v>0</v>
-      </c>
-      <c r="K109" s="12" t="s">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L109" s="11">
+      <c r="L109">
         <v>5000</v>
       </c>
-      <c r="M109" s="11">
+      <c r="M109">
         <v>5000</v>
       </c>
     </row>
@@ -11688,255 +11693,255 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="11">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>399</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" t="s">
         <v>386</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" t="s">
         <v>385</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112">
         <v>500</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112">
         <v>150</v>
       </c>
-      <c r="G112" s="11">
-        <v>0</v>
-      </c>
-      <c r="H112" s="11">
-        <v>0</v>
-      </c>
-      <c r="I112" s="11">
-        <v>0</v>
-      </c>
-      <c r="J112" s="11">
-        <v>0</v>
-      </c>
-      <c r="K112" s="12" t="s">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L112" s="11">
+      <c r="L112">
         <v>5000</v>
       </c>
-      <c r="M112" s="11">
+      <c r="M112">
         <v>5000</v>
       </c>
     </row>
-    <row r="113" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="11">
+    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>399</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" t="s">
         <v>389</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" t="s">
         <v>387</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113">
         <v>500</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113">
         <v>150</v>
       </c>
-      <c r="G113" s="11">
-        <v>0</v>
-      </c>
-      <c r="H113" s="11">
-        <v>0</v>
-      </c>
-      <c r="I113" s="11">
-        <v>0</v>
-      </c>
-      <c r="J113" s="11">
-        <v>0</v>
-      </c>
-      <c r="K113" s="12" t="s">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L113" s="11">
+      <c r="L113">
         <v>5000</v>
       </c>
-      <c r="M113" s="11">
+      <c r="M113">
         <v>5000</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="11">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>399</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" t="s">
         <v>398</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" t="s">
         <v>388</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114">
         <v>500</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114">
         <v>150</v>
       </c>
-      <c r="G114" s="11">
-        <v>0</v>
-      </c>
-      <c r="H114" s="11">
-        <v>0</v>
-      </c>
-      <c r="I114" s="11">
-        <v>0</v>
-      </c>
-      <c r="J114" s="11">
-        <v>0</v>
-      </c>
-      <c r="K114" s="12" t="s">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L114" s="11">
+      <c r="L114">
         <v>5000</v>
       </c>
-      <c r="M114" s="11">
+      <c r="M114">
         <v>5000</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="11">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>399</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" t="s">
         <v>391</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" t="s">
         <v>390</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115">
         <v>500</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115">
         <v>150</v>
       </c>
-      <c r="G115" s="11">
-        <v>0</v>
-      </c>
-      <c r="H115" s="11">
-        <v>0</v>
-      </c>
-      <c r="I115" s="11">
-        <v>0</v>
-      </c>
-      <c r="J115" s="11">
-        <v>0</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L115" s="11">
+      <c r="L115">
         <v>5000</v>
       </c>
-      <c r="M115" s="11">
+      <c r="M115">
         <v>5000</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="11">
+    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>399</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" t="s">
         <v>393</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" t="s">
         <v>392</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116">
         <v>500</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116">
         <v>150</v>
       </c>
-      <c r="G116" s="11">
-        <v>0</v>
-      </c>
-      <c r="H116" s="11">
-        <v>0</v>
-      </c>
-      <c r="I116" s="11">
-        <v>0</v>
-      </c>
-      <c r="J116" s="11">
-        <v>0</v>
-      </c>
-      <c r="K116" s="12" t="s">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L116" s="11">
+      <c r="L116">
         <v>5000</v>
       </c>
-      <c r="M116" s="11">
+      <c r="M116">
         <v>5000</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="11">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>399</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" t="s">
         <v>395</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" t="s">
         <v>394</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117">
         <v>500</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117">
         <v>150</v>
       </c>
-      <c r="G117" s="11">
-        <v>0</v>
-      </c>
-      <c r="H117" s="11">
-        <v>0</v>
-      </c>
-      <c r="I117" s="11">
-        <v>0</v>
-      </c>
-      <c r="J117" s="11">
-        <v>0</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="L117" s="11">
+      <c r="L117">
         <v>5000</v>
       </c>
-      <c r="M117" s="11">
+      <c r="M117">
         <v>5000</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763B2C28-1CF0-4173-941F-1D24426DD00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C81B0-5FB7-4F04-AE79-5198BAD1AD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1215" windowWidth="25575" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="3120" yWindow="1875" windowWidth="25560" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -2627,87 +2627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【じゃがバターのレシピ】
-とってもシンプルで、腹持ちのよいじゃがバターの作り方を教えます。
-①&lt;color=#BA9535FF&gt;じゃがいも&lt;/color&gt;を&lt;color=#BA9535FF&gt;水&lt;/color&gt;にいれ、&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;でゆでてホクホクにします。
-②ゆであがったじゃがいもに、タップリの&lt;color=#BA9535FF&gt;バターと塩ひとつまみ&lt;/color&gt;をまぶして完成♪
-ほっくほっくの大地の恵の味・・
-それを楽しんでもらいたいですネ。</t>
-    <rPh sb="24" eb="26">
-      <t>ハラモ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="191" eb="192">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>ダイチ</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>メグミ</t>
-    </rPh>
-    <rPh sb="227" eb="228">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="234" eb="235">
-      <t>タノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【りんごあめのレシピ】
-カーニバルに向いたお菓子レシピ第二弾。
-りんごあめです。
-事前に、りんごを用意します。
-①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;を&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;で火にかけ、水あめを作りましょう。
-②&lt;color=#BA9535FF&gt;りんご&lt;/color&gt;に&lt;color=#BA9535FF&gt;水あめ&lt;/color&gt;をかけます。
-③「キャラメリーゼ」の魔法をかけて、パリパリさせて完成です。
-パリパリで、見た目がつやつやのキラキラ☆
-子供がとても喜ぶあま～いお菓子です。</t>
-    <rPh sb="19" eb="20">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="241" eb="242">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>ヨロコ</t>
-    </rPh>
-    <rPh sb="267" eb="269">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【チョコばななのレシピ】
 フェスティバルなどで、手軽に食べられて、
 子供に人気なチョコばななの作り方☆
@@ -2803,122 +2722,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【基本のジェラートのレシピ】
-アイスと材料は同じだが、
-空気の含みが少なく、濃厚な味わい。
-①アイスクリーム水溶液に、魔法「ジェラートフリーズ」を使う。
-空気の含有量を少なくして凍らせられる。
-②しっとり濃厚なジェラートが完成します。
-</t>
-    <rPh sb="1" eb="3">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>スイヨウエキ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>クウキ</t>
-    </rPh>
-    <rPh sb="82" eb="85">
-      <t>ガンユウリョウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【クリームブリュレのレシピ】
-クリームにパリパリのカラメルを楽しめる、
-定番のスイーツです。
-まずは、カスタードクリームを作れるようになりましょう。
-①&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;を準備します。
-②クリームに、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を敷き詰めます。
-③&lt;color=#FF5CA1FF&gt;「キャラメリゼ」の魔法&lt;/color&gt;で、火にかけて仕上げましょう。
-砂糖がパリパリになり、完成♪
-クリームととろける濃厚な味わいに、キャラメルのパリパリが後をひく、絶品スイーツです！
-</t>
-    <rPh sb="31" eb="32">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>テイバン</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="159" eb="160">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="193" eb="195">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="210" eb="212">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>ゼッピン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ブリオッシュのレシピ】
 マリトッツォを作るための、柔らかいバターふんだん使用のパンです。
 作るのは簡単ですが、材料が多くて大変。
@@ -2995,64 +2798,6 @@
     </rPh>
     <rPh sb="220" eb="222">
       <t>ツウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【マリトッツォのレシピ】
-ふわふわブリオッシュパンに、クリームをいれてはさんだ、独特な見た目のお菓子です。
-ふんわりして、3時のおやつにピッタリ♪
-作り方は簡単です。
-①&lt;color=#BA9535FF&gt;ブリオッシュのパン&lt;/color&gt;に、&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;をてんこもり挟む。
-②仕上げに、パウダーシュガーをふりましょう。
-粉雪のような見た目になれば完成！
-パウダーシュガーはなくても完成しますが、
-かけたほうが見た目はよくなります。
-</t>
-    <rPh sb="41" eb="43">
-      <t>ドクトク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>ハサ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>コナユキ</t>
-    </rPh>
-    <rPh sb="209" eb="210">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="211" eb="212">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>カンセイミメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3612,128 +3357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【チーズケーキのレシピ】
-難易度・・　中～高　ぐらい
-少し手順が複雑ですが、がんばって作ってみてくださいね！
-チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
-①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型に押し詰めます。
-②クリームの生地・・・
-1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
-2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
-3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
-①に②を足して、焼き上げれば完成！！
-ふんわり濃厚なチーズケーキを召し上がれ♪</t>
-    <rPh sb="14" eb="17">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="90" eb="91">
-      <t>フタ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ソコ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>クダ</t>
-    </rPh>
-    <rPh sb="178" eb="179">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="249" eb="250">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="288" eb="289">
-      <t>ナマ</t>
-    </rPh>
-    <rPh sb="331" eb="332">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="343" eb="345">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="363" eb="366">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="375" eb="376">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="416" eb="417">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="427" eb="428">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="431" eb="432">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="433" eb="434">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="437" eb="439">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="447" eb="449">
-      <t>ノウコウ</t>
-    </rPh>
-    <rPh sb="457" eb="458">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="459" eb="460">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【お城ケーキ　ファンタジアのレシピ】
 難易度：高
 とってもかわいいお城のケーキ♪
@@ -4224,79 +3847,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ポテトの宝石箱のレシピ】
-これは、まさにポテト好きには夢のような..
-お菓子のご紹介です。
-作り方は簡単♪
-①じゃが、さつまいもに&lt;color=#BA9535FF&gt;塩&lt;/color&gt;をかけて、&lt;color=#FF5CA1FF&gt;「フライヤー」&lt;/color&gt;であげてしまいます。
-芋は、別々に揚げましょう。
-②それぞれの&lt;color=#BA9535FF&gt;フライドおいも&lt;/color&gt;をミックスし、その上に&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をかけて、完成♪
-まさに・・！　
-大地の恵の味・・！
-芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
-    <rPh sb="25" eb="26">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ユメ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>シオ</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>イモ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ベツベツ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>ダイチ</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>メグミ</t>
-    </rPh>
-    <rPh sb="257" eb="258">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="262" eb="265">
-      <t>イモドウシ</t>
-    </rPh>
-    <rPh sb="271" eb="272">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="275" eb="276">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="283" eb="285">
-      <t>シュギョク</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブッシュドノエルのレシピ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4654,95 +4204,6 @@
     <t>レインボーレインの本</t>
     <rPh sb="9" eb="10">
       <t>ホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ショートケーキのレシピ】
-定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
-ぜひ自慢のショートケーキを作ってみてくださいね。
-難易度・・　中
-事前準備：
-・生クリームといちご
-・スポンジケーキ＜スライス＞
-事前に、スポンジケーキは作れるようにしておきましょう♪
-【作り方】
-①ケーキ土台を作ります。
-・一段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
-・二段目
-&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;
-クリームはホイップでなく、作りたてクリームをそのまま塗ります。
-&lt;color=#FF5CA1FF&gt;1段目に2段目をのせ&lt;/color&gt;、土台を作ります。
-②できたショートケーキのベースに、&lt;color=#FF5CA1FF&gt;作りたてクリームの白&lt;/color&gt;をぬり、&lt;color=#FF5CA1FF&gt;いちご&lt;/color&gt;をのせて完成です♪
-さらに、仕上げで、
-・いちごをたっぷりのせる
-・板チョコレートをのせる
-・飾りのミントをのせる
-など
-工夫とアレンジで、より魅力的なショートケーキを作ってみてくださいね～♪</t>
-    <rPh sb="15" eb="17">
-      <t>テイバン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>アマズ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジマン</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="78" eb="81">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="234" eb="235">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="381" eb="383">
-      <t>ダンメ</t>
-    </rPh>
-    <rPh sb="385" eb="387">
-      <t>ダンメ</t>
-    </rPh>
-    <rPh sb="399" eb="401">
-      <t>ドダイ</t>
-    </rPh>
-    <rPh sb="402" eb="403">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="443" eb="444">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="452" eb="453">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="497" eb="499">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="508" eb="510">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="528" eb="529">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="541" eb="542">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="556" eb="558">
-      <t>クフウ</t>
-    </rPh>
-    <rPh sb="567" eb="570">
-      <t>ミリョクテキ</t>
-    </rPh>
-    <rPh sb="579" eb="580">
-      <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5446,305 +4907,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ザッハトルテのレシピ】
-難易度・・　高
-つやつやの滑らかで、伝統的なチョコレートケーキです。
-以下、３つの生地を作り、あとで合わせて仕上げていきます。
-A. ザッハトルテ生地
-B. コーティングチョコ生地
-C. あんずジャム
-A.
-①チョコの生地・・・卵黄・砂糖に、バターを入れて混ぜ合わせます。
-できたバタークリームに、溶けた液体のチョコレートをいれて混ぜます。
-チョコレートの生地ができます。
-②事前にメレンゲを作っておきます。・・・
-&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;と砂糖を角が立つまで、混ぜ合わせます。
-③先ほど作った、チョコ生地とメレンゲを混ぜ合わせ、そこに薄力粉を加えて、しっかり混ぜます。
-焼き上げれば、ザッハトルテ生地は完成です！！
-※170度で約40~50分。
-あとで、スライスして、他のソースをつけていきます。今は置いておきましょう。
-B. コーティング用チョコ生地
-①水と砂糖をお鍋にかけ、水あめを先に作ります。
-②水あめに、液体チョコレートを混ぜ、お鍋にかけて、とろとろに煮詰めましょう。
-これで、とろりとしたチョコのコーティング生地の完成です。
-C. あんずジャムの作り方
-①あんずと砂糖を、お鍋に入れて、とろとろと煮詰めていきます。
-とろりしたら、完成です。
-【完成まで】
-①Aで作った生地をスライスします。
-②スライスした生地の上面に、あんずジャムを塗り、再度スライスしたザッハトルテ生地を上からかぶせます。
-③できあがったケーキベースに、あんずジャムを、全体的に塗ってコーティングします。
-※2時間ほど乾燥させます。
-④コーティングした生地に、上からBのチョコレート生地をかけて、コーティングします。
-きれいに全体がチョコでコーティングされたら、完成です♪
-なめらかなチョコの艶や光沢、そしてあんずの芳醇な香り.. それらの調和をお楽しみ頂ければ幸いです。</t>
-    <rPh sb="14" eb="17">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ナメ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>デントウテキ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="148" eb="149">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="257" eb="259">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="260" eb="261">
-      <t>ツノ</t>
-    </rPh>
-    <rPh sb="262" eb="263">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="267" eb="268">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="269" eb="270">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="281" eb="282">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="288" eb="290">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="296" eb="297">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="298" eb="299">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="305" eb="308">
-      <t>ハクリキコ</t>
-    </rPh>
-    <rPh sb="309" eb="310">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="317" eb="318">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="324" eb="325">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="326" eb="327">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="340" eb="342">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="351" eb="352">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="353" eb="354">
-      <t>ヤク</t>
-    </rPh>
-    <rPh sb="359" eb="360">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="374" eb="375">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="388" eb="389">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="390" eb="391">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="412" eb="413">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="416" eb="418">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="420" eb="421">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="422" eb="424">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="426" eb="427">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="431" eb="432">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="435" eb="436">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="437" eb="438">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="445" eb="446">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="450" eb="452">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="459" eb="460">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="463" eb="464">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="474" eb="476">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="504" eb="506">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="507" eb="509">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="525" eb="526">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="527" eb="528">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="534" eb="536">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="539" eb="540">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="541" eb="542">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="550" eb="552">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="567" eb="569">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="575" eb="577">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="585" eb="586">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="588" eb="590">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="608" eb="610">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="611" eb="613">
-      <t>ジョウメン</t>
-    </rPh>
-    <rPh sb="622" eb="623">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="625" eb="627">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="676" eb="679">
-      <t>ゼンタイテキ</t>
-    </rPh>
-    <rPh sb="680" eb="681">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="696" eb="698">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="700" eb="702">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="718" eb="720">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="722" eb="723">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="733" eb="735">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="756" eb="758">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="774" eb="776">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="790" eb="791">
-      <t>ツヤ</t>
-    </rPh>
-    <rPh sb="792" eb="794">
-      <t>コウタク</t>
-    </rPh>
-    <rPh sb="802" eb="804">
-      <t>ホウジュン</t>
-    </rPh>
-    <rPh sb="805" eb="806">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="814" eb="816">
-      <t>チョウワ</t>
-    </rPh>
-    <rPh sb="818" eb="819">
-      <t>タノ</t>
-    </rPh>
-    <rPh sb="821" eb="822">
-      <t>イタダ</t>
-    </rPh>
-    <rPh sb="825" eb="826">
-      <t>サイワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【モンブランのレシピ】
 難易度・・　中～高　ぐらい
 少し難しいですが、順番に丁寧に作ってみてくださいね。
@@ -6556,6 +5718,859 @@
   </si>
   <si>
     <t>Items/patipati_soda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ザッハトルテのレシピ】
+難易度・・　高
+つやつやの滑らかで、伝統的なチョコレートケーキです。
+以下、３つの生地を作り、あとで合わせて仕上げていきます。
+A. ザッハトルテ生地
+B. コーティングチョコ生地
+C. あんずジャム
+A.
+①チョコの生地・・・卵黄・砂糖に、バターを入れて混ぜ合わせます。
+できたバタークリームに、溶けた液体のチョコレートをいれて混ぜます。
+チョコレートの生地ができます。
+②事前にメレンゲを作っておきます。・・・
+&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;と砂糖を角が立つまで、混ぜ合わせます。
+③先ほど作った、チョコ生地とメレンゲを混ぜ合わせ、そこに薄力粉を加えて、しっかり混ぜます。
+焼き上げれば、ザッハトルテ生地は完成です！！
+※170度で約40~50分。
+あとで、スライスして、他のソースをつけていきます。今は置いておきましょう。
+B. コーティング用チョコ生地＜ザッハトルテソース＞
+①水と砂糖をお鍋にかけ、水あめを先に作ります。
+②水あめに、液体チョコレートを混ぜ、お鍋にかけて、とろとろに煮詰めましょう。
+これで、とろりとしたチョコのコーティング生地の完成です。
+C. あんずジャムの作り方
+①あんずと砂糖を、お鍋に入れて、とろとろと煮詰めていきます。
+とろりしたら、完成です。
+【完成まで】
+①Aで作った生地をスライスします。
+②スライスした生地の上面に、あんずジャムを塗り、再度スライスしたザッハトルテ生地を上からかぶせます。
+③できあがったケーキベースに、あんずジャムを、全体的に塗ってコーティングします。
+※2時間ほど乾燥させます。
+④コーティングした生地に、上からBのチョコレート生地をかけて、コーティングします。
+きれいに全体がチョコでコーティングされたら、完成です♪
+なめらかなチョコの艶や光沢、そしてあんずの芳醇な香り.. それらの調和をお楽しみ頂ければ幸いです。</t>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナメ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>デントウテキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>ツノ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="267" eb="268">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="281" eb="282">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="298" eb="299">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="305" eb="308">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="309" eb="310">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="317" eb="318">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="324" eb="325">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="351" eb="352">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="353" eb="354">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="359" eb="360">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="374" eb="375">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="388" eb="389">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="390" eb="391">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="412" eb="413">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="416" eb="418">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="431" eb="432">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="433" eb="435">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="437" eb="438">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="442" eb="443">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="446" eb="447">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="448" eb="449">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="456" eb="457">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="461" eb="463">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="470" eb="471">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="474" eb="475">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="485" eb="487">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="515" eb="517">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="518" eb="520">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="536" eb="537">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="538" eb="539">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="545" eb="547">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="550" eb="551">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="552" eb="553">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="561" eb="563">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="578" eb="580">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="586" eb="588">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="596" eb="597">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="599" eb="601">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="619" eb="621">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="622" eb="624">
+      <t>ジョウメン</t>
+    </rPh>
+    <rPh sb="633" eb="634">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="636" eb="638">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="687" eb="690">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="691" eb="692">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="707" eb="709">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="711" eb="713">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="729" eb="731">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="733" eb="734">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="744" eb="746">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="767" eb="769">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="785" eb="787">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="801" eb="802">
+      <t>ツヤ</t>
+    </rPh>
+    <rPh sb="803" eb="805">
+      <t>コウタク</t>
+    </rPh>
+    <rPh sb="813" eb="815">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="816" eb="817">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="825" eb="827">
+      <t>チョウワ</t>
+    </rPh>
+    <rPh sb="829" eb="830">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="832" eb="833">
+      <t>イタダ</t>
+    </rPh>
+    <rPh sb="836" eb="837">
+      <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【チーズケーキのレシピ】
+難易度・・　中～高　ぐらい
+少し手順が複雑ですが、がんばって作ってみてくださいね！
+事前準備：ビスケットを焼けるようにしておく
+チーズケーキは、①底の生地（タルト生地）と②上のクリームの生地の二つを合わせて作ります。
+①底の生地・・・&lt;color=#BA9535FF&gt;ビスケット&lt;/color&gt;を細かく砕き、&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を混ぜて、型作って焼けば完成♪
+②クリームの生地・・・
+1. &lt;color=#BA9535FF&gt;クリームチーズ、砂糖、卵黄&lt;/color&gt;を混ぜ合わせます。
+2. できた生地に、さらに、&lt;color=#BA9535FF&gt;生クリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;レモン&lt;/color&gt;を加えます。
+3. 2の生地に&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;を入れ、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;でふんわり混ぜます。
+①に②を足して、焼き上げれば完成！！
+ふんわり濃厚なチーズケーキを召し上がれ♪</t>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="58" eb="62">
+      <t>ジゼンジュンビ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="312" eb="313">
+      <t>ナマ</t>
+    </rPh>
+    <rPh sb="355" eb="356">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="367" eb="369">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="387" eb="390">
+      <t>ハクリキコ</t>
+    </rPh>
+    <rPh sb="399" eb="400">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="440" eb="441">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="451" eb="452">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="455" eb="456">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="457" eb="458">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="461" eb="463">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="471" eb="473">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="481" eb="482">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="483" eb="484">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ショートケーキのレシピ】
+定番の、シンプルながら、甘酸っぱくておいしいいちごのスポンジケーキです。
+ぜひ自慢のショートケーキを作ってみてくださいね。
+難易度・・　中
+事前準備：
+・生クリームといちご
+・スポンジケーキ＜スライス＞
+事前に、スポンジケーキは作れるようにしておきましょう♪
+【作り方】
+①ケーキ土台を作ります。
+・一段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;作りたてクリーム&lt;/color&gt;　＋　&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;
+・二段目
+&lt;color=#BA9535FF&gt;スポンジケーキ（スライスしたもの）&lt;/color&gt;
+クリームはホイップでなく、作りたてクリームをそのまま塗ります。
+&lt;color=#FF5CA1FF&gt;1段目に2段目をのせ&lt;/color&gt;、土台を作ります。
+②できたショートケーキのベースに、&lt;color=#BA9535FF&gt;作りたてクリームの白&lt;/color&gt;をぬり、&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;をのせて完成です♪
+さらに、仕上げで、
+・いちごをたっぷりのせる
+・板チョコレートをのせる
+・飾りのミントをのせる
+など
+工夫とアレンジで、より魅力的なショートケーキを作ってみてくださいね～♪</t>
+    <rPh sb="15" eb="17">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アマズ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジマン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="78" eb="81">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="385" eb="387">
+      <t>ダンメ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>ドダイ</t>
+    </rPh>
+    <rPh sb="402" eb="403">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="452" eb="453">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="497" eb="499">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="508" eb="510">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="528" eb="529">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="556" eb="558">
+      <t>クフウ</t>
+    </rPh>
+    <rPh sb="567" eb="570">
+      <t>ミリョクテキ</t>
+    </rPh>
+    <rPh sb="579" eb="580">
+      <t>ツクコマクダマカタオツキジサトウランオウマアキジナマクワキジハクリキコイマタヤアカンセイノウコウメア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【りんごあめのレシピ】
+カーニバルに向いたお菓子レシピ第二弾。
+りんごあめです。
+事前に、りんごを用意します。
+①&lt;color=#BA9535FF&gt;砂糖・水&lt;/color&gt;を&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;で火にかけ、水あめを作りましょう。
+②&lt;color=#BA9535FF&gt;りんご&lt;/color&gt;に&lt;color=#BA9535FF&gt;水あめ&lt;/color&gt;をかけます。
+③仕上げに、&lt;color=#FF5CA1FF&gt;「キャラメリーゼ」&lt;/color&gt;の魔法をかけて、パリパリさせて完成です。
+パリパリで、見た目がつやつやのキラキラ☆
+子供がとても喜ぶあま～いお菓子です。</t>
+    <rPh sb="19" eb="20">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="269" eb="270">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="284" eb="286">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="290" eb="291">
+      <t>ヨロコ</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【じゃがバターのレシピ】
+とってもシンプルで、ホクホクなじゃがバターの作り方を教えます。
+①&lt;color=#BA9535FF&gt;じゃがいも&lt;/color&gt;を&lt;color=#BA9535FF&gt;水&lt;/color&gt;にいれ、&lt;color=#FF5CA1FF&gt;鍋&lt;/color&gt;でゆでてホクホクにします。
+②ゆであがったじゃがいもに、タップリの&lt;color=#BA9535FF&gt;バターと塩ひとつまみ&lt;/color&gt;をまぶして完成♪
+ほっくほっくの大地の恵の味・・
+それを楽しんでもらいたいですネ。</t>
+    <rPh sb="36" eb="37">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポテトの宝石箱のレシピ】
+ポテト好きにたまらない..
+ポテトの宝石箱のレシピです。
+作り方は簡単♪
+①じゃが、さつまいもに&lt;color=#BA9535FF&gt;塩&lt;/color&gt;をかけて、&lt;color=#FF5CA1FF&gt;「フライヤー」&lt;/color&gt;であげてしまいます。
+※注意：芋は、別々に揚げましょう。
+②それぞれの&lt;color=#BA9535FF&gt;フライドおいも&lt;/color&gt;をミックスし、その上に&lt;color=#BA9535FF&gt;バター&lt;/color&gt;をかけて、完成♪
+まさに・・！　大地の恵の味・・！
+芋同士のそれぞれの味わいを一つにまとめた、珠玉のお菓子です。</t>
+    <rPh sb="18" eb="19">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ホウセキバコ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="251" eb="253">
+      <t>ダイチ</t>
+    </rPh>
+    <rPh sb="254" eb="255">
+      <t>メグミ</t>
+    </rPh>
+    <rPh sb="256" eb="257">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="261" eb="264">
+      <t>イモドウシ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="274" eb="275">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="282" eb="284">
+      <t>シュギョク</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【基本のジェラートのレシピ】
+氷のアーティストがおくる、至高のアイス「ジェラート」
+・・ホントはヒミツだけど。これを読んだアナタにだけ教える、特別レシピよ♪
+ジェラートとは・・アイスと材料は同じだが、
+空気の含みが少なく、濃厚な味わいのアイス。
+①アイスクリーム水溶液に、&lt;color=#FF5CA1FF&gt;魔法「ジェラートフリーズ」&lt;/color&gt;を使う。
+空気の含有量を少なくして凍らせられる。
+しっとり濃厚なジェラートが完成よ♪
+【ジェラートフリーズの覚え方】
+フリージングのLVを２まで上げましょう。
+この本を読んだアナタなら・・多分、もう使えるはず。
+</t>
+    <rPh sb="1" eb="3">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オシ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="134" eb="137">
+      <t>スイヨウエキ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="185" eb="188">
+      <t>ガンユウリョウ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="264" eb="265">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【クリームブリュレのレシピ】
+クリームにパリパリのカラメルを楽しめる、
+定番のスイーツです。
+※事前に、カスタードクリームを作れるようになりましょう。
+①&lt;color=#BA9535FF&gt;カスタードクリーム&lt;/color&gt;を準備します。
+②クリームに、&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を敷き詰めます。
+③&lt;color=#FF5CA1FF&gt;「キャラメリゼ」の魔法&lt;/color&gt;をかけて、仕上げます。
+砂糖がパリパリになり、完成♪
+クリームととろける濃厚な味わいに、キャラメルのパリパリが後をひく、絶品スイーツです！
+</t>
+    <rPh sb="31" eb="32">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>テイバン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="227" eb="229">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="260" eb="261">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>ゼッピン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【マリトッツォのレシピ】
+ふわふわブリオッシュパンに、クリームをいれてはさんだ、独特な見た目のお菓子です。
+ふんわりして、3時のおやつにピッタリ♪
+作り方は簡単です。
+※事前に、ブリオッシュを作れるようにしておきましょう。
+①&lt;color=#BA9535FF&gt;ブリオッシュのパン&lt;/color&gt;に、&lt;color=#BA9535FF&gt;ホイップクリーム&lt;/color&gt;をてんこもり挟む。
+②仕上げに、パウダーシュガーをふりましょう。
+粉雪のような見た目になれば完成！
+パウダーシュガーはなくても完成しますが、
+かけたほうが見た目はよくなります。
+</t>
+    <rPh sb="41" eb="43">
+      <t>ドクトク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="209" eb="211">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>コナユキ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="262" eb="264">
+      <t>カンセイミメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6658,7 +6673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6694,6 +6709,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7012,8 +7033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7148,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -7295,7 +7316,7 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -7316,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L7">
         <v>3000</v>
@@ -8618,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -8786,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="L42" s="7">
         <v>9999</v>
@@ -8795,381 +8816,381 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5">
+    <row r="43" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="13">
         <v>500</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="13">
         <v>150</v>
       </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
         <v>1</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="L43" s="5">
+      <c r="K43" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="L43" s="13">
         <v>310</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="13">
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="5">
+    <row r="44" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="13">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="13">
         <v>500</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="13">
         <v>150</v>
       </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
         <v>1</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="13">
         <v>320</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="13">
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="5">
+    <row r="45" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="13">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="13">
         <v>500</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="13">
         <v>150</v>
       </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
         <v>1</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="13">
         <v>330</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="13">
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5">
+    <row r="46" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="13">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="13">
         <v>500</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="13">
         <v>150</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
         <v>1</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="L46" s="5">
+      <c r="K46" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="L46" s="13">
         <v>340</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="13">
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="5">
+    <row r="47" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="13">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="B47" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E47" s="13">
         <v>500</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="13">
         <v>150</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
         <v>1</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="K47" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" s="13">
         <v>350</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="13">
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="5">
+    <row r="48" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="13">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="B48" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="13">
         <v>500</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="13">
         <v>150</v>
       </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
+      <c r="G48" s="13">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
         <v>1</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="L48" s="5">
+      <c r="K48" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" s="13">
         <v>360</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="13">
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="5">
+    <row r="49" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="13">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="B49" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="13">
         <v>500</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="13">
         <v>150</v>
       </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
         <v>1</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L49" s="5">
+      <c r="K49" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="L49" s="13">
         <v>370</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="13">
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="5">
+    <row r="50" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="13">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="B50" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E50" s="13">
         <v>500</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="13">
         <v>150</v>
       </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
         <v>1</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="L50" s="5">
+      <c r="K50" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="L50" s="13">
         <v>380</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="13">
         <v>380</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5">
+    <row r="51" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="B51" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E51" s="13">
         <v>500</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="13">
         <v>150</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5">
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
         <v>1</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="K51" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="L51" s="13">
         <v>390</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="13">
         <v>390</v>
       </c>
     </row>
@@ -9206,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L52" s="11">
         <v>400</v>
@@ -9215,465 +9236,465 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="5">
+    <row r="53" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="13">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="13">
         <v>500</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="13">
         <v>150</v>
       </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
         <v>1</v>
       </c>
-      <c r="K53" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="L53" s="5">
+      <c r="K53" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="L53" s="13">
         <v>410</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="13">
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="5">
+    <row r="54" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="13">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="13">
         <v>500</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="13">
         <v>150</v>
       </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
         <v>1</v>
       </c>
-      <c r="K54" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L54" s="5">
+      <c r="K54" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="L54" s="13">
         <v>500</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="5">
+    <row r="55" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="13">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="13">
         <v>500</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="13">
         <v>150</v>
       </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5">
+      <c r="G55" s="13">
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
         <v>1</v>
       </c>
-      <c r="K55" s="6" t="s">
+      <c r="K55" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="L55" s="13">
+        <v>510</v>
+      </c>
+      <c r="M55" s="13">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="13">
+        <v>500</v>
+      </c>
+      <c r="F56" s="13">
+        <v>150</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <v>1</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="L56" s="13">
+        <v>520</v>
+      </c>
+      <c r="M56" s="13">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="13">
+        <v>500</v>
+      </c>
+      <c r="F57" s="13">
+        <v>150</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <v>1</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="L57" s="13">
+        <v>530</v>
+      </c>
+      <c r="M57" s="13">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="13">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" s="13">
+        <v>500</v>
+      </c>
+      <c r="F58" s="13">
+        <v>150</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
+        <v>1</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="L58" s="13">
+        <v>540</v>
+      </c>
+      <c r="M58" s="13">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="13">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E59" s="13">
+        <v>500</v>
+      </c>
+      <c r="F59" s="13">
+        <v>150</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
+        <v>0</v>
+      </c>
+      <c r="J59" s="13">
+        <v>1</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="L59" s="13">
+        <v>550</v>
+      </c>
+      <c r="M59" s="13">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="13">
+        <v>500</v>
+      </c>
+      <c r="F60" s="13">
+        <v>150</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
+        <v>0</v>
+      </c>
+      <c r="J60" s="13">
+        <v>1</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="L60" s="13">
+        <v>560</v>
+      </c>
+      <c r="M60" s="13">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="13">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="13">
+        <v>500</v>
+      </c>
+      <c r="F61" s="13">
+        <v>150</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+      <c r="J61" s="13">
+        <v>1</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="L61" s="13">
+        <v>570</v>
+      </c>
+      <c r="M61" s="13">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="13">
+        <v>500</v>
+      </c>
+      <c r="F62" s="13">
+        <v>150</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
+        <v>0</v>
+      </c>
+      <c r="J62" s="13">
+        <v>1</v>
+      </c>
+      <c r="K62" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="L55" s="5">
-        <v>510</v>
-      </c>
-      <c r="M55" s="5">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="5">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="L62" s="13">
+        <v>580</v>
+      </c>
+      <c r="M62" s="13">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="13">
         <v>500</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F63" s="13">
         <v>150</v>
       </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
-        <v>0</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <v>0</v>
+      </c>
+      <c r="J63" s="13">
         <v>1</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="L56" s="5">
-        <v>520</v>
-      </c>
-      <c r="M56" s="5">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" s="5">
-        <v>500</v>
-      </c>
-      <c r="F57" s="5">
-        <v>150</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <v>0</v>
-      </c>
-      <c r="J57" s="5">
-        <v>1</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="L57" s="5">
-        <v>530</v>
-      </c>
-      <c r="M57" s="5">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="5">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="5">
-        <v>500</v>
-      </c>
-      <c r="F58" s="5">
-        <v>150</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="5">
-        <v>0</v>
-      </c>
-      <c r="J58" s="5">
-        <v>1</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="L58" s="5">
-        <v>540</v>
-      </c>
-      <c r="M58" s="5">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="5">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E59" s="5">
-        <v>500</v>
-      </c>
-      <c r="F59" s="5">
-        <v>150</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
-      </c>
-      <c r="I59" s="5">
-        <v>0</v>
-      </c>
-      <c r="J59" s="5">
-        <v>1</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="L59" s="5">
-        <v>550</v>
-      </c>
-      <c r="M59" s="5">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="5">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" s="5">
-        <v>500</v>
-      </c>
-      <c r="F60" s="5">
-        <v>150</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="5">
-        <v>0</v>
-      </c>
-      <c r="J60" s="5">
-        <v>1</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="L60" s="5">
-        <v>560</v>
-      </c>
-      <c r="M60" s="5">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="5">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E61" s="5">
-        <v>500</v>
-      </c>
-      <c r="F61" s="5">
-        <v>150</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="L61" s="5">
-        <v>570</v>
-      </c>
-      <c r="M61" s="5">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="5">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E62" s="5">
-        <v>500</v>
-      </c>
-      <c r="F62" s="5">
-        <v>150</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="L62" s="5">
-        <v>580</v>
-      </c>
-      <c r="M62" s="5">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="5">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E63" s="5">
-        <v>500</v>
-      </c>
-      <c r="F63" s="5">
-        <v>150</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0</v>
-      </c>
-      <c r="I63" s="5">
-        <v>0</v>
-      </c>
-      <c r="J63" s="5">
-        <v>1</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="L63" s="5">
+      <c r="K63" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="L63" s="13">
         <v>590</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="13">
         <v>590</v>
       </c>
     </row>
@@ -9725,7 +9746,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>239</v>
@@ -9770,10 +9791,10 @@
         <v>197</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E66" s="9">
         <v>500</v>
@@ -9794,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="L66" s="9">
         <v>620</v>
@@ -9809,7 +9830,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>242</v>
@@ -9851,13 +9872,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E68" s="5">
         <v>500</v>
@@ -9878,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L68" s="5">
         <v>710</v>
@@ -9893,7 +9914,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>244</v>
@@ -9920,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L69" s="5">
         <v>720</v>
@@ -9935,7 +9956,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>246</v>
@@ -9962,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L70" s="5">
         <v>730</v>
@@ -9977,7 +9998,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>247</v>
@@ -10004,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L71" s="5">
         <v>740</v>
@@ -10019,7 +10040,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>254</v>
@@ -10061,7 +10082,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>250</v>
@@ -10103,13 +10124,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E74" s="5">
         <v>500</v>
@@ -10130,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L74" s="5">
         <v>770</v>
@@ -10145,13 +10166,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E75" s="5">
         <v>500</v>
@@ -10172,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L75" s="5">
         <v>780</v>
@@ -10190,10 +10211,10 @@
         <v>197</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E76" s="9">
         <v>500</v>
@@ -10214,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L76" s="9">
         <v>790</v>
@@ -10232,10 +10253,10 @@
         <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D77" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -10256,7 +10277,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -10274,10 +10295,10 @@
         <v>197</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E78" s="5">
         <v>500</v>
@@ -10298,7 +10319,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L78" s="5">
         <v>2000</v>
@@ -10316,10 +10337,10 @@
         <v>197</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E79" s="5">
         <v>500</v>
@@ -10340,7 +10361,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L79" s="5">
         <v>2100</v>
@@ -10358,10 +10379,10 @@
         <v>197</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E80" s="5">
         <v>500</v>
@@ -10382,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L80" s="5">
         <v>2200</v>
@@ -10400,10 +10421,10 @@
         <v>197</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E81" s="5">
         <v>500</v>
@@ -10424,7 +10445,7 @@
         <v>1</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L81" s="5">
         <v>2300</v>
@@ -10442,10 +10463,10 @@
         <v>197</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E82" s="5">
         <v>500</v>
@@ -10466,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L82" s="5">
         <v>2400</v>
@@ -10481,13 +10502,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C83" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E83">
         <v>500</v>
@@ -10508,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L83">
         <v>5000</v>
@@ -10523,13 +10544,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D84" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -10550,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L84">
         <v>5000</v>
@@ -10565,13 +10586,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C85" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D85" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E85">
         <v>500</v>
@@ -10592,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L85">
         <v>5000</v>
@@ -10607,13 +10628,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C86" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D86" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E86">
         <v>500</v>
@@ -10634,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L86">
         <v>5000</v>
@@ -10649,13 +10670,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C87" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -10676,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L87">
         <v>5000</v>
@@ -10691,13 +10712,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -10718,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L88">
         <v>5000</v>
@@ -10733,13 +10754,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C89" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -10760,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L89">
         <v>5000</v>
@@ -10775,13 +10796,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C90" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E90">
         <v>500</v>
@@ -10802,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L90">
         <v>5000</v>
@@ -10817,13 +10838,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D91" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -10844,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L91">
         <v>5000</v>
@@ -10859,13 +10880,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D92" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -10886,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L92">
         <v>5000</v>
@@ -10901,13 +10922,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C93" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D93" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E93">
         <v>500</v>
@@ -10928,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L93">
         <v>5000</v>
@@ -10943,13 +10964,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E94">
         <v>500</v>
@@ -10970,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L94">
         <v>5000</v>
@@ -10985,13 +11006,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D95" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E95">
         <v>500</v>
@@ -11012,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L95">
         <v>5000</v>
@@ -11027,13 +11048,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C96" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D96" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E96">
         <v>500</v>
@@ -11054,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L96">
         <v>5000</v>
@@ -11069,13 +11090,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C97" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E97">
         <v>500</v>
@@ -11096,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L97">
         <v>5000</v>
@@ -11111,13 +11132,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C98" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D98" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E98">
         <v>500</v>
@@ -11138,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L98">
         <v>5000</v>
@@ -11153,13 +11174,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C99" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E99">
         <v>500</v>
@@ -11180,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L99">
         <v>5000</v>
@@ -11195,13 +11216,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C100" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D100" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E100">
         <v>500</v>
@@ -11222,7 +11243,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L100">
         <v>5000</v>
@@ -11237,13 +11258,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C101" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E101">
         <v>500</v>
@@ -11264,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L101">
         <v>5000</v>
@@ -11279,13 +11300,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C102" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D102" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E102">
         <v>500</v>
@@ -11306,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L102">
         <v>5000</v>
@@ -11321,13 +11342,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C103" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D103" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E103">
         <v>500</v>
@@ -11348,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L103">
         <v>5000</v>
@@ -11363,13 +11384,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C104" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D104" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E104">
         <v>500</v>
@@ -11390,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L104">
         <v>5000</v>
@@ -11405,13 +11426,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C105" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D105" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E105">
         <v>500</v>
@@ -11432,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L105">
         <v>5000</v>
@@ -11447,13 +11468,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D106" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E106">
         <v>500</v>
@@ -11474,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L106">
         <v>5000</v>
@@ -11489,13 +11510,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C107" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D107" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E107">
         <v>500</v>
@@ -11516,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L107">
         <v>5000</v>
@@ -11531,13 +11552,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C108" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D108" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E108">
         <v>500</v>
@@ -11558,7 +11579,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L108">
         <v>5000</v>
@@ -11573,13 +11594,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C109" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D109" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E109">
         <v>500</v>
@@ -11600,7 +11621,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L109">
         <v>5000</v>
@@ -11615,13 +11636,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C110" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D110" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E110">
         <v>500</v>
@@ -11642,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L110">
         <v>5000</v>
@@ -11657,13 +11678,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D111" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E111">
         <v>500</v>
@@ -11684,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L111">
         <v>5000</v>
@@ -11699,13 +11720,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C112" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E112">
         <v>500</v>
@@ -11726,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L112">
         <v>5000</v>
@@ -11741,13 +11762,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C113" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D113" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E113">
         <v>500</v>
@@ -11768,7 +11789,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L113">
         <v>5000</v>
@@ -11783,13 +11804,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C114" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D114" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E114">
         <v>500</v>
@@ -11810,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L114">
         <v>5000</v>
@@ -11825,13 +11846,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C115" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D115" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E115">
         <v>500</v>
@@ -11852,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L115">
         <v>5000</v>
@@ -11867,13 +11888,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C116" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D116" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E116">
         <v>500</v>
@@ -11894,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L116">
         <v>5000</v>
@@ -11909,13 +11930,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C117" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D117" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E117">
         <v>500</v>
@@ -11936,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L117">
         <v>5000</v>
@@ -11951,13 +11972,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E118">
         <v>500</v>
@@ -11978,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L118">
         <v>5000</v>

--- a/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_eventItemDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C81B0-5FB7-4F04-AE79-5198BAD1AD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B375EB5E-F1FE-44C2-BB4E-82321851606E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1875" windowWidth="25560" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="25560" windowHeight="14325" xr2:uid="{738EF540-1617-4F63-AB66-A45177877433}"/>
   </bookViews>
   <sheets>
     <sheet name="01_event_recipi" sheetId="1" r:id="rId1"/>
@@ -1404,23 +1404,6 @@
     </rPh>
     <rPh sb="399" eb="400">
       <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">☆ストロベリーパフェのレシピ
-★事前に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;と、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;は準備しておきましょう！
-①&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;と&lt;color=#BA9535FF&gt;ヨーグルト&lt;/color&gt;、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;を敷きます。
-②できた土台の上に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;をのせ、さらに、山盛りの&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;をのせたら完成！
-※アレンジレシピ
-①の時に、いちごの代わりにコーンフレークを使い、
-②のいちごを、アイスクリームに変えると..。
-</t>
-    <rPh sb="17" eb="19">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジュンビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2387,86 +2370,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【遥かなる蒼のレシピ】
-王宮の特別に許されたものしか知らないチョコレートのレシピです。
-むずかしい作り方ではないですが、材料が特殊。
-ターコイズブルーに近い色のチョコレートになります。
-【手順】
-チョコレートを作る際に、
-カカオニブができたタイミングで、
-カカオニブに、すみれとマーメイドハーブを入れ、よく混ぜます。
-特別な香りの、アクアマリンの液体チョコレートができます。
-あとは、通常通り冷やせば、
-アクアマリンチョコレートの完成です！</t>
-    <rPh sb="1" eb="2">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>オウキュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ユル</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="153" eb="154">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="158" eb="159">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>トクベツ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="199" eb="202">
-      <t>ツウジョウドオ</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="222" eb="224">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ビスケットのレシピ】
 ねこクッキーよりも油分が少なく、サクサクのハードビスケットの作り方です。
 主に、タルト生地作りに活用してくださいね。
@@ -2536,94 +2439,6 @@
     <rPh sb="206" eb="208">
       <t>カツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【コンフィズリーのレシピ】
-ちっちゃい、ゼリーのような食感の飴の作り方
-☆事前に、メレンゲを準備しておきましょう。
-①&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;に、&lt;color=#BA9535FF&gt;水・ゼラチンパウダー&lt;/color&gt;を溶かす。
-②&lt;color=#BA9535FF&gt;メレンゲ&lt;/color&gt;を用意し、①の液体を入れ、&lt;color=#BA9535FF&gt;好きなフルーツの果汁&lt;/color&gt;を絞り、混ぜたら完成！
-冷めたら、小さく切って召し上がってください。
-ちっちゃく切れば、ゼリーのような飴のような、不思議な食感に。</t>
-    <rPh sb="28" eb="30">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>カジュウ</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="219" eb="221">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="232" eb="233">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>アメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【ラングドシャクッキーのレシピ】
-軽やかなクッキー　ラングドシャの作り方をご紹介いたします。
-①&lt;color=#BA9535FF&gt;卵白＋砂糖＋バター&lt;/color&gt;を混ぜた生地を作ります。
-②①の生地に&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜて、焼きあがれば出来上がり♪
-卵白を使うことで、軽やかな舌ざわりになっています。
-お土産にもピッタリですよ～♪</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2798,104 +2613,6 @@
     </rPh>
     <rPh sb="220" eb="222">
       <t>ツウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【スフレパンケーキのレシピ】
-ふんわりふわふわ、とろけるようなパンケーキ・スフレの作り方をご紹介します。
-A. カスタードクリームとB. メレンゲを作り、混ぜ合わせることで出来た生地を焼けば完成です。
-A.
-①&lt;color=#BA9535FF&gt;卵黄&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜます。＜アパレイユ・イエロー
-＞
-②そこに&lt;color=#BA9535FF&gt;牛乳&lt;/color&gt;と&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜ合わせる。
-カスタードクリームができる。
-B. 
-③&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れながら、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;で混ぜ、メレンゲを作ります。
-AとBを合わせて、焼けば完成！
-ふんわりとろける、スフレなパンケーキの完成です。
-仕上げに、パウダーシュガーをかけたり、クリームを添えてもおいしいでしょう♪
-</t>
-    <rPh sb="42" eb="43">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ランオウ</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="233" eb="236">
-      <t>コムギコ</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="247" eb="248">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="319" eb="321">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="330" eb="331">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="370" eb="371">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="378" eb="379">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="389" eb="390">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="394" eb="395">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="397" eb="399">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="420" eb="422">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="427" eb="429">
-      <t>シア</t>
-    </rPh>
-    <rPh sb="451" eb="452">
-      <t>ソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3185,178 +2902,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">【ふわころのレシピ】
-一口サイズのもちもち食感ロールケーキの作り方をご紹介します。
-A. もちもち生地とB. メレンゲを作り、混ぜて出来た生地を焼けば完成です。
-A.
-①&lt;color=#BA9535FF&gt;バター・牛乳&lt;/color&gt;を入れた液体に、&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;を入れ混ぜる。
-②さらに、&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を入れて混ぜ合わせる
-B. 
-③&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れながら、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;で混ぜ、メレンゲを作ります。
-④AとBを合わせて、小さく丸くして焼けば完成！
-ふわもちで、ころころしたクセになるお菓子です。
-</t>
-    <rPh sb="12" eb="14">
-      <t>ヒトクチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショウカイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="203" eb="204">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>ランパク</t>
-    </rPh>
-    <rPh sb="259" eb="261">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="270" eb="271">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="310" eb="311">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="318" eb="319">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="330" eb="331">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="335" eb="336">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="338" eb="339">
-      <t>マル</t>
-    </rPh>
-    <rPh sb="342" eb="343">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="345" eb="347">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="368" eb="370">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">【タルト・オ・ポムのレシピ】
-ご家庭でおなじみの、アップルパイの作り方を伝授いたします。
-以下の２つの材料を事前に作っておきましょう。
-A. パイ生地
-B. りんごのコンポート
-【A. パイ生地】
-①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;、さらに&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を入れて混ぜ合わせる。
-②そこに、&lt;color=#BA9535FF&gt;塩&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をさらに入れて、よく練ってベースの生地は完成。
-【B. りんごのコンポート】
-①&lt;color=#BA9535FF&gt;りんご&lt;/color&gt;と&lt;color=#BA9535FF&gt;砂糖水&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;小さい鍋&lt;/color&gt;にいれて煮詰めます。
-水分がなくなり、冷めたら完成。
-【焼く】
-Aの生地の中にBを入れて、じっくり焼き上げればアップルパイの完成です♪
-</t>
-    <rPh sb="47" eb="49">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ザイリョウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="352" eb="354">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="354" eb="355">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="382" eb="383">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="385" eb="386">
-      <t>ナベ</t>
-    </rPh>
-    <rPh sb="398" eb="400">
-      <t>ニツ</t>
-    </rPh>
-    <rPh sb="405" eb="407">
-      <t>スイブン</t>
-    </rPh>
-    <rPh sb="413" eb="414">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="417" eb="419">
-      <t>カンセイ</t>
-    </rPh>
-    <rPh sb="423" eb="424">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="429" eb="431">
-      <t>キジ</t>
-    </rPh>
-    <rPh sb="432" eb="433">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="436" eb="437">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="444" eb="445">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="446" eb="447">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="457" eb="459">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">【お城ケーキ　ファンタジアのレシピ】
 難易度：高
 とってもかわいいお城のケーキ♪
@@ -3641,39 +3186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【ロールクッキーのレシピ】
-くるくる巻いたサクサク食感のロールクッキーの作り方
-①&lt;color=#BA9535FF&gt;ラングドシャクッキー&lt;/color&gt;を作ります。
-②ラングドシャクッキーに、&lt;color=#FF5CA1FF&gt;魔法「ウィンドロール」&lt;/color&gt;をかけて、くるくる巻けば完成♪
-卵白を使うことで、軽やかな舌ざわりになっています。
-お土産にもピッタリですよ～♪</t>
-    <rPh sb="19" eb="20">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショクカン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>水あめのレシピ</t>
     <rPh sb="0" eb="1">
       <t>ミズ</t>
@@ -4004,62 +3516,6 @@
   </si>
   <si>
     <t>###</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【パチパチソーダのレシピ】
-口の中でパチパチとはじける、不思議なキャンディです。
-事前に、炭酸水を準備しましょう。
-①&lt;color=#BA9535FF&gt;炭酸水&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れ、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;を入れます。
-②できあがった液体を、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;や&lt;color=#FF5CA1FF&gt;魔法&lt;/color&gt;で冷やせば出来上がり！</t>
-    <rPh sb="15" eb="16">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>フシギ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>タンサンスイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>タンサン</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>エキタイ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ヒョウシツ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="233" eb="236">
-      <t>デキア</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5681,38 +5137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黄色は、まだcompoDBに入れてない
-オレンジは、compoDBは入れた。Utageの感想は入れていない。薄い水色は、CompoはOKで画像、感想がまだ。</t>
-    <rPh sb="0" eb="2">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カンソウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ミズイロ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>カンソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Items/chocolate_aquamarine</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6570,6 +5994,608 @@
     </rPh>
     <rPh sb="262" eb="264">
       <t>カンセイミメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄色は、まだcompoDBに入れてない
+オレンジは、compoDBは入れた。Utageの感想は入れていない。薄い水色は、Compo感想はOKで画像がまだ。緑は、他全てOKでゲームにまだ入れてない。</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カンソウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パチパチソーダのレシピ】
+口の中でパチパチとはじける、不思議なキャンディです。
+事前に、炭酸水を準備しましょう。
+①&lt;color=#BA9535FF&gt;炭酸水&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れ、&lt;color=#BA9535FF&gt;ゼラチンパウダー&lt;/color&gt;を入れます。
+②できあがった液体を、&lt;color=#FF5CA1FF&gt;氷室&lt;/color&gt;や&lt;color=#FF5CA1FF&gt;魔法「フリージング」&lt;/color&gt;で冷やせば出来上がり！</t>
+    <rPh sb="15" eb="16">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>フシギ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>タンサンスイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>タンサン</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ヒョウシツ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="237" eb="238">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="241" eb="244">
+      <t>デキア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【遥かなる蒼のレシピ】
+王宮の特別に許されたものしか知らないチョコレートのレシピです。
+むずかしい作り方ではないですが、材料が特殊。
+ターコイズブルーに近い色のチョコレートになります。
+【手順】
+チョコレートを作る際に、
+カカオニブができたタイミングで、
+カカオニブに、&lt;color=#BA9535FF&gt;すみれ&lt;/color&gt;と&lt;color=#BA9535FF&gt;マーメイドハーブ&lt;/color&gt;を入れ、よく混ぜます。
+特別な香りの、アクアマリンの液体チョコレートができます。
+あとは、通常通り冷やせば、
+アクアマリンチョコレートの完成です！</t>
+    <rPh sb="1" eb="2">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウキュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="249" eb="252">
+      <t>ツウジョウドオ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="272" eb="274">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ラングドシャクッキーのレシピ】
+軽やかなクッキー　ラングドシャの作り方をご紹介いたします。
+①&lt;color=#BA9535FF&gt;卵白＋砂糖＋バター&lt;/color&gt;を混ぜた生地を作ります。
+②　①の生地に&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜて、焼きあがれば出来上がり♪
+卵白を使うことで、軽やかな舌ざわりになっています。
+お土産にもピッタリですよ～♪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ロールクッキーのレシピ】
+くるくる巻いたサクサク食感のロールクッキーの作り方
+準備：魔法「ウィンドロール」を覚えること
+①&lt;color=#BA9535FF&gt;ラングドシャクッキー&lt;/color&gt;を作ります。
+②ラングドシャクッキーに、&lt;color=#FF5CA1FF&gt;魔法「ウィンドロール」&lt;/color&gt;をかけて、くるくる巻けば完成♪
+くるくる巻いたクッキーが、とても歯ざわりのよいお菓子です。
+お菓子のお家を作るときの材料にも使えます。</t>
+    <rPh sb="19" eb="20">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オボ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【スフレパンケーキのレシピ】
+ふんわりふわふわ、とろけるようなパンケーキ・スフレの作り方をご紹介します。
+&lt;color=#BA9535FF&gt;A. カスタードクリーム&lt;/color&gt;と&lt;color=#BA9535FF&gt;B. メレンゲ&lt;/color&gt;を作り、混ぜ合わせることで出来た生地を焼けば完成です。
+A.
+①&lt;color=#BA9535FF&gt;卵黄&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を混ぜます。＜アパレイユ・イエロー＞
+②そこに&lt;color=#BA9535FF&gt;牛乳&lt;/color&gt;と&lt;color=#BA9535FF&gt;小麦粉&lt;/color&gt;を混ぜ合わせる。
+カスタードクリームができる。
+B. 
+③&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れながら、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;で混ぜ、メレンゲを作ります。
+AとBを合わせて、焼けば完成！
+ふんわりとろける、スフレなパンケーキの完成です。
+仕上げに、パウダーシュガーをかけたり、クリームを添えてもおいしいでしょう♪
+</t>
+    <rPh sb="42" eb="43">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ランオウ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="282" eb="285">
+      <t>コムギコ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="368" eb="370">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="379" eb="380">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="419" eb="420">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="427" eb="428">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="438" eb="439">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="443" eb="444">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="446" eb="448">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="469" eb="471">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="476" eb="478">
+      <t>シア</t>
+    </rPh>
+    <rPh sb="500" eb="501">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【ふわころのレシピ】
+一口サイズのもちもち食感ロールケーキの作り方をご紹介します。
+A. もちもち生地とB. メレンゲを作り、混ぜて出来た生地を焼けば完成です。
+A.
+①&lt;color=#BA9535FF&gt;バター・牛乳&lt;/color&gt;を入れた液体に、&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;を入れ混ぜる。
+②さらに、&lt;color=#BA9535FF&gt;たまご&lt;/color&gt;を入れて混ぜ合わせる
+B. 
+③&lt;color=#BA9535FF&gt;卵白&lt;/color&gt;に&lt;color=#BA9535FF&gt;砂糖&lt;/color&gt;を入れながら、&lt;color=#FF5CA1FF&gt;ウィンドミキサー&lt;/color&gt;で混ぜ、メレンゲを作ります。
+④AとBを合わせて、焼けば完成！
+ふわもちで、ころころしたクセになるお菓子です。
+</t>
+    <rPh sb="12" eb="14">
+      <t>ヒトクチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>ランパク</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="310" eb="311">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="335" eb="336">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="338" eb="340">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="361" eb="363">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【タルト・オ・ポムのレシピ】
+ご家庭でおなじみの、アップルパイの作り方を伝授いたします。
+以下の２つの材料を先に作り、あとで合わせます。
+A. パイ生地
+B. りんごのコンポート
+【A. パイ生地】
+①&lt;color=#BA9535FF&gt;薄力粉&lt;/color&gt;と&lt;color=#BA9535FF&gt;強力粉&lt;/color&gt;、さらに&lt;color=#BA9535FF&gt;バター&lt;/color&gt;を入れて混ぜ合わせる。
+②そこに、&lt;color=#BA9535FF&gt;塩&lt;/color&gt;と&lt;color=#BA9535FF&gt;水&lt;/color&gt;をさらに入れて、よく練ってベースの生地は完成。
+【B. りんごのコンポート】
+①&lt;color=#BA9535FF&gt;りんご&lt;/color&gt;と&lt;color=#BA9535FF&gt;砂糖水&lt;/color&gt;を、&lt;color=#FF5CA1FF&gt;小さい鍋&lt;/color&gt;にいれて煮詰めます。
+水分がなくなり、冷めたら完成。
+【焼く】
+パイ生地の中にりんごのコンポートを入れて、
+じっくり焼き上げればアップルパイの完成です♪
+</t>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="355" eb="356">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="383" eb="384">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="386" eb="387">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>ニツ</t>
+    </rPh>
+    <rPh sb="406" eb="408">
+      <t>スイブン</t>
+    </rPh>
+    <rPh sb="414" eb="415">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="418" eb="420">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="424" eb="425">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【コンフィズリーのレシピ】
+ちっちゃい、ゼリーのような食感の飴の作り方
+☆事前に、メレンゲを準備しておきましょう。
+①&lt;color=#FF5CA1FF&gt;お鍋&lt;/color&gt;に、&lt;color=#BA9535FF&gt;水・ゼラチンパウダー&lt;/color&gt;を溶かす。
+②&lt;color=#BA9535FF&gt;メレンゲ&lt;/color&gt;に、①の液体を入れ、&lt;color=#BA9535FF&gt;好きなフルーツ&lt;/color&gt;を絞り、混ぜたら完成！
+冷めたら、小さく切って召し上がってください。
+ちっちゃく切れば、ゼリーのような飴のような、不思議な食感に。</t>
+    <rPh sb="28" eb="30">
+      <t>ショクカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ナベ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>エキタイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="223" eb="224">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="257" eb="258">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☆ストロベリーパフェのレシピ
+★事前に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;と、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;、&lt;color=#BA9535FF&gt;ガラスの器&lt;/color&gt;は準備しておきましょう！
+※ガラスの器がないと、失敗しやすくなります。
+①&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;と&lt;color=#BA9535FF&gt;ヨーグルト&lt;/color&gt;、&lt;color=#BA9535FF&gt;アイスクリーム&lt;/color&gt;を敷きます。
+②できた土台の上に、&lt;color=#BA9535FF&gt;カステラ&lt;/color&gt;をのせ、さらに、山盛りの&lt;color=#BA9535FF&gt;いちご&lt;/color&gt;をのせたら完成！
+※アレンジレシピ
+①の時に、いちごの代わりにコーンフレークを使い、
+②のいちごを、アイスクリームに変えると..。
+</t>
+    <rPh sb="17" eb="19">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ウツワ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ウツワ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>シッパイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6636,12 +6662,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6655,6 +6675,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6673,7 +6699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6709,12 +6735,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7033,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173DA0A6-4123-4DDB-852A-62922F6582E3}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7169,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="L3">
         <v>9999</v>
@@ -7295,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -7316,7 +7336,7 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -7337,7 +7357,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L7">
         <v>3000</v>
@@ -7463,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L10">
         <v>3070</v>
@@ -7505,7 +7525,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L11">
         <v>3080</v>
@@ -7523,10 +7543,10 @@
         <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -7547,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L12">
         <v>3090</v>
@@ -7565,10 +7585,10 @@
         <v>173</v>
       </c>
       <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
         <v>186</v>
-      </c>
-      <c r="D13" t="s">
-        <v>187</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -7589,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L13">
         <v>3100</v>
@@ -7799,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L18">
         <v>20</v>
@@ -7925,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L21">
         <v>50</v>
@@ -8093,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L25">
         <v>90</v>
@@ -8261,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>180</v>
+        <v>429</v>
       </c>
       <c r="L29">
         <v>130</v>
@@ -8639,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L38">
         <v>270</v>
@@ -8681,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L39">
         <v>280</v>
@@ -8696,13 +8716,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40">
         <v>500</v>
@@ -8723,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L40">
         <v>290</v>
@@ -8738,13 +8758,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -8765,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L41">
         <v>300</v>
@@ -8774,1473 +8794,1473 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7">
+    <row r="42" spans="1:13" s="5" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="5">
+        <v>500</v>
+      </c>
+      <c r="F42" s="5">
+        <v>150</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="L42" s="5">
+        <v>9999</v>
+      </c>
+      <c r="M42" s="5">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43">
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <v>150</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43">
+        <v>310</v>
+      </c>
+      <c r="M43">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>383</v>
+      </c>
+      <c r="C44" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>150</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44">
+        <v>320</v>
+      </c>
+      <c r="M44">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="11">
+        <v>500</v>
+      </c>
+      <c r="F45" s="11">
+        <v>150</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
+        <v>1</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L45" s="11">
+        <v>330</v>
+      </c>
+      <c r="M45" s="11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="11">
+        <v>500</v>
+      </c>
+      <c r="F46" s="11">
+        <v>150</v>
+      </c>
+      <c r="G46" s="11">
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L46" s="11">
+        <v>340</v>
+      </c>
+      <c r="M46" s="11">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="11">
+        <v>500</v>
+      </c>
+      <c r="F47" s="11">
+        <v>150</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>1</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="L47" s="11">
+        <v>350</v>
+      </c>
+      <c r="M47" s="11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="11">
+        <v>500</v>
+      </c>
+      <c r="F48" s="11">
+        <v>150</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" s="11">
+        <v>360</v>
+      </c>
+      <c r="M48" s="11">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E49" s="11">
+        <v>500</v>
+      </c>
+      <c r="F49" s="11">
+        <v>150</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" s="11">
+        <v>370</v>
+      </c>
+      <c r="M49" s="11">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" s="11">
+        <v>500</v>
+      </c>
+      <c r="F50" s="11">
+        <v>150</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" s="11">
+        <v>380</v>
+      </c>
+      <c r="M50" s="11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="11">
+        <v>500</v>
+      </c>
+      <c r="F51" s="11">
+        <v>150</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>1</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L51" s="11">
+        <v>390</v>
+      </c>
+      <c r="M51" s="11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="9">
+        <v>500</v>
+      </c>
+      <c r="F52" s="9">
+        <v>150</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
+        <v>1</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="L52" s="9">
+        <v>400</v>
+      </c>
+      <c r="M52" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="11">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="11">
+        <v>500</v>
+      </c>
+      <c r="F53" s="11">
+        <v>150</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
+        <v>1</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="L53" s="11">
+        <v>410</v>
+      </c>
+      <c r="M53" s="11">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="11">
+        <v>500</v>
+      </c>
+      <c r="F54" s="11">
+        <v>150</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>1</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="L54" s="11">
+        <v>500</v>
+      </c>
+      <c r="M54" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55" s="11">
+        <v>500</v>
+      </c>
+      <c r="F55" s="11">
+        <v>150</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
+        <v>1</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="L55" s="11">
+        <v>510</v>
+      </c>
+      <c r="M55" s="11">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56">
+        <v>500</v>
+      </c>
+      <c r="F56">
+        <v>150</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L56">
+        <v>520</v>
+      </c>
+      <c r="M56">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+      <c r="F57">
+        <v>150</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="L57">
+        <v>530</v>
+      </c>
+      <c r="M57">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58">
+        <v>500</v>
+      </c>
+      <c r="F58">
+        <v>150</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="L58">
+        <v>540</v>
+      </c>
+      <c r="M58">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>395</v>
+      </c>
+      <c r="C59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59">
+        <v>500</v>
+      </c>
+      <c r="F59">
+        <v>150</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="L59">
+        <v>550</v>
+      </c>
+      <c r="M59">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="11">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" s="11">
+        <v>500</v>
+      </c>
+      <c r="F60" s="11">
+        <v>150</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0</v>
+      </c>
+      <c r="J60" s="11">
+        <v>1</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="L60" s="11">
+        <v>560</v>
+      </c>
+      <c r="M60" s="11">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="11">
+        <v>500</v>
+      </c>
+      <c r="F61" s="11">
+        <v>150</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+      <c r="J61" s="11">
+        <v>1</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" s="11">
+        <v>570</v>
+      </c>
+      <c r="M61" s="11">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="11">
+        <v>500</v>
+      </c>
+      <c r="F62" s="11">
+        <v>150</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0</v>
+      </c>
+      <c r="J62" s="11">
+        <v>1</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="L62" s="11">
+        <v>580</v>
+      </c>
+      <c r="M62" s="11">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E63" s="11">
+        <v>500</v>
+      </c>
+      <c r="F63" s="11">
+        <v>150</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0</v>
+      </c>
+      <c r="J63" s="11">
+        <v>1</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="L63" s="11">
+        <v>590</v>
+      </c>
+      <c r="M63" s="11">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="7">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E64" s="7">
+        <v>500</v>
+      </c>
+      <c r="F64" s="7">
+        <v>150</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="L64" s="7">
+        <v>600</v>
+      </c>
+      <c r="M64" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="11">
+        <v>500</v>
+      </c>
+      <c r="F65" s="11">
+        <v>150</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11">
+        <v>1</v>
+      </c>
+      <c r="K65" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="L65" s="11">
+        <v>610</v>
+      </c>
+      <c r="M65" s="11">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E66" s="7">
+        <v>500</v>
+      </c>
+      <c r="F66" s="7">
+        <v>150</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>0</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="L66" s="7">
+        <v>620</v>
+      </c>
+      <c r="M66" s="7">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E67" s="11">
+        <v>500</v>
+      </c>
+      <c r="F67" s="11">
+        <v>150</v>
+      </c>
+      <c r="G67" s="11">
+        <v>0</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+      <c r="J67" s="11">
+        <v>1</v>
+      </c>
+      <c r="K67" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="L67" s="11">
+        <v>700</v>
+      </c>
+      <c r="M67" s="11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="11">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="11">
+        <v>500</v>
+      </c>
+      <c r="F68" s="11">
+        <v>150</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <v>0</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0</v>
+      </c>
+      <c r="J68" s="11">
+        <v>1</v>
+      </c>
+      <c r="K68" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="L68" s="11">
+        <v>710</v>
+      </c>
+      <c r="M68" s="11">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="11">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" s="11">
+        <v>500</v>
+      </c>
+      <c r="F69" s="11">
+        <v>150</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <v>1</v>
+      </c>
+      <c r="K69" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="L69" s="11">
+        <v>720</v>
+      </c>
+      <c r="M69" s="11">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="11">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="11">
+        <v>500</v>
+      </c>
+      <c r="F70" s="11">
+        <v>150</v>
+      </c>
+      <c r="G70" s="11">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0</v>
+      </c>
+      <c r="J70" s="11">
+        <v>1</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="L70" s="11">
+        <v>730</v>
+      </c>
+      <c r="M70" s="11">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="11">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" s="11">
+        <v>500</v>
+      </c>
+      <c r="F71" s="11">
+        <v>150</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0</v>
+      </c>
+      <c r="J71" s="11">
+        <v>1</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="L71" s="11">
+        <v>740</v>
+      </c>
+      <c r="M71" s="11">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="E72" s="11">
         <v>500</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F72" s="11">
         <v>150</v>
       </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="L42" s="7">
-        <v>9999</v>
-      </c>
-      <c r="M42" s="7">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E43" s="13">
+      <c r="G72" s="11">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <v>0</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0</v>
+      </c>
+      <c r="J72" s="11">
+        <v>1</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="L72" s="11">
+        <v>750</v>
+      </c>
+      <c r="M72" s="11">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="11">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E73" s="11">
         <v>500</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F73" s="11">
         <v>150</v>
       </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
-        <v>0</v>
-      </c>
-      <c r="J43" s="13">
+      <c r="G73" s="11">
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0</v>
+      </c>
+      <c r="J73" s="11">
         <v>1</v>
       </c>
-      <c r="K43" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="L43" s="13">
-        <v>310</v>
-      </c>
-      <c r="M43" s="13">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="13">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="13">
+      <c r="K73" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L73" s="11">
+        <v>760</v>
+      </c>
+      <c r="M73" s="11">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="11">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="11">
         <v>500</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F74" s="11">
         <v>150</v>
       </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13">
-        <v>0</v>
-      </c>
-      <c r="J44" s="13">
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <v>0</v>
+      </c>
+      <c r="I74" s="11">
+        <v>0</v>
+      </c>
+      <c r="J74" s="11">
         <v>1</v>
       </c>
-      <c r="K44" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="L44" s="13">
-        <v>320</v>
-      </c>
-      <c r="M44" s="13">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="13">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="13">
+      <c r="K74" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="L74" s="11">
+        <v>770</v>
+      </c>
+      <c r="M74" s="11">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="11">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" s="11">
         <v>500</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F75" s="11">
         <v>150</v>
       </c>
-      <c r="G45" s="13">
-        <v>0</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
-        <v>0</v>
-      </c>
-      <c r="J45" s="13">
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
+      </c>
+      <c r="I75" s="11">
+        <v>0</v>
+      </c>
+      <c r="J75" s="11">
         <v>1</v>
       </c>
-      <c r="K45" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="L45" s="13">
-        <v>330</v>
-      </c>
-      <c r="M45" s="13">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="13">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" s="13">
+      <c r="K75" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="L75" s="11">
+        <v>780</v>
+      </c>
+      <c r="M75" s="11">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="7">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" s="7">
         <v>500</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F76" s="7">
         <v>150</v>
       </c>
-      <c r="G46" s="13">
-        <v>0</v>
-      </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
-        <v>0</v>
-      </c>
-      <c r="J46" s="13">
-        <v>1</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="L46" s="13">
-        <v>340</v>
-      </c>
-      <c r="M46" s="13">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="13">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D47" s="13" t="s">
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="E47" s="13">
-        <v>500</v>
-      </c>
-      <c r="F47" s="13">
-        <v>150</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="13">
-        <v>1</v>
-      </c>
-      <c r="K47" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="L47" s="13">
-        <v>350</v>
-      </c>
-      <c r="M47" s="13">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="13">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="13">
-        <v>500</v>
-      </c>
-      <c r="F48" s="13">
-        <v>150</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
-        <v>0</v>
-      </c>
-      <c r="J48" s="13">
-        <v>1</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="L48" s="13">
-        <v>360</v>
-      </c>
-      <c r="M48" s="13">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="13">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E49" s="13">
-        <v>500</v>
-      </c>
-      <c r="F49" s="13">
-        <v>150</v>
-      </c>
-      <c r="G49" s="13">
-        <v>0</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="I49" s="13">
-        <v>0</v>
-      </c>
-      <c r="J49" s="13">
-        <v>1</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="L49" s="13">
-        <v>370</v>
-      </c>
-      <c r="M49" s="13">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="E50" s="13">
-        <v>500</v>
-      </c>
-      <c r="F50" s="13">
-        <v>150</v>
-      </c>
-      <c r="G50" s="13">
-        <v>0</v>
-      </c>
-      <c r="H50" s="13">
-        <v>0</v>
-      </c>
-      <c r="I50" s="13">
-        <v>0</v>
-      </c>
-      <c r="J50" s="13">
-        <v>1</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="L50" s="13">
-        <v>380</v>
-      </c>
-      <c r="M50" s="13">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="13">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="E51" s="13">
-        <v>500</v>
-      </c>
-      <c r="F51" s="13">
-        <v>150</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13">
-        <v>0</v>
-      </c>
-      <c r="J51" s="13">
-        <v>1</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="L51" s="13">
-        <v>390</v>
-      </c>
-      <c r="M51" s="13">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" s="11">
-        <v>500</v>
-      </c>
-      <c r="F52" s="11">
-        <v>150</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11">
-        <v>1</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="L52" s="11">
-        <v>400</v>
-      </c>
-      <c r="M52" s="11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="13">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E53" s="13">
-        <v>500</v>
-      </c>
-      <c r="F53" s="13">
-        <v>150</v>
-      </c>
-      <c r="G53" s="13">
-        <v>0</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
-      </c>
-      <c r="I53" s="13">
-        <v>0</v>
-      </c>
-      <c r="J53" s="13">
-        <v>1</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="L53" s="13">
-        <v>410</v>
-      </c>
-      <c r="M53" s="13">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="13">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E54" s="13">
-        <v>500</v>
-      </c>
-      <c r="F54" s="13">
-        <v>150</v>
-      </c>
-      <c r="G54" s="13">
-        <v>0</v>
-      </c>
-      <c r="H54" s="13">
-        <v>0</v>
-      </c>
-      <c r="I54" s="13">
-        <v>0</v>
-      </c>
-      <c r="J54" s="13">
-        <v>1</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="L54" s="13">
-        <v>500</v>
-      </c>
-      <c r="M54" s="13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="13">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="13">
-        <v>500</v>
-      </c>
-      <c r="F55" s="13">
-        <v>150</v>
-      </c>
-      <c r="G55" s="13">
-        <v>0</v>
-      </c>
-      <c r="H55" s="13">
-        <v>0</v>
-      </c>
-      <c r="I55" s="13">
-        <v>0</v>
-      </c>
-      <c r="J55" s="13">
-        <v>1</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="L55" s="13">
-        <v>510</v>
-      </c>
-      <c r="M55" s="13">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="13">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="13">
-        <v>500</v>
-      </c>
-      <c r="F56" s="13">
-        <v>150</v>
-      </c>
-      <c r="G56" s="13">
-        <v>0</v>
-      </c>
-      <c r="H56" s="13">
-        <v>0</v>
-      </c>
-      <c r="I56" s="13">
-        <v>0</v>
-      </c>
-      <c r="J56" s="13">
-        <v>1</v>
-      </c>
-      <c r="K56" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="L56" s="13">
-        <v>520</v>
-      </c>
-      <c r="M56" s="13">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="13">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E57" s="13">
-        <v>500</v>
-      </c>
-      <c r="F57" s="13">
-        <v>150</v>
-      </c>
-      <c r="G57" s="13">
-        <v>0</v>
-      </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13">
-        <v>0</v>
-      </c>
-      <c r="J57" s="13">
-        <v>1</v>
-      </c>
-      <c r="K57" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="L57" s="13">
-        <v>530</v>
-      </c>
-      <c r="M57" s="13">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="13">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="13">
-        <v>500</v>
-      </c>
-      <c r="F58" s="13">
-        <v>150</v>
-      </c>
-      <c r="G58" s="13">
-        <v>0</v>
-      </c>
-      <c r="H58" s="13">
-        <v>0</v>
-      </c>
-      <c r="I58" s="13">
-        <v>0</v>
-      </c>
-      <c r="J58" s="13">
-        <v>1</v>
-      </c>
-      <c r="K58" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="L58" s="13">
-        <v>540</v>
-      </c>
-      <c r="M58" s="13">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="13">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="E59" s="13">
-        <v>500</v>
-      </c>
-      <c r="F59" s="13">
-        <v>150</v>
-      </c>
-      <c r="G59" s="13">
-        <v>0</v>
-      </c>
-      <c r="H59" s="13">
-        <v>0</v>
-      </c>
-      <c r="I59" s="13">
-        <v>0</v>
-      </c>
-      <c r="J59" s="13">
-        <v>1</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="L59" s="13">
-        <v>550</v>
-      </c>
-      <c r="M59" s="13">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="13">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" s="13">
-        <v>500</v>
-      </c>
-      <c r="F60" s="13">
-        <v>150</v>
-      </c>
-      <c r="G60" s="13">
-        <v>0</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
-        <v>0</v>
-      </c>
-      <c r="J60" s="13">
-        <v>1</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="L60" s="13">
-        <v>560</v>
-      </c>
-      <c r="M60" s="13">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="13">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E61" s="13">
-        <v>500</v>
-      </c>
-      <c r="F61" s="13">
-        <v>150</v>
-      </c>
-      <c r="G61" s="13">
-        <v>0</v>
-      </c>
-      <c r="H61" s="13">
-        <v>0</v>
-      </c>
-      <c r="I61" s="13">
-        <v>0</v>
-      </c>
-      <c r="J61" s="13">
-        <v>1</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="L61" s="13">
-        <v>570</v>
-      </c>
-      <c r="M61" s="13">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="E62" s="13">
-        <v>500</v>
-      </c>
-      <c r="F62" s="13">
-        <v>150</v>
-      </c>
-      <c r="G62" s="13">
-        <v>0</v>
-      </c>
-      <c r="H62" s="13">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13">
-        <v>0</v>
-      </c>
-      <c r="J62" s="13">
-        <v>1</v>
-      </c>
-      <c r="K62" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="L62" s="13">
-        <v>580</v>
-      </c>
-      <c r="M62" s="13">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="13">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E63" s="13">
-        <v>500</v>
-      </c>
-      <c r="F63" s="13">
-        <v>150</v>
-      </c>
-      <c r="G63" s="13">
-        <v>0</v>
-      </c>
-      <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13">
-        <v>0</v>
-      </c>
-      <c r="J63" s="13">
-        <v>1</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="L63" s="13">
-        <v>590</v>
-      </c>
-      <c r="M63" s="13">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="9">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E64" s="9">
-        <v>500</v>
-      </c>
-      <c r="F64" s="9">
-        <v>150</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9">
-        <v>0</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L64" s="9">
-        <v>600</v>
-      </c>
-      <c r="M64" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="5">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" s="5">
-        <v>500</v>
-      </c>
-      <c r="F65" s="5">
-        <v>150</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5">
-        <v>1</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="L65" s="5">
-        <v>610</v>
-      </c>
-      <c r="M65" s="5">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="9">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E66" s="9">
-        <v>500</v>
-      </c>
-      <c r="F66" s="9">
-        <v>150</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0</v>
-      </c>
-      <c r="K66" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="L66" s="9">
-        <v>620</v>
-      </c>
-      <c r="M66" s="9">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="5">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="5">
-        <v>500</v>
-      </c>
-      <c r="F67" s="5">
-        <v>150</v>
-      </c>
-      <c r="G67" s="5">
-        <v>0</v>
-      </c>
-      <c r="H67" s="5">
-        <v>0</v>
-      </c>
-      <c r="I67" s="5">
-        <v>0</v>
-      </c>
-      <c r="J67" s="5">
-        <v>1</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="L67" s="5">
-        <v>700</v>
-      </c>
-      <c r="M67" s="5">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="5">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E68" s="5">
-        <v>500</v>
-      </c>
-      <c r="F68" s="5">
-        <v>150</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0</v>
-      </c>
-      <c r="H68" s="5">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5">
-        <v>1</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="L68" s="5">
-        <v>710</v>
-      </c>
-      <c r="M68" s="5">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="5">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E69" s="5">
-        <v>500</v>
-      </c>
-      <c r="F69" s="5">
-        <v>150</v>
-      </c>
-      <c r="G69" s="5">
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <v>0</v>
-      </c>
-      <c r="I69" s="5">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5">
-        <v>1</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="L69" s="5">
-        <v>720</v>
-      </c>
-      <c r="M69" s="5">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="5">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E70" s="5">
-        <v>500</v>
-      </c>
-      <c r="F70" s="5">
-        <v>150</v>
-      </c>
-      <c r="G70" s="5">
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <v>0</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5">
-        <v>1</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="L70" s="5">
-        <v>730</v>
-      </c>
-      <c r="M70" s="5">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="5">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E71" s="5">
-        <v>500</v>
-      </c>
-      <c r="F71" s="5">
-        <v>150</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
-        <v>0</v>
-      </c>
-      <c r="I71" s="5">
-        <v>0</v>
-      </c>
-      <c r="J71" s="5">
-        <v>1</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="L71" s="5">
-        <v>740</v>
-      </c>
-      <c r="M71" s="5">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="5">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E72" s="5">
-        <v>500</v>
-      </c>
-      <c r="F72" s="5">
-        <v>150</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0</v>
-      </c>
-      <c r="H72" s="5">
-        <v>0</v>
-      </c>
-      <c r="I72" s="5">
-        <v>0</v>
-      </c>
-      <c r="J72" s="5">
-        <v>1</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="L72" s="5">
-        <v>750</v>
-      </c>
-      <c r="M72" s="5">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="5">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E73" s="5">
-        <v>500</v>
-      </c>
-      <c r="F73" s="5">
-        <v>150</v>
-      </c>
-      <c r="G73" s="5">
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0</v>
-      </c>
-      <c r="I73" s="5">
-        <v>0</v>
-      </c>
-      <c r="J73" s="5">
-        <v>1</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L73" s="5">
-        <v>760</v>
-      </c>
-      <c r="M73" s="5">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="5">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" s="5">
-        <v>500</v>
-      </c>
-      <c r="F74" s="5">
-        <v>150</v>
-      </c>
-      <c r="G74" s="5">
-        <v>0</v>
-      </c>
-      <c r="H74" s="5">
-        <v>0</v>
-      </c>
-      <c r="I74" s="5">
-        <v>0</v>
-      </c>
-      <c r="J74" s="5">
-        <v>1</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="L74" s="5">
-        <v>770</v>
-      </c>
-      <c r="M74" s="5">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="5">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E75" s="5">
-        <v>500</v>
-      </c>
-      <c r="F75" s="5">
-        <v>150</v>
-      </c>
-      <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5">
-        <v>0</v>
-      </c>
-      <c r="J75" s="5">
-        <v>1</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="L75" s="5">
-        <v>780</v>
-      </c>
-      <c r="M75" s="5">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="9">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E76" s="9">
-        <v>500</v>
-      </c>
-      <c r="F76" s="9">
-        <v>150</v>
-      </c>
-      <c r="G76" s="9">
-        <v>0</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0</v>
-      </c>
-      <c r="J76" s="9">
-        <v>1</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="L76" s="9">
+      <c r="L76" s="7">
         <v>790</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="7">
         <v>790</v>
       </c>
     </row>
@@ -10250,13 +10270,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E77">
         <v>500</v>
@@ -10277,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L77">
         <v>9999</v>
@@ -10286,213 +10306,213 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="5">
+    <row r="78" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="9">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E78" s="5">
+      <c r="B78" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" s="9">
         <v>500</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="9">
         <v>150</v>
       </c>
-      <c r="G78" s="5">
-        <v>0</v>
-      </c>
-      <c r="H78" s="5">
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
         <v>1</v>
       </c>
-      <c r="I78" s="5">
-        <v>0</v>
-      </c>
-      <c r="J78" s="5">
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
         <v>1</v>
       </c>
-      <c r="K78" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L78" s="5">
+      <c r="K78" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L78" s="9">
         <v>2000</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="5">
+    <row r="79" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="9">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E79" s="5">
+      <c r="B79" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79" s="9">
         <v>500</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="9">
         <v>150</v>
       </c>
-      <c r="G79" s="5">
-        <v>0</v>
-      </c>
-      <c r="H79" s="5">
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79" s="9">
         <v>1</v>
       </c>
-      <c r="I79" s="5">
-        <v>0</v>
-      </c>
-      <c r="J79" s="5">
+      <c r="I79" s="9">
+        <v>0</v>
+      </c>
+      <c r="J79" s="9">
         <v>1</v>
       </c>
-      <c r="K79" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L79" s="5">
+      <c r="K79" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L79" s="9">
         <v>2100</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="9">
         <v>2100</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="5">
+    <row r="80" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="9">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E80" s="5">
+      <c r="B80" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E80" s="9">
         <v>500</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="9">
         <v>150</v>
       </c>
-      <c r="G80" s="5">
-        <v>0</v>
-      </c>
-      <c r="H80" s="5">
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="9">
         <v>1</v>
       </c>
-      <c r="I80" s="5">
-        <v>0</v>
-      </c>
-      <c r="J80" s="5">
+      <c r="I80" s="9">
+        <v>0</v>
+      </c>
+      <c r="J80" s="9">
         <v>1</v>
       </c>
-      <c r="K80" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L80" s="5">
+      <c r="K80" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L80" s="9">
         <v>2200</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="9">
         <v>2200</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="5">
+    <row r="81" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="9">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E81" s="5">
+      <c r="B81" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E81" s="9">
         <v>500</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="9">
         <v>150</v>
       </c>
-      <c r="G81" s="5">
-        <v>0</v>
-      </c>
-      <c r="H81" s="5">
+      <c r="G81" s="9">
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
         <v>1</v>
       </c>
-      <c r="I81" s="5">
-        <v>0</v>
-      </c>
-      <c r="J81" s="5">
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="9">
         <v>1</v>
       </c>
-      <c r="K81" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L81" s="5">
+      <c r="K81" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L81" s="9">
         <v>2300</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="9">
         <v>2300</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="5">
+    <row r="82" spans="1:13" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E82" s="5">
+      <c r="B82" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E82" s="9">
         <v>500</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="9">
         <v>150</v>
       </c>
-      <c r="G82" s="5">
-        <v>0</v>
-      </c>
-      <c r="H82" s="5">
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
         <v>1</v>
       </c>
-      <c r="I82" s="5">
-        <v>0</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
         <v>1</v>
       </c>
-      <c r="K82" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="L82" s="5">
+      <c r="K82" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L82" s="9">
         <v>2400</v>
       </c>
-      <c r="M82" s="5">
+      <c r="M82" s="9">
         <v>2400</v>
       </c>
     </row>
@@ -10502,13 +10522,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E83">
         <v>500</v>
@@ -10529,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="L83">
         <v>5000</v>
@@ -10544,13 +10564,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C84" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D84" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E84">
         <v>500</v>
@@ -10571,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L84">
         <v>5000</v>
@@ -10586,13 +10606,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C85" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D85" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E85">
         <v>500</v>
@@ -10613,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L85">
         <v>5000</v>
@@ -10628,13 +10648,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C86" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D86" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E86">
         <v>500</v>
@@ -10655,7 +10675,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L86">
         <v>5000</v>
@@ -10670,13 +10690,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D87" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E87">
         <v>500</v>
@@ -10697,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L87">
         <v>5000</v>
@@ -10712,13 +10732,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D88" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E88">
         <v>500</v>
@@ -10739,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L88">
         <v>5000</v>
@@ -10754,13 +10774,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -10781,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L89">
         <v>5000</v>
@@ -10796,13 +10816,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C90" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D90" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E90">
         <v>500</v>
@@ -10823,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L90">
         <v>5000</v>
@@ -10838,13 +10858,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C91" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D91" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E91">
         <v>500</v>
@@ -10865,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L91">
         <v>5000</v>
@@ -10880,13 +10900,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C92" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D92" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -10907,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L92">
         <v>5000</v>
@@ -10922,13 +10942,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C93" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E93">
         <v>500</v>
@@ -10949,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L93">
         <v>5000</v>
@@ -10964,13 +10984,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D94" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E94">
         <v>500</v>
@@ -10991,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L94">
         <v>5000</v>
@@ -11006,13 +11026,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C95" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D95" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E95">
         <v>500</v>
@@ -11033,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L95">
         <v>5000</v>
@@ -11048,13 +11068,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D96" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E96">
         <v>500</v>
@@ -11075,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L96">
         <v>5000</v>
@@ -11090,13 +11110,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D97" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E97">
         <v>500</v>
@@ -11117,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L97">
         <v>5000</v>
@@ -11132,13 +11152,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C98" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D98" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E98">
         <v>500</v>
@@ -11159,7 +11179,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L98">
         <v>5000</v>
@@ -11174,13 +11194,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D99" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E99">
         <v>500</v>
@@ -11201,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L99">
         <v>5000</v>
@@ -11216,13 +11236,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C100" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D100" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E100">
         <v>500</v>
@@ -11243,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L100">
         <v>5000</v>
@@ -11258,13 +11278,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C101" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E101">
         <v>500</v>
@@ -11285,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L101">
         <v>5000</v>
@@ -11300,13 +11320,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C102" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E102">
         <v>500</v>
@@ -11327,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L102">
         <v>5000</v>
@@ -11342,13 +11362,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D103" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E103">
         <v>500</v>
@@ -11369,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L103">
         <v>5000</v>
@@ -11384,13 +11404,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C104" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D104" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E104">
         <v>500</v>
@@ -11411,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L104">
         <v>5000</v>
@@ -11426,13 +11446,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D105" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E105">
         <v>500</v>
@@ -11453,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L105">
         <v>5000</v>
@@ -11468,13 +11488,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C106" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D106" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E106">
         <v>500</v>
@@ -11495,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L106">
         <v>5000</v>
@@ -11510,13 +11530,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C107" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D107" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E107">
         <v>500</v>
@@ -11537,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L107">
         <v>5000</v>
@@ -11552,13 +11572,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C108" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D108" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="E108">
         <v>500</v>
@@ -11579,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L108">
         <v>5000</v>
@@ -11594,13 +11614,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C109" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E109">
         <v>500</v>
@@ -11621,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L109">
         <v>5000</v>
@@ -11636,13 +11656,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D110" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E110">
         <v>500</v>
@@ -11663,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L110">
         <v>5000</v>
@@ -11678,13 +11698,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C111" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E111">
         <v>500</v>
@@ -11705,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L111">
         <v>5000</v>
@@ -11720,13 +11740,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C112" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D112" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E112">
         <v>500</v>
@@ -11747,7 +11767,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L112">
         <v>5000</v>
@@ -11762,13 +11782,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D113" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E113">
         <v>500</v>
@@ -11789,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L113">
         <v>5000</v>
@@ -11804,13 +11824,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C114" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D114" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E114">
         <v>500</v>
@@ -11831,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L114">
         <v>5000</v>
@@ -11846,13 +11866,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C115" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D115" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E115">
         <v>500</v>
@@ -11873,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L115">
         <v>5000</v>
@@ -11888,13 +11908,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C116" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D116" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E116">
         <v>500</v>
@@ -11915,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L116">
         <v>5000</v>
@@ -11930,13 +11950,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C117" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D117" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E117">
         <v>500</v>
@@ -11957,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L117">
         <v>5000</v>
@@ -11972,13 +11992,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D118" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E118">
         <v>500</v>
@@ -11999,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L118">
         <v>5000</v>
@@ -12634,10 +12654,10 @@
         <v>150</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
